--- a/TNR_PREJDD/PREJDD.RT.EQU.xlsx
+++ b/TNR_PREJDD/PREJDD.RT.EQU.xlsx
@@ -13,15 +13,15 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataSignature="AMtx7mg0gJVZrSJZofbnlAhmr3YxGUUYzQ=="/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataChecksum="BSW1sUcpzuYerqq7GoQzDsSSVi4W9t6QiIRwDIAggRU="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="217">
   <si>
     <t>Date</t>
   </si>
@@ -263,6 +263,345 @@
     <t>DT_TRAUPD</t>
   </si>
   <si>
+    <t>RT.EQU.001.LEC.01</t>
+  </si>
+  <si>
+    <t>IMP.RT.EQU.001.LEC.01.........</t>
+  </si>
+  <si>
+    <t>EMP.RT.EQU.001.CRE.01.........</t>
+  </si>
+  <si>
+    <t>CPT.RT.EQU.001.CRE.01</t>
+  </si>
+  <si>
+    <t>$NULL</t>
+  </si>
+  <si>
+    <t>$NU</t>
+  </si>
+  <si>
+    <t>CAL.RT.EQU.001.LEC.01</t>
+  </si>
+  <si>
+    <t>ORG.RT.EQU.001.LEC.01.........</t>
+  </si>
+  <si>
+    <t>GROUPE01</t>
+  </si>
+  <si>
+    <t>CONS02</t>
+  </si>
+  <si>
+    <t>EQU02</t>
+  </si>
+  <si>
+    <t>EQU.RT.EQU.001.LEC.01</t>
+  </si>
+  <si>
+    <t>GROUPE02</t>
+  </si>
+  <si>
+    <t>MEREETFILLE</t>
+  </si>
+  <si>
+    <t>REFCON02</t>
+  </si>
+  <si>
+    <t>DARTY</t>
+  </si>
+  <si>
+    <t>REFFOU02</t>
+  </si>
+  <si>
+    <t>OBSERVATION 02</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>TNR</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>CRITICITE01</t>
+  </si>
+  <si>
+    <t>DEFAUT</t>
+  </si>
+  <si>
+    <t>CLI.RT.EQU.001.LEC.01</t>
+  </si>
+  <si>
+    <t>$DATETIMESYS</t>
+  </si>
+  <si>
+    <t>RT.EQU.001.MAJ.01</t>
+  </si>
+  <si>
+    <t>IMP.RT.EQU.001.MAJ.01.........</t>
+  </si>
+  <si>
+    <t>EMP.RT.EQU.001.LEC.01.........</t>
+  </si>
+  <si>
+    <t>CPT.RT.EQU.001.LEC.01</t>
+  </si>
+  <si>
+    <t>CAL.RT.EQU.001.MAJ.01</t>
+  </si>
+  <si>
+    <t>ORG.RT.EQU.001.MAJ.01.........</t>
+  </si>
+  <si>
+    <t>CONS03</t>
+  </si>
+  <si>
+    <t>EQU03</t>
+  </si>
+  <si>
+    <t>EQU.RT.EQU.001.MAJ.01</t>
+  </si>
+  <si>
+    <t>GROUPE03</t>
+  </si>
+  <si>
+    <t>PEREETFILS</t>
+  </si>
+  <si>
+    <t>REFCON03</t>
+  </si>
+  <si>
+    <t>AMAZON</t>
+  </si>
+  <si>
+    <t>REFFOU03</t>
+  </si>
+  <si>
+    <t>OBSERVATION 03</t>
+  </si>
+  <si>
+    <t>CRITICITE02</t>
+  </si>
+  <si>
+    <t>CLI.RT.EQU.001.MAJ.01</t>
+  </si>
+  <si>
+    <t>RT.EQU.001.SUP.01</t>
+  </si>
+  <si>
+    <t>IMP.RT.EQU.001.SUP.01.........</t>
+  </si>
+  <si>
+    <t>EMP.RT.EQU.001.MAJ.01.........</t>
+  </si>
+  <si>
+    <t>CPT.RT.EQU.001.MAJ.01</t>
+  </si>
+  <si>
+    <t>CAL.RT.EQU.001.SUP.01</t>
+  </si>
+  <si>
+    <t>ORG.RT.EQU.001.SUP.01.........</t>
+  </si>
+  <si>
+    <t>CONS04</t>
+  </si>
+  <si>
+    <t>EQU04</t>
+  </si>
+  <si>
+    <t>EQU.RT.EQU.001.SUP.01</t>
+  </si>
+  <si>
+    <t>GROUPE04</t>
+  </si>
+  <si>
+    <t>REFFOU04</t>
+  </si>
+  <si>
+    <t>OBSERVATION 04</t>
+  </si>
+  <si>
+    <t>CRITICITE03</t>
+  </si>
+  <si>
+    <t>CLI.RT.EQU.001.SUP.01</t>
+  </si>
+  <si>
+    <t>RT.EQU.001.REC.01</t>
+  </si>
+  <si>
+    <t>IMP.RT.EQU.001.REC.01.........</t>
+  </si>
+  <si>
+    <t>EMP.RT.EQU.001.REC.01.........</t>
+  </si>
+  <si>
+    <t>CPT.RT.EQU.001.REC.01</t>
+  </si>
+  <si>
+    <t>CAL.RT.EQU.001.REC.01</t>
+  </si>
+  <si>
+    <t>ORG.RT.EQU.001.REC.01.........</t>
+  </si>
+  <si>
+    <t>CONS05</t>
+  </si>
+  <si>
+    <t>EQU05</t>
+  </si>
+  <si>
+    <t>EQU.RT.EQU.001.REC.01</t>
+  </si>
+  <si>
+    <t>GROUPE05</t>
+  </si>
+  <si>
+    <t>REFFOU05</t>
+  </si>
+  <si>
+    <t>OBSERVATION 05</t>
+  </si>
+  <si>
+    <t>CLI.RT.EQU.001.REC.01</t>
+  </si>
+  <si>
+    <t>RT.ART.006.SRA.01</t>
+  </si>
+  <si>
+    <t>CONS06</t>
+  </si>
+  <si>
+    <t>EQU06</t>
+  </si>
+  <si>
+    <t>EQU.RT.ART.006.SRA.01</t>
+  </si>
+  <si>
+    <t>OBSERVATION 06</t>
+  </si>
+  <si>
+    <t>RT.MAT.001.CRE.01</t>
+  </si>
+  <si>
+    <t>CONS07</t>
+  </si>
+  <si>
+    <t>EQU07</t>
+  </si>
+  <si>
+    <t>EQU.RT.MAT.001.CRE.01</t>
+  </si>
+  <si>
+    <t>OBSERVATION 07</t>
+  </si>
+  <si>
+    <t>TR.BTR.001.CRE.01</t>
+  </si>
+  <si>
+    <t>CONS08</t>
+  </si>
+  <si>
+    <t>EQU08</t>
+  </si>
+  <si>
+    <t>EQU.TR.BTR.001.CRE.01</t>
+  </si>
+  <si>
+    <t>OBSERVATION 08</t>
+  </si>
+  <si>
+    <t>TR.BTR.001.CRE.03</t>
+  </si>
+  <si>
+    <t>CONS09</t>
+  </si>
+  <si>
+    <t>EQU09</t>
+  </si>
+  <si>
+    <t>EQU.TR.BTR.001.CRE.03</t>
+  </si>
+  <si>
+    <t>OBSERVATION 09</t>
+  </si>
+  <si>
+    <t>TR.BTR.001.LEC.01</t>
+  </si>
+  <si>
+    <t>CONS10</t>
+  </si>
+  <si>
+    <t>EQU10</t>
+  </si>
+  <si>
+    <t>EQU.TR.BTR.001.LEC.01</t>
+  </si>
+  <si>
+    <t>OBSERVATION 10</t>
+  </si>
+  <si>
+    <t>TR.BTR.001.MAJ.01</t>
+  </si>
+  <si>
+    <t>CONS11</t>
+  </si>
+  <si>
+    <t>EQU11</t>
+  </si>
+  <si>
+    <t>EQU.UPD.TR.BTR.001.MAJ.01</t>
+  </si>
+  <si>
+    <t>OBSERVATION 11</t>
+  </si>
+  <si>
+    <t>CONS12</t>
+  </si>
+  <si>
+    <t>EQU12</t>
+  </si>
+  <si>
+    <t>EQU.TR.BTR.001.MAJ.01</t>
+  </si>
+  <si>
+    <t>OBSERVATION 12</t>
+  </si>
+  <si>
+    <t>TR.BTR.001.SUP.01</t>
+  </si>
+  <si>
+    <t>CONS13</t>
+  </si>
+  <si>
+    <t>EQU13</t>
+  </si>
+  <si>
+    <t>EQU.TR.BTR.001.SUP.01</t>
+  </si>
+  <si>
+    <t>OBSERVATION 13</t>
+  </si>
+  <si>
+    <t>TR.BTR.001.REC.01</t>
+  </si>
+  <si>
+    <t>CONS14</t>
+  </si>
+  <si>
+    <t>EQU14</t>
+  </si>
+  <si>
+    <t>EQU.TR.BTR.001.REC.01</t>
+  </si>
+  <si>
+    <t>OBSERVATION 14</t>
+  </si>
+  <si>
     <t>CAS DE TEST (EQU_CONTRA)</t>
   </si>
   <si>
@@ -291,6 +630,42 @@
   </si>
   <si>
     <t>OL_DOC</t>
+  </si>
+  <si>
+    <t>NOTES EQUIPEMENT 1000</t>
+  </si>
+  <si>
+    <t>NOTES EQUIPEMENT 1001</t>
+  </si>
+  <si>
+    <t>NOTES EQUIPEMENT 1002</t>
+  </si>
+  <si>
+    <t>NOTES EQUIPEMENT 1003</t>
+  </si>
+  <si>
+    <t>NOTES CONSIGNES SECURITE 2000</t>
+  </si>
+  <si>
+    <t>NOTES CONSIGNES SECURITE 2001</t>
+  </si>
+  <si>
+    <t>NOTES CONSIGNES SECURITE 2002</t>
+  </si>
+  <si>
+    <t>NOTES CONSIGNES SECURITE 2003</t>
+  </si>
+  <si>
+    <t>NOTES DU CONTRAT 3000</t>
+  </si>
+  <si>
+    <t>NOTES DU CONTRAT 3001</t>
+  </si>
+  <si>
+    <t>NOTES DU CONTRAT 3002</t>
+  </si>
+  <si>
+    <t>NOTES DU CONTRAT 3003</t>
   </si>
   <si>
     <t>CAS_DE_TEST</t>
@@ -303,11 +678,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -341,12 +717,25 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -369,6 +758,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
         <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -428,7 +823,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="37">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -459,16 +854,73 @@
     <xf borderId="5" fillId="3" fontId="1" numFmtId="49" xfId="0" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="5" fillId="4" fontId="3" numFmtId="49" xfId="0" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="6" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="5" fillId="4" fontId="3" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1787,7 +2239,26 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="30.0"/>
-    <col customWidth="1" min="2" max="2" width="20.88"/>
+    <col customWidth="1" min="2" max="2" width="24.38"/>
+    <col customWidth="1" min="3" max="3" width="23.63"/>
+    <col customWidth="1" min="4" max="4" width="24.63"/>
+    <col customWidth="1" min="5" max="5" width="20.25"/>
+    <col customWidth="1" min="6" max="6" width="10.63"/>
+    <col customWidth="1" min="7" max="7" width="6.88"/>
+    <col customWidth="1" min="8" max="8" width="11.0"/>
+    <col customWidth="1" min="9" max="9" width="11.13"/>
+    <col customWidth="1" min="14" max="14" width="20.13"/>
+    <col customWidth="1" min="15" max="15" width="24.13"/>
+    <col customWidth="1" min="19" max="19" width="24.75"/>
+    <col customWidth="1" min="21" max="21" width="20.75"/>
+    <col customWidth="1" min="25" max="25" width="24.63"/>
+    <col customWidth="1" min="26" max="26" width="12.25"/>
+    <col customWidth="1" min="27" max="27" width="20.5"/>
+    <col customWidth="1" min="37" max="37" width="9.38"/>
+    <col customWidth="1" min="39" max="39" width="7.75"/>
+    <col customWidth="1" min="40" max="40" width="15.13"/>
+    <col customWidth="1" min="46" max="46" width="24.63"/>
+    <col customWidth="1" min="62" max="63" width="19.5"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -1994,49 +2465,2677 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="14"/>
+      <c r="A2" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="15">
+        <v>1000.0</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="J2" s="19">
+        <v>1000.0</v>
+      </c>
+      <c r="K2" s="19">
+        <v>2000.0</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="M2" s="19">
+        <v>3000.0</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="R2" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="S2" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="T2" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="U2" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="V2" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="W2" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="X2" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="Y2" s="17" t="str">
+        <f t="shared" ref="Y2:Y14" si="1">CONCATENATE(UPPER(AA2),REPT(".",30-LEN(AA2)))</f>
+        <v>EQU.RT.EQU.001.LEC.01.........</v>
+      </c>
+      <c r="Z2" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA2" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB2" s="21">
+        <v>1001.0</v>
+      </c>
+      <c r="AC2" s="21">
+        <v>20.0</v>
+      </c>
+      <c r="AD2" s="21">
+        <v>120.0</v>
+      </c>
+      <c r="AE2" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF2" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG2" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH2" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI2" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ2" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK2" s="22">
+        <v>43922.0</v>
+      </c>
+      <c r="AL2" s="21">
+        <v>20000.0</v>
+      </c>
+      <c r="AM2" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN2" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO2" s="22">
+        <v>44652.0</v>
+      </c>
+      <c r="AP2" s="21">
+        <v>20000.0</v>
+      </c>
+      <c r="AQ2" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="AR2" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS2" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="AT2" s="18" t="str">
+        <f t="shared" ref="AT2:AT14" si="2">Y2</f>
+        <v>EQU.RT.EQU.001.LEC.01.........</v>
+      </c>
+      <c r="AU2" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="AV2" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW2" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX2" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY2" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ2" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA2" s="21">
+        <v>110000.0</v>
+      </c>
+      <c r="BB2" s="22">
+        <v>48305.0</v>
+      </c>
+      <c r="BC2" s="21">
+        <v>2000000.0</v>
+      </c>
+      <c r="BD2" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="BE2" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="BF2" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG2" s="22">
+        <v>44652.0</v>
+      </c>
+      <c r="BH2" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="BI2" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ2" s="23">
+        <v>1000.0</v>
+      </c>
+      <c r="BK2" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="BL2" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="BM2" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN2" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO2" s="24" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="14"/>
+      <c r="A3" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="15">
+        <v>1001.0</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3" s="19">
+        <v>1001.0</v>
+      </c>
+      <c r="K3" s="19">
+        <v>2001.0</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="M3" s="19">
+        <v>3001.0</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q3" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="R3" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="S3" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="T3" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="U3" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="V3" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="W3" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="X3" s="19">
+        <v>3.0</v>
+      </c>
+      <c r="Y3" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>EQU.RT.EQU.001.MAJ.01.........</v>
+      </c>
+      <c r="Z3" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA3" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB3" s="21">
+        <v>1003.0</v>
+      </c>
+      <c r="AC3" s="26">
+        <v>30.0</v>
+      </c>
+      <c r="AD3" s="26">
+        <v>130.0</v>
+      </c>
+      <c r="AE3" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF3" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG3" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH3" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI3" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ3" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK3" s="27">
+        <v>43466.0</v>
+      </c>
+      <c r="AL3" s="26">
+        <v>30000.0</v>
+      </c>
+      <c r="AM3" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN3" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="AO3" s="22">
+        <v>43831.0</v>
+      </c>
+      <c r="AP3" s="26">
+        <v>30000.0</v>
+      </c>
+      <c r="AQ3" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR3" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AS3" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AT3" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>EQU.RT.EQU.001.MAJ.01.........</v>
+      </c>
+      <c r="AU3" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AV3" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AW3" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX3" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY3" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ3" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA3" s="26">
+        <v>200000.0</v>
+      </c>
+      <c r="BB3" s="22">
+        <v>47484.0</v>
+      </c>
+      <c r="BC3" s="21">
+        <v>4000000.0</v>
+      </c>
+      <c r="BD3" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="BE3" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="BF3" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG3" s="22">
+        <v>43831.0</v>
+      </c>
+      <c r="BH3" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="BI3" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ3" s="23">
+        <v>1002.0</v>
+      </c>
+      <c r="BK3" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="BL3" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="BM3" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN3" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO3" s="24" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="14"/>
+      <c r="A4" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="15">
+        <v>1002.0</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="J4" s="28">
+        <v>1002.0</v>
+      </c>
+      <c r="K4" s="19">
+        <v>2002.0</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="M4" s="19">
+        <v>3002.0</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="O4" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="P4" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q4" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="R4" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="S4" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="T4" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="U4" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="V4" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="W4" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="X4" s="29">
+        <v>4.0</v>
+      </c>
+      <c r="Y4" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>EQU.RT.EQU.001.SUP.01.........</v>
+      </c>
+      <c r="Z4" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA4" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB4" s="26">
+        <v>1004.0</v>
+      </c>
+      <c r="AC4" s="23">
+        <v>40.0</v>
+      </c>
+      <c r="AD4" s="23">
+        <v>140.0</v>
+      </c>
+      <c r="AE4" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF4" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG4" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH4" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI4" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ4" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="AK4" s="27">
+        <v>43466.0</v>
+      </c>
+      <c r="AL4" s="21">
+        <v>40000.0</v>
+      </c>
+      <c r="AM4" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN4" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="AO4" s="22">
+        <v>43831.0</v>
+      </c>
+      <c r="AP4" s="21">
+        <v>40000.0</v>
+      </c>
+      <c r="AQ4" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="AR4" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS4" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="AT4" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>EQU.RT.EQU.001.SUP.01.........</v>
+      </c>
+      <c r="AU4" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="AV4" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW4" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX4" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY4" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ4" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA4" s="21">
+        <v>290000.0</v>
+      </c>
+      <c r="BB4" s="22">
+        <v>47484.0</v>
+      </c>
+      <c r="BC4" s="21">
+        <v>6000000.0</v>
+      </c>
+      <c r="BD4" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="BE4" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="BF4" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG4" s="22">
+        <v>43831.0</v>
+      </c>
+      <c r="BH4" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="BI4" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ4" s="30">
+        <v>1004.0</v>
+      </c>
+      <c r="BK4" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="BL4" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="BM4" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN4" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO4" s="24" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="14"/>
+      <c r="A5" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="15">
+        <v>1003.0</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="J5" s="28">
+        <v>1003.0</v>
+      </c>
+      <c r="K5" s="19">
+        <v>2003.0</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="M5" s="19">
+        <v>3003.0</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="O5" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="P5" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q5" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="R5" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="S5" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="T5" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="U5" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="V5" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="W5" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="X5" s="29">
+        <v>5.0</v>
+      </c>
+      <c r="Y5" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>EQU.RT.EQU.001.REC.01.........</v>
+      </c>
+      <c r="Z5" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA5" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB5" s="26">
+        <v>1005.0</v>
+      </c>
+      <c r="AC5" s="23">
+        <v>50.0</v>
+      </c>
+      <c r="AD5" s="23">
+        <v>150.0</v>
+      </c>
+      <c r="AE5" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF5" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG5" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH5" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI5" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ5" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK5" s="27">
+        <v>43466.0</v>
+      </c>
+      <c r="AL5" s="26">
+        <v>50000.0</v>
+      </c>
+      <c r="AM5" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN5" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO5" s="22">
+        <v>43831.0</v>
+      </c>
+      <c r="AP5" s="26">
+        <v>50000.0</v>
+      </c>
+      <c r="AQ5" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR5" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AS5" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AT5" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>EQU.RT.EQU.001.REC.01.........</v>
+      </c>
+      <c r="AU5" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AV5" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AW5" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX5" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY5" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ5" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA5" s="26">
+        <v>380000.0</v>
+      </c>
+      <c r="BB5" s="22">
+        <v>47484.0</v>
+      </c>
+      <c r="BC5" s="21">
+        <v>8000000.0</v>
+      </c>
+      <c r="BD5" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="BE5" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="BF5" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG5" s="22">
+        <v>43831.0</v>
+      </c>
+      <c r="BH5" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="BI5" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ5" s="30">
+        <v>1005.0</v>
+      </c>
+      <c r="BK5" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="BL5" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="BM5" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN5" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO5" s="24" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="14"/>
+      <c r="A6" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="15">
+        <v>1004.0</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="N6" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="O6" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="P6" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q6" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="R6" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="S6" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="T6" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="U6" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="V6" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="W6" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="X6" s="29">
+        <v>6.0</v>
+      </c>
+      <c r="Y6" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>EQU.RT.ART.006.SRA.01.........</v>
+      </c>
+      <c r="Z6" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA6" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB6" s="23">
+        <v>1006.0</v>
+      </c>
+      <c r="AC6" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD6" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE6" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF6" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG6" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH6" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI6" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ6" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK6" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL6" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM6" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN6" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO6" s="22">
+        <v>43831.0</v>
+      </c>
+      <c r="AP6" s="26">
+        <v>50000.0</v>
+      </c>
+      <c r="AQ6" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR6" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AS6" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AT6" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>EQU.RT.ART.006.SRA.01.........</v>
+      </c>
+      <c r="AU6" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="AV6" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW6" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX6" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY6" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ6" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA6" s="26">
+        <v>380000.0</v>
+      </c>
+      <c r="BB6" s="22">
+        <v>47484.0</v>
+      </c>
+      <c r="BC6" s="21">
+        <v>8000000.0</v>
+      </c>
+      <c r="BD6" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="BE6" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="BF6" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG6" s="22">
+        <v>43831.0</v>
+      </c>
+      <c r="BH6" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="BI6" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ6" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK6" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL6" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="BM6" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN6" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO6" s="24" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="14"/>
+      <c r="A7" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="15">
+        <v>1005.0</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="N7" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="O7" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q7" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="R7" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="S7" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="T7" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="U7" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="V7" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="W7" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="X7" s="29">
+        <v>7.0</v>
+      </c>
+      <c r="Y7" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>EQU.RT.MAT.001.CRE.01.........</v>
+      </c>
+      <c r="Z7" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA7" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB7" s="23">
+        <v>1007.0</v>
+      </c>
+      <c r="AC7" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD7" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE7" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF7" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG7" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH7" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI7" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ7" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK7" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL7" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM7" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN7" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="AO7" s="22">
+        <v>43831.0</v>
+      </c>
+      <c r="AP7" s="26">
+        <v>50000.0</v>
+      </c>
+      <c r="AQ7" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR7" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AS7" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AT7" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>EQU.RT.MAT.001.CRE.01.........</v>
+      </c>
+      <c r="AU7" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="AV7" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW7" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX7" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY7" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ7" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA7" s="26">
+        <v>380000.0</v>
+      </c>
+      <c r="BB7" s="22">
+        <v>47484.0</v>
+      </c>
+      <c r="BC7" s="21">
+        <v>8000000.0</v>
+      </c>
+      <c r="BD7" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="BE7" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="BF7" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG7" s="22">
+        <v>43831.0</v>
+      </c>
+      <c r="BH7" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="BI7" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ7" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK7" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL7" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="BM7" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN7" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO7" s="24" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="14"/>
+      <c r="A8" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" s="15">
+        <v>1006.0</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="M8" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="N8" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="O8" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q8" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="R8" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="S8" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="T8" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="U8" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="V8" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="W8" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="X8" s="29">
+        <v>8.0</v>
+      </c>
+      <c r="Y8" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>EQU.TR.BTR.001.CRE.01.........</v>
+      </c>
+      <c r="Z8" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA8" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB8" s="23">
+        <v>1008.0</v>
+      </c>
+      <c r="AC8" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD8" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE8" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF8" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG8" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH8" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI8" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ8" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK8" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL8" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM8" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN8" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="AO8" s="22">
+        <v>43831.0</v>
+      </c>
+      <c r="AP8" s="26">
+        <v>50000.0</v>
+      </c>
+      <c r="AQ8" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR8" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AS8" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AT8" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>EQU.TR.BTR.001.CRE.01.........</v>
+      </c>
+      <c r="AU8" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="AV8" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW8" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX8" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY8" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ8" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA8" s="21">
+        <v>110000.0</v>
+      </c>
+      <c r="BB8" s="22">
+        <v>48305.0</v>
+      </c>
+      <c r="BC8" s="21">
+        <v>2000000.0</v>
+      </c>
+      <c r="BD8" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="BE8" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="BF8" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG8" s="22">
+        <v>44652.0</v>
+      </c>
+      <c r="BH8" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="BI8" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ8" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK8" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL8" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="BM8" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN8" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO8" s="24" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="2"/>
+      <c r="A9" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" s="15">
+        <v>1007.0</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="M9" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="N9" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="O9" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q9" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="R9" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="S9" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="T9" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="U9" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="V9" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="W9" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="X9" s="29">
+        <v>9.0</v>
+      </c>
+      <c r="Y9" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>EQU.TR.BTR.001.CRE.03.........</v>
+      </c>
+      <c r="Z9" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA9" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB9" s="23">
+        <v>1009.0</v>
+      </c>
+      <c r="AC9" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD9" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE9" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF9" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG9" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH9" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI9" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ9" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK9" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL9" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM9" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN9" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="AO9" s="22">
+        <v>43831.0</v>
+      </c>
+      <c r="AP9" s="26">
+        <v>50000.0</v>
+      </c>
+      <c r="AQ9" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR9" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AS9" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AT9" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>EQU.TR.BTR.001.CRE.03.........</v>
+      </c>
+      <c r="AU9" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="AV9" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW9" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX9" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY9" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ9" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA9" s="21">
+        <v>110000.0</v>
+      </c>
+      <c r="BB9" s="22">
+        <v>48305.0</v>
+      </c>
+      <c r="BC9" s="21">
+        <v>2000000.0</v>
+      </c>
+      <c r="BD9" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="BE9" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="BF9" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG9" s="22">
+        <v>44652.0</v>
+      </c>
+      <c r="BH9" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="BI9" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ9" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK9" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL9" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="BM9" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN9" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO9" s="24" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="2"/>
+      <c r="A10" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="15">
+        <v>1008.0</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="N10" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="O10" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q10" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="R10" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="S10" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="T10" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="U10" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="V10" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="W10" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="X10" s="29">
+        <v>10.0</v>
+      </c>
+      <c r="Y10" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>EQU.TR.BTR.001.LEC.01.........</v>
+      </c>
+      <c r="Z10" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA10" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB10" s="23">
+        <v>1010.0</v>
+      </c>
+      <c r="AC10" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD10" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE10" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF10" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG10" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH10" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI10" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ10" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK10" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL10" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM10" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN10" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="AO10" s="22">
+        <v>43831.0</v>
+      </c>
+      <c r="AP10" s="26">
+        <v>50000.0</v>
+      </c>
+      <c r="AQ10" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR10" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AS10" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AT10" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>EQU.TR.BTR.001.LEC.01.........</v>
+      </c>
+      <c r="AU10" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="AV10" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW10" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX10" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY10" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ10" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA10" s="21">
+        <v>110000.0</v>
+      </c>
+      <c r="BB10" s="22">
+        <v>48305.0</v>
+      </c>
+      <c r="BC10" s="21">
+        <v>2000000.0</v>
+      </c>
+      <c r="BD10" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="BE10" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="BF10" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG10" s="22">
+        <v>44652.0</v>
+      </c>
+      <c r="BH10" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="BI10" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ10" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK10" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL10" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="BM10" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN10" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO10" s="24" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="2"/>
+      <c r="A11" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="B11" s="15">
+        <v>1009.0</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="M11" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="N11" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="O11" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="P11" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q11" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="R11" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="S11" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="T11" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="U11" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="V11" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="W11" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="X11" s="29">
+        <v>11.0</v>
+      </c>
+      <c r="Y11" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>EQU.UPD.TR.BTR.001.MAJ.01.....</v>
+      </c>
+      <c r="Z11" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="AA11" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB11" s="23">
+        <v>1011.0</v>
+      </c>
+      <c r="AC11" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD11" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE11" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF11" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG11" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH11" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI11" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ11" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK11" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL11" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM11" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN11" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="AO11" s="22">
+        <v>43831.0</v>
+      </c>
+      <c r="AP11" s="26">
+        <v>50000.0</v>
+      </c>
+      <c r="AQ11" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR11" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AS11" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AT11" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>EQU.UPD.TR.BTR.001.MAJ.01.....</v>
+      </c>
+      <c r="AU11" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="AV11" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW11" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX11" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY11" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ11" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA11" s="21">
+        <v>110000.0</v>
+      </c>
+      <c r="BB11" s="22">
+        <v>48305.0</v>
+      </c>
+      <c r="BC11" s="21">
+        <v>2000000.0</v>
+      </c>
+      <c r="BD11" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="BE11" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="BF11" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG11" s="22">
+        <v>44652.0</v>
+      </c>
+      <c r="BH11" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="BI11" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ11" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK11" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL11" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="BM11" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN11" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO11" s="24" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="2"/>
+      <c r="A12" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="B12" s="15">
+        <v>1010.0</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="M12" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="N12" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="O12" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q12" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="R12" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="S12" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="T12" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="U12" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="V12" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="W12" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="X12" s="29">
+        <v>12.0</v>
+      </c>
+      <c r="Y12" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>EQU.TR.BTR.001.MAJ.01.........</v>
+      </c>
+      <c r="Z12" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="AA12" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB12" s="23">
+        <v>1012.0</v>
+      </c>
+      <c r="AC12" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD12" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE12" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF12" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG12" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH12" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI12" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ12" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK12" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL12" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM12" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN12" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="AO12" s="22">
+        <v>43831.0</v>
+      </c>
+      <c r="AP12" s="26">
+        <v>50000.0</v>
+      </c>
+      <c r="AQ12" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR12" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AS12" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AT12" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>EQU.TR.BTR.001.MAJ.01.........</v>
+      </c>
+      <c r="AU12" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="AV12" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW12" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX12" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY12" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ12" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA12" s="21">
+        <v>110000.0</v>
+      </c>
+      <c r="BB12" s="22">
+        <v>48305.0</v>
+      </c>
+      <c r="BC12" s="21">
+        <v>2000000.0</v>
+      </c>
+      <c r="BD12" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="BE12" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="BF12" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG12" s="22">
+        <v>44652.0</v>
+      </c>
+      <c r="BH12" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="BI12" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ12" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK12" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL12" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="BM12" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN12" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO12" s="24" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="2"/>
+      <c r="A13" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="B13" s="15">
+        <v>1011.0</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="M13" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="N13" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="O13" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="P13" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q13" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="R13" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="S13" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="T13" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="U13" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="V13" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="W13" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="X13" s="29">
+        <v>13.0</v>
+      </c>
+      <c r="Y13" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>EQU.TR.BTR.001.SUP.01.........</v>
+      </c>
+      <c r="Z13" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="AA13" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB13" s="23">
+        <v>1013.0</v>
+      </c>
+      <c r="AC13" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD13" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE13" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF13" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG13" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH13" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI13" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ13" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK13" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL13" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM13" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN13" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="AO13" s="22">
+        <v>43831.0</v>
+      </c>
+      <c r="AP13" s="26">
+        <v>50000.0</v>
+      </c>
+      <c r="AQ13" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR13" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AS13" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AT13" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>EQU.TR.BTR.001.SUP.01.........</v>
+      </c>
+      <c r="AU13" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="AV13" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW13" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX13" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY13" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ13" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA13" s="21">
+        <v>110000.0</v>
+      </c>
+      <c r="BB13" s="22">
+        <v>48305.0</v>
+      </c>
+      <c r="BC13" s="21">
+        <v>2000000.0</v>
+      </c>
+      <c r="BD13" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="BE13" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="BF13" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG13" s="22">
+        <v>44652.0</v>
+      </c>
+      <c r="BH13" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="BI13" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ13" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK13" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL13" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="BM13" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN13" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO13" s="24" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="2"/>
+      <c r="A14" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="B14" s="15">
+        <v>1012.0</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="K14" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="M14" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="N14" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="O14" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="P14" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q14" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="R14" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="S14" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="T14" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="U14" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="V14" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="W14" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="X14" s="29">
+        <v>14.0</v>
+      </c>
+      <c r="Y14" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>EQU.TR.BTR.001.REC.01.........</v>
+      </c>
+      <c r="Z14" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA14" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB14" s="23">
+        <v>1014.0</v>
+      </c>
+      <c r="AC14" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD14" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE14" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF14" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG14" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH14" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI14" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ14" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK14" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL14" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM14" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN14" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="AO14" s="22">
+        <v>43831.0</v>
+      </c>
+      <c r="AP14" s="26">
+        <v>50000.0</v>
+      </c>
+      <c r="AQ14" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR14" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AS14" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AT14" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>EQU.TR.BTR.001.REC.01.........</v>
+      </c>
+      <c r="AU14" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="AV14" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW14" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX14" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY14" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ14" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA14" s="21">
+        <v>110000.0</v>
+      </c>
+      <c r="BB14" s="22">
+        <v>48305.0</v>
+      </c>
+      <c r="BC14" s="21">
+        <v>2000000.0</v>
+      </c>
+      <c r="BD14" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="BE14" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="BF14" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG14" s="22">
+        <v>44652.0</v>
+      </c>
+      <c r="BH14" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="BI14" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ14" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK14" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL14" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="BM14" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN14" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO14" s="24" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="2"/>
+      <c r="AF15" s="16"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="2"/>
+      <c r="AF16" s="17"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="2"/>
@@ -2641,15 +5740,9 @@
     <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="2"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="2"/>
-    </row>
-    <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="2"/>
-    </row>
-    <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="2"/>
-    </row>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>
     <row r="223" ht="15.75" customHeight="1"/>
@@ -3427,9 +6520,6 @@
     <row r="995" ht="15.75" customHeight="1"/>
     <row r="996" ht="15.75" customHeight="1"/>
     <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -3459,20 +6549,20 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="16" t="s">
+      <c r="A1" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>82</v>
+      <c r="D1" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>195</v>
       </c>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
@@ -3497,25 +6587,25 @@
       <c r="Z1" s="13"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="14"/>
+      <c r="A2" s="36"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="14"/>
+      <c r="A3" s="36"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="14"/>
+      <c r="A4" s="36"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="14"/>
+      <c r="A5" s="36"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="14"/>
+      <c r="A6" s="36"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="14"/>
+      <c r="A7" s="36"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="14"/>
+      <c r="A8" s="36"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2"/>
@@ -6513,22 +9603,22 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="16" t="s">
+      <c r="A1" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="F1" s="17" t="s">
+      <c r="C1" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="F1" s="35" t="s">
         <v>52</v>
       </c>
       <c r="G1" s="13"/>
@@ -6553,25 +9643,25 @@
       <c r="Z1" s="13"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="14"/>
+      <c r="A2" s="36"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="14"/>
+      <c r="A3" s="36"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="14"/>
+      <c r="A4" s="36"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="14"/>
+      <c r="A5" s="36"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="14"/>
+      <c r="A6" s="36"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="14"/>
+      <c r="A7" s="36"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="14"/>
+      <c r="A8" s="36"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2"/>
@@ -9566,17 +12656,18 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="30.0"/>
     <col customWidth="1" min="2" max="2" width="20.88"/>
+    <col customWidth="1" min="3" max="3" width="25.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>89</v>
+      <c r="A1" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>202</v>
       </c>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
@@ -9603,40 +12694,136 @@
       <c r="Z1" s="13"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="14"/>
+      <c r="A2" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="19">
+        <v>1000.0</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="14"/>
+      <c r="A3" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="19">
+        <v>1001.0</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="14"/>
+      <c r="A4" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="29">
+        <v>1002.0</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="14"/>
+      <c r="A5" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="29">
+        <v>1003.0</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="14"/>
+      <c r="A6" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="19">
+        <v>2000.0</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="14"/>
+      <c r="A7" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="19">
+        <v>2001.0</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="14"/>
+      <c r="A8" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="19">
+        <v>2002.0</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="2"/>
+      <c r="A9" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" s="19">
+        <v>2003.0</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="2"/>
+      <c r="A10" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="19">
+        <v>3000.0</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="2"/>
+      <c r="A11" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" s="19">
+        <v>3001.0</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="2"/>
+      <c r="A12" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" s="19">
+        <v>3002.0</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="2"/>
+      <c r="A13" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" s="19">
+        <v>3003.0</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="2"/>
@@ -12557,16 +15744,16 @@
     <row r="986" ht="15.75" customHeight="1">
       <c r="A986" s="2"/>
     </row>
-    <row r="987">
+    <row r="987" ht="15.75" customHeight="1">
       <c r="A987" s="2"/>
     </row>
-    <row r="988">
+    <row r="988" ht="15.75" customHeight="1">
       <c r="A988" s="2"/>
     </row>
-    <row r="989">
+    <row r="989" ht="15.75" customHeight="1">
       <c r="A989" s="2"/>
     </row>
-    <row r="990">
+    <row r="990" ht="15.75" customHeight="1">
       <c r="A990" s="2"/>
     </row>
     <row r="991">
@@ -12589,6 +15776,18 @@
     </row>
     <row r="997">
       <c r="A997" s="2"/>
+    </row>
+    <row r="998">
+      <c r="A998" s="2"/>
+    </row>
+    <row r="999">
+      <c r="A999" s="2"/>
+    </row>
+    <row r="1000">
+      <c r="A1000" s="2"/>
+    </row>
+    <row r="1001">
+      <c r="A1001" s="2"/>
     </row>
   </sheetData>
   <printOptions/>
@@ -12620,10 +15819,10 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>90</v>
+        <v>215</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>91</v>
+        <v>216</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -12651,25 +15850,25 @@
       <c r="Z1" s="13"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="14"/>
+      <c r="A2" s="36"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="14"/>
+      <c r="A3" s="36"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="14"/>
+      <c r="A4" s="36"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="14"/>
+      <c r="A5" s="36"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="14"/>
+      <c r="A6" s="36"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="14"/>
+      <c r="A7" s="36"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="14"/>
+      <c r="A8" s="36"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2"/>

--- a/TNR_PREJDD/PREJDD.RT.EQU.xlsx
+++ b/TNR_PREJDD/PREJDD.RT.EQU.xlsx
@@ -269,10 +269,10 @@
     <t>IMP.RT.EQU.001.LEC.01.........</t>
   </si>
   <si>
-    <t>EMP.RT.EQU.001.CRE.01.........</t>
-  </si>
-  <si>
-    <t>CPT.RT.EQU.001.CRE.01</t>
+    <t>EMP.RT.EQU.001.LEC.01.........</t>
+  </si>
+  <si>
+    <t>CPT.RT.EQU.001.LEC.01</t>
   </si>
   <si>
     <t>$NULL</t>
@@ -344,10 +344,10 @@
     <t>IMP.RT.EQU.001.MAJ.01.........</t>
   </si>
   <si>
-    <t>EMP.RT.EQU.001.LEC.01.........</t>
-  </si>
-  <si>
-    <t>CPT.RT.EQU.001.LEC.01</t>
+    <t>EMP.RT.EQU.001.MAJ.01.........</t>
+  </si>
+  <si>
+    <t>CPT.RT.EQU.001.MAJ.01</t>
   </si>
   <si>
     <t>CAL.RT.EQU.001.MAJ.01</t>
@@ -395,10 +395,10 @@
     <t>IMP.RT.EQU.001.SUP.01.........</t>
   </si>
   <si>
-    <t>EMP.RT.EQU.001.MAJ.01.........</t>
-  </si>
-  <si>
-    <t>CPT.RT.EQU.001.MAJ.01</t>
+    <t>EMP.RT.EQU.001.SUP.01.........</t>
+  </si>
+  <si>
+    <t>CPT.RT.EQU.001.SUP.01</t>
   </si>
   <si>
     <t>CAL.RT.EQU.001.SUP.01</t>
@@ -2682,7 +2682,7 @@
       <c r="D3" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="16" t="s">
         <v>108</v>
       </c>
       <c r="F3" s="18" t="s">

--- a/TNR_PREJDD/PREJDD.RT.EQU.xlsx
+++ b/TNR_PREJDD/PREJDD.RT.EQU.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="216">
   <si>
     <t>Date</t>
   </si>
@@ -299,63 +299,66 @@
     <t>EQU.RT.EQU.001.LEC.01</t>
   </si>
   <si>
+    <t>ATTENTE REPONSE MOE</t>
+  </si>
+  <si>
+    <t>MEREETFILLE</t>
+  </si>
+  <si>
+    <t>REFCON02</t>
+  </si>
+  <si>
+    <t>DARTY</t>
+  </si>
+  <si>
+    <t>REFFOU02</t>
+  </si>
+  <si>
+    <t>OBSERVATION 02</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>TNR</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>CRITICITE01</t>
+  </si>
+  <si>
+    <t>DEFAUT</t>
+  </si>
+  <si>
+    <t>CLI.RT.EQU.001.LEC.01</t>
+  </si>
+  <si>
+    <t>$DATETIMESYS</t>
+  </si>
+  <si>
+    <t>RT.EQU.001.MAJ.01</t>
+  </si>
+  <si>
+    <t>IMP.RT.EQU.001.MAJ.01.........</t>
+  </si>
+  <si>
+    <t>EMP.RT.EQU.001.MAJ.01.........</t>
+  </si>
+  <si>
+    <t>CPT.RT.EQU.001.MAJ.01</t>
+  </si>
+  <si>
+    <t>CAL.RT.EQU.001.MAJ.01</t>
+  </si>
+  <si>
+    <t>ORG.RT.EQU.001.MAJ.01.........</t>
+  </si>
+  <si>
     <t>GROUPE02</t>
   </si>
   <si>
-    <t>MEREETFILLE</t>
-  </si>
-  <si>
-    <t>REFCON02</t>
-  </si>
-  <si>
-    <t>DARTY</t>
-  </si>
-  <si>
-    <t>REFFOU02</t>
-  </si>
-  <si>
-    <t>OBSERVATION 02</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>TNR</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>CRITICITE01</t>
-  </si>
-  <si>
-    <t>DEFAUT</t>
-  </si>
-  <si>
-    <t>CLI.RT.EQU.001.LEC.01</t>
-  </si>
-  <si>
-    <t>$DATETIMESYS</t>
-  </si>
-  <si>
-    <t>RT.EQU.001.MAJ.01</t>
-  </si>
-  <si>
-    <t>IMP.RT.EQU.001.MAJ.01.........</t>
-  </si>
-  <si>
-    <t>EMP.RT.EQU.001.MAJ.01.........</t>
-  </si>
-  <si>
-    <t>CPT.RT.EQU.001.MAJ.01</t>
-  </si>
-  <si>
-    <t>CAL.RT.EQU.001.MAJ.01</t>
-  </si>
-  <si>
-    <t>ORG.RT.EQU.001.MAJ.01.........</t>
-  </si>
-  <si>
     <t>CONS03</t>
   </si>
   <si>
@@ -365,48 +368,48 @@
     <t>EQU.RT.EQU.001.MAJ.01</t>
   </si>
   <si>
+    <t>PEREETFILS</t>
+  </si>
+  <si>
+    <t>REFCON03</t>
+  </si>
+  <si>
+    <t>AMAZON</t>
+  </si>
+  <si>
+    <t>REFFOU03</t>
+  </si>
+  <si>
+    <t>OBSERVATION 03</t>
+  </si>
+  <si>
+    <t>CRITICITE02</t>
+  </si>
+  <si>
+    <t>CLI.RT.EQU.001.MAJ.01</t>
+  </si>
+  <si>
+    <t>RT.EQU.001.SUP.01</t>
+  </si>
+  <si>
+    <t>IMP.RT.EQU.001.SUP.01.........</t>
+  </si>
+  <si>
+    <t>EMP.RT.EQU.001.SUP.01.........</t>
+  </si>
+  <si>
+    <t>CPT.RT.EQU.001.SUP.01</t>
+  </si>
+  <si>
+    <t>CAL.RT.EQU.001.SUP.01</t>
+  </si>
+  <si>
+    <t>ORG.RT.EQU.001.SUP.01.........</t>
+  </si>
+  <si>
     <t>GROUPE03</t>
   </si>
   <si>
-    <t>PEREETFILS</t>
-  </si>
-  <si>
-    <t>REFCON03</t>
-  </si>
-  <si>
-    <t>AMAZON</t>
-  </si>
-  <si>
-    <t>REFFOU03</t>
-  </si>
-  <si>
-    <t>OBSERVATION 03</t>
-  </si>
-  <si>
-    <t>CRITICITE02</t>
-  </si>
-  <si>
-    <t>CLI.RT.EQU.001.MAJ.01</t>
-  </si>
-  <si>
-    <t>RT.EQU.001.SUP.01</t>
-  </si>
-  <si>
-    <t>IMP.RT.EQU.001.SUP.01.........</t>
-  </si>
-  <si>
-    <t>EMP.RT.EQU.001.SUP.01.........</t>
-  </si>
-  <si>
-    <t>CPT.RT.EQU.001.SUP.01</t>
-  </si>
-  <si>
-    <t>CAL.RT.EQU.001.SUP.01</t>
-  </si>
-  <si>
-    <t>ORG.RT.EQU.001.SUP.01.........</t>
-  </si>
-  <si>
     <t>CONS04</t>
   </si>
   <si>
@@ -416,9 +419,6 @@
     <t>EQU.RT.EQU.001.SUP.01</t>
   </si>
   <si>
-    <t>GROUPE04</t>
-  </si>
-  <si>
     <t>REFFOU04</t>
   </si>
   <si>
@@ -456,9 +456,6 @@
   </si>
   <si>
     <t>EQU.RT.EQU.001.REC.01</t>
-  </si>
-  <si>
-    <t>GROUPE05</t>
   </si>
   <si>
     <t>REFFOU05</t>
@@ -683,7 +680,7 @@
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -723,6 +720,11 @@
     <font>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <color theme="1"/>
@@ -823,7 +825,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -872,22 +874,25 @@
     <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="5" fontId="6" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -896,7 +901,10 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -911,13 +919,13 @@
     <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="3" fontId="10" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="5" fillId="4" fontId="3" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
@@ -2254,6 +2262,7 @@
     <col customWidth="1" min="25" max="25" width="24.63"/>
     <col customWidth="1" min="26" max="26" width="12.25"/>
     <col customWidth="1" min="27" max="27" width="20.5"/>
+    <col customWidth="1" min="32" max="32" width="21.38"/>
     <col customWidth="1" min="37" max="37" width="9.38"/>
     <col customWidth="1" min="39" max="39" width="7.75"/>
     <col customWidth="1" min="40" max="40" width="15.13"/>
@@ -2525,7 +2534,7 @@
       <c r="T2" s="19">
         <v>0.0</v>
       </c>
-      <c r="U2" s="20" t="s">
+      <c r="U2" s="17" t="s">
         <v>88</v>
       </c>
       <c r="V2" s="17" t="s">
@@ -2547,19 +2556,19 @@
       <c r="AA2" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="AB2" s="21">
+      <c r="AB2" s="20">
         <v>1001.0</v>
       </c>
-      <c r="AC2" s="21">
+      <c r="AC2" s="20">
         <v>20.0</v>
       </c>
-      <c r="AD2" s="21">
+      <c r="AD2" s="20">
         <v>120.0</v>
       </c>
       <c r="AE2" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="AF2" s="17" t="s">
+      <c r="AF2" s="21" t="s">
         <v>92</v>
       </c>
       <c r="AG2" s="17" t="s">
@@ -2577,7 +2586,7 @@
       <c r="AK2" s="22">
         <v>43922.0</v>
       </c>
-      <c r="AL2" s="21">
+      <c r="AL2" s="20">
         <v>20000.0</v>
       </c>
       <c r="AM2" s="17" t="s">
@@ -2589,7 +2598,7 @@
       <c r="AO2" s="22">
         <v>44652.0</v>
       </c>
-      <c r="AP2" s="21">
+      <c r="AP2" s="20">
         <v>20000.0</v>
       </c>
       <c r="AQ2" s="17" t="s">
@@ -2623,19 +2632,19 @@
       <c r="AZ2" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="BA2" s="21">
+      <c r="BA2" s="20">
         <v>110000.0</v>
       </c>
       <c r="BB2" s="22">
         <v>48305.0</v>
       </c>
-      <c r="BC2" s="21">
+      <c r="BC2" s="20">
         <v>2000000.0</v>
       </c>
       <c r="BD2" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="BE2" s="20" t="s">
+      <c r="BE2" s="23" t="s">
         <v>101</v>
       </c>
       <c r="BF2" s="17" t="s">
@@ -2644,28 +2653,28 @@
       <c r="BG2" s="22">
         <v>44652.0</v>
       </c>
-      <c r="BH2" s="20" t="s">
+      <c r="BH2" s="23" t="s">
         <v>102</v>
       </c>
       <c r="BI2" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BJ2" s="23">
+      <c r="BJ2" s="24">
         <v>1000.0</v>
       </c>
       <c r="BK2" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="BL2" s="24" t="s">
+      <c r="BL2" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="BM2" s="24" t="s">
+      <c r="BM2" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="BN2" s="24" t="s">
+      <c r="BN2" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="BO2" s="24" t="s">
+      <c r="BO2" s="25" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2730,11 +2739,11 @@
       <c r="T3" s="19">
         <v>0.0</v>
       </c>
-      <c r="U3" s="25" t="s">
-        <v>92</v>
+      <c r="U3" s="26" t="s">
+        <v>111</v>
       </c>
       <c r="V3" s="16" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="W3" s="19">
         <v>1.0</v>
@@ -2747,25 +2756,25 @@
         <v>EQU.RT.EQU.001.MAJ.01.........</v>
       </c>
       <c r="Z3" s="17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AA3" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB3" s="21">
+        <v>114</v>
+      </c>
+      <c r="AB3" s="20">
         <v>1003.0</v>
       </c>
-      <c r="AC3" s="26">
+      <c r="AC3" s="27">
         <v>30.0</v>
       </c>
-      <c r="AD3" s="26">
+      <c r="AD3" s="27">
         <v>130.0</v>
       </c>
       <c r="AE3" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="AF3" s="16" t="s">
-        <v>114</v>
+      <c r="AF3" s="21" t="s">
+        <v>92</v>
       </c>
       <c r="AG3" s="16" t="s">
         <v>115</v>
@@ -2779,10 +2788,10 @@
       <c r="AJ3" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="AK3" s="27">
+      <c r="AK3" s="28">
         <v>43466.0</v>
       </c>
-      <c r="AL3" s="26">
+      <c r="AL3" s="27">
         <v>30000.0</v>
       </c>
       <c r="AM3" s="17" t="s">
@@ -2794,7 +2803,7 @@
       <c r="AO3" s="22">
         <v>43831.0</v>
       </c>
-      <c r="AP3" s="26">
+      <c r="AP3" s="27">
         <v>30000.0</v>
       </c>
       <c r="AQ3" s="16" t="s">
@@ -2828,19 +2837,19 @@
       <c r="AZ3" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="BA3" s="26">
+      <c r="BA3" s="27">
         <v>200000.0</v>
       </c>
       <c r="BB3" s="22">
         <v>47484.0</v>
       </c>
-      <c r="BC3" s="21">
+      <c r="BC3" s="20">
         <v>4000000.0</v>
       </c>
       <c r="BD3" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="BE3" s="25" t="s">
+      <c r="BE3" s="29" t="s">
         <v>120</v>
       </c>
       <c r="BF3" s="17" t="s">
@@ -2849,28 +2858,28 @@
       <c r="BG3" s="22">
         <v>43831.0</v>
       </c>
-      <c r="BH3" s="20" t="s">
+      <c r="BH3" s="23" t="s">
         <v>102</v>
       </c>
       <c r="BI3" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BJ3" s="23">
+      <c r="BJ3" s="24">
         <v>1002.0</v>
       </c>
       <c r="BK3" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="BL3" s="24" t="s">
+      <c r="BL3" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="BM3" s="24" t="s">
+      <c r="BM3" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="BN3" s="24" t="s">
+      <c r="BN3" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="BO3" s="24" t="s">
+      <c r="BO3" s="25" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2902,7 +2911,7 @@
       <c r="I4" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="J4" s="28">
+      <c r="J4" s="30">
         <v>1002.0</v>
       </c>
       <c r="K4" s="19">
@@ -2935,16 +2944,16 @@
       <c r="T4" s="19">
         <v>0.0</v>
       </c>
-      <c r="U4" s="25" t="s">
-        <v>114</v>
+      <c r="U4" s="26" t="s">
+        <v>128</v>
       </c>
       <c r="V4" s="17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="W4" s="19">
         <v>1.0</v>
       </c>
-      <c r="X4" s="29">
+      <c r="X4" s="31">
         <v>4.0</v>
       </c>
       <c r="Y4" s="17" t="str">
@@ -2952,25 +2961,25 @@
         <v>EQU.RT.EQU.001.SUP.01.........</v>
       </c>
       <c r="Z4" s="17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AA4" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB4" s="26">
+        <v>131</v>
+      </c>
+      <c r="AB4" s="27">
         <v>1004.0</v>
       </c>
-      <c r="AC4" s="23">
+      <c r="AC4" s="24">
         <v>40.0</v>
       </c>
-      <c r="AD4" s="23">
+      <c r="AD4" s="24">
         <v>140.0</v>
       </c>
       <c r="AE4" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="AF4" s="17" t="s">
-        <v>131</v>
+      <c r="AF4" s="21" t="s">
+        <v>92</v>
       </c>
       <c r="AG4" s="17" t="s">
         <v>93</v>
@@ -2984,10 +2993,10 @@
       <c r="AJ4" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="AK4" s="27">
+      <c r="AK4" s="28">
         <v>43466.0</v>
       </c>
-      <c r="AL4" s="21">
+      <c r="AL4" s="20">
         <v>40000.0</v>
       </c>
       <c r="AM4" s="17" t="s">
@@ -2999,7 +3008,7 @@
       <c r="AO4" s="22">
         <v>43831.0</v>
       </c>
-      <c r="AP4" s="21">
+      <c r="AP4" s="20">
         <v>40000.0</v>
       </c>
       <c r="AQ4" s="17" t="s">
@@ -3033,19 +3042,19 @@
       <c r="AZ4" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="BA4" s="21">
+      <c r="BA4" s="20">
         <v>290000.0</v>
       </c>
       <c r="BB4" s="22">
         <v>47484.0</v>
       </c>
-      <c r="BC4" s="21">
+      <c r="BC4" s="20">
         <v>6000000.0</v>
       </c>
       <c r="BD4" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="BE4" s="20" t="s">
+      <c r="BE4" s="23" t="s">
         <v>134</v>
       </c>
       <c r="BF4" s="17" t="s">
@@ -3054,28 +3063,28 @@
       <c r="BG4" s="22">
         <v>43831.0</v>
       </c>
-      <c r="BH4" s="20" t="s">
+      <c r="BH4" s="23" t="s">
         <v>102</v>
       </c>
       <c r="BI4" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BJ4" s="30">
+      <c r="BJ4" s="32">
         <v>1004.0</v>
       </c>
       <c r="BK4" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="BL4" s="24" t="s">
+      <c r="BL4" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="BM4" s="24" t="s">
+      <c r="BM4" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="BN4" s="24" t="s">
+      <c r="BN4" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="BO4" s="24" t="s">
+      <c r="BO4" s="25" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3107,7 +3116,7 @@
       <c r="I5" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="J5" s="28">
+      <c r="J5" s="30">
         <v>1003.0</v>
       </c>
       <c r="K5" s="19">
@@ -3140,7 +3149,7 @@
       <c r="T5" s="19">
         <v>0.0</v>
       </c>
-      <c r="U5" s="20" t="s">
+      <c r="U5" s="17" t="s">
         <v>88</v>
       </c>
       <c r="V5" s="16" t="s">
@@ -3149,7 +3158,7 @@
       <c r="W5" s="19">
         <v>1.0</v>
       </c>
-      <c r="X5" s="29">
+      <c r="X5" s="31">
         <v>5.0</v>
       </c>
       <c r="Y5" s="17" t="str">
@@ -3162,20 +3171,20 @@
       <c r="AA5" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="AB5" s="26">
+      <c r="AB5" s="27">
         <v>1005.0</v>
       </c>
-      <c r="AC5" s="23">
+      <c r="AC5" s="24">
         <v>50.0</v>
       </c>
-      <c r="AD5" s="23">
+      <c r="AD5" s="24">
         <v>150.0</v>
       </c>
       <c r="AE5" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="AF5" s="16" t="s">
-        <v>145</v>
+      <c r="AF5" s="21" t="s">
+        <v>92</v>
       </c>
       <c r="AG5" s="16" t="s">
         <v>115</v>
@@ -3187,24 +3196,24 @@
         <v>117</v>
       </c>
       <c r="AJ5" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="AK5" s="28">
+        <v>43466.0</v>
+      </c>
+      <c r="AL5" s="27">
+        <v>50000.0</v>
+      </c>
+      <c r="AM5" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN5" s="16" t="s">
         <v>146</v>
-      </c>
-      <c r="AK5" s="27">
-        <v>43466.0</v>
-      </c>
-      <c r="AL5" s="26">
-        <v>50000.0</v>
-      </c>
-      <c r="AM5" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AN5" s="16" t="s">
-        <v>147</v>
       </c>
       <c r="AO5" s="22">
         <v>43831.0</v>
       </c>
-      <c r="AP5" s="26">
+      <c r="AP5" s="27">
         <v>50000.0</v>
       </c>
       <c r="AQ5" s="16" t="s">
@@ -3238,19 +3247,19 @@
       <c r="AZ5" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="BA5" s="26">
+      <c r="BA5" s="27">
         <v>380000.0</v>
       </c>
       <c r="BB5" s="22">
         <v>47484.0</v>
       </c>
-      <c r="BC5" s="21">
+      <c r="BC5" s="20">
         <v>8000000.0</v>
       </c>
       <c r="BD5" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="BE5" s="20" t="s">
+      <c r="BE5" s="23" t="s">
         <v>101</v>
       </c>
       <c r="BF5" s="17" t="s">
@@ -3259,45 +3268,45 @@
       <c r="BG5" s="22">
         <v>43831.0</v>
       </c>
-      <c r="BH5" s="20" t="s">
+      <c r="BH5" s="23" t="s">
         <v>102</v>
       </c>
       <c r="BI5" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BJ5" s="30">
+      <c r="BJ5" s="32">
         <v>1005.0</v>
       </c>
       <c r="BK5" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="BL5" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="BM5" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN5" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO5" s="25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="33" t="s">
         <v>148</v>
-      </c>
-      <c r="BL5" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="BM5" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="BN5" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="BO5" s="24" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="31" t="s">
-        <v>149</v>
       </c>
       <c r="B6" s="15">
         <v>1004.0</v>
       </c>
-      <c r="C6" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" s="23" t="s">
+      <c r="C6" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="24" t="s">
         <v>84</v>
       </c>
       <c r="F6" s="18" t="s">
@@ -3345,16 +3354,16 @@
       <c r="T6" s="19">
         <v>0.0</v>
       </c>
-      <c r="U6" s="20" t="s">
+      <c r="U6" s="17" t="s">
         <v>88</v>
       </c>
       <c r="V6" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="W6" s="19">
         <v>1.0</v>
       </c>
-      <c r="X6" s="29">
+      <c r="X6" s="31">
         <v>6.0</v>
       </c>
       <c r="Y6" s="17" t="str">
@@ -3362,54 +3371,54 @@
         <v>EQU.RT.ART.006.SRA.01.........</v>
       </c>
       <c r="Z6" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA6" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="AA6" s="23" t="s">
+      <c r="AB6" s="24">
+        <v>1006.0</v>
+      </c>
+      <c r="AC6" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD6" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE6" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF6" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG6" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH6" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI6" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ6" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK6" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL6" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM6" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN6" s="16" t="s">
         <v>152</v>
-      </c>
-      <c r="AB6" s="23">
-        <v>1006.0</v>
-      </c>
-      <c r="AC6" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD6" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE6" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF6" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="AG6" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH6" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI6" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ6" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK6" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL6" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM6" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AN6" s="16" t="s">
-        <v>153</v>
       </c>
       <c r="AO6" s="22">
         <v>43831.0</v>
       </c>
-      <c r="AP6" s="26">
+      <c r="AP6" s="27">
         <v>50000.0</v>
       </c>
       <c r="AQ6" s="16" t="s">
@@ -3443,19 +3452,19 @@
       <c r="AZ6" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="BA6" s="26">
+      <c r="BA6" s="27">
         <v>380000.0</v>
       </c>
       <c r="BB6" s="22">
         <v>47484.0</v>
       </c>
-      <c r="BC6" s="21">
+      <c r="BC6" s="20">
         <v>8000000.0</v>
       </c>
       <c r="BD6" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="BE6" s="20" t="s">
+      <c r="BE6" s="23" t="s">
         <v>101</v>
       </c>
       <c r="BF6" s="17" t="s">
@@ -3464,7 +3473,7 @@
       <c r="BG6" s="22">
         <v>43831.0</v>
       </c>
-      <c r="BH6" s="20" t="s">
+      <c r="BH6" s="23" t="s">
         <v>102</v>
       </c>
       <c r="BI6" s="17" t="s">
@@ -3476,33 +3485,33 @@
       <c r="BK6" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BL6" s="24" t="s">
+      <c r="BL6" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="BM6" s="24" t="s">
+      <c r="BM6" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="BN6" s="24" t="s">
+      <c r="BN6" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="BO6" s="24" t="s">
+      <c r="BO6" s="25" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="31" t="s">
-        <v>154</v>
+      <c r="A7" s="33" t="s">
+        <v>153</v>
       </c>
       <c r="B7" s="15">
         <v>1005.0</v>
       </c>
-      <c r="C7" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" s="23" t="s">
+      <c r="C7" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="24" t="s">
         <v>84</v>
       </c>
       <c r="F7" s="18" t="s">
@@ -3550,16 +3559,16 @@
       <c r="T7" s="19">
         <v>0.0</v>
       </c>
-      <c r="U7" s="20" t="s">
+      <c r="U7" s="17" t="s">
         <v>88</v>
       </c>
       <c r="V7" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="W7" s="19">
         <v>1.0</v>
       </c>
-      <c r="X7" s="29">
+      <c r="X7" s="31">
         <v>7.0</v>
       </c>
       <c r="Y7" s="17" t="str">
@@ -3567,54 +3576,54 @@
         <v>EQU.RT.MAT.001.CRE.01.........</v>
       </c>
       <c r="Z7" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA7" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="AA7" s="23" t="s">
+      <c r="AB7" s="24">
+        <v>1007.0</v>
+      </c>
+      <c r="AC7" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD7" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE7" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF7" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG7" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH7" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI7" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ7" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK7" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL7" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM7" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN7" s="16" t="s">
         <v>157</v>
-      </c>
-      <c r="AB7" s="23">
-        <v>1007.0</v>
-      </c>
-      <c r="AC7" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD7" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE7" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF7" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="AG7" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH7" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI7" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ7" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK7" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL7" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM7" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AN7" s="16" t="s">
-        <v>158</v>
       </c>
       <c r="AO7" s="22">
         <v>43831.0</v>
       </c>
-      <c r="AP7" s="26">
+      <c r="AP7" s="27">
         <v>50000.0</v>
       </c>
       <c r="AQ7" s="16" t="s">
@@ -3648,19 +3657,19 @@
       <c r="AZ7" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="BA7" s="26">
+      <c r="BA7" s="27">
         <v>380000.0</v>
       </c>
       <c r="BB7" s="22">
         <v>47484.0</v>
       </c>
-      <c r="BC7" s="21">
+      <c r="BC7" s="20">
         <v>8000000.0</v>
       </c>
       <c r="BD7" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="BE7" s="20" t="s">
+      <c r="BE7" s="23" t="s">
         <v>101</v>
       </c>
       <c r="BF7" s="17" t="s">
@@ -3669,7 +3678,7 @@
       <c r="BG7" s="22">
         <v>43831.0</v>
       </c>
-      <c r="BH7" s="20" t="s">
+      <c r="BH7" s="23" t="s">
         <v>102</v>
       </c>
       <c r="BI7" s="17" t="s">
@@ -3681,33 +3690,33 @@
       <c r="BK7" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BL7" s="24" t="s">
+      <c r="BL7" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="BM7" s="24" t="s">
+      <c r="BM7" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="BN7" s="24" t="s">
+      <c r="BN7" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="BO7" s="24" t="s">
+      <c r="BO7" s="25" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B8" s="15">
         <v>1006.0</v>
       </c>
-      <c r="C8" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="E8" s="23" t="s">
+      <c r="C8" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="24" t="s">
         <v>84</v>
       </c>
       <c r="F8" s="18" t="s">
@@ -3755,16 +3764,16 @@
       <c r="T8" s="19">
         <v>0.0</v>
       </c>
-      <c r="U8" s="25" t="s">
-        <v>92</v>
+      <c r="U8" s="26" t="s">
+        <v>111</v>
       </c>
       <c r="V8" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="W8" s="19">
         <v>1.0</v>
       </c>
-      <c r="X8" s="29">
+      <c r="X8" s="31">
         <v>8.0</v>
       </c>
       <c r="Y8" s="17" t="str">
@@ -3772,54 +3781,54 @@
         <v>EQU.TR.BTR.001.CRE.01.........</v>
       </c>
       <c r="Z8" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA8" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="AA8" s="17" t="s">
+      <c r="AB8" s="24">
+        <v>1008.0</v>
+      </c>
+      <c r="AC8" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD8" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE8" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF8" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG8" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH8" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI8" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ8" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK8" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL8" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM8" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN8" s="16" t="s">
         <v>162</v>
-      </c>
-      <c r="AB8" s="23">
-        <v>1008.0</v>
-      </c>
-      <c r="AC8" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD8" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE8" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF8" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG8" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH8" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI8" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ8" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK8" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL8" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM8" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AN8" s="16" t="s">
-        <v>163</v>
       </c>
       <c r="AO8" s="22">
         <v>43831.0</v>
       </c>
-      <c r="AP8" s="26">
+      <c r="AP8" s="27">
         <v>50000.0</v>
       </c>
       <c r="AQ8" s="16" t="s">
@@ -3853,19 +3862,19 @@
       <c r="AZ8" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="BA8" s="21">
+      <c r="BA8" s="20">
         <v>110000.0</v>
       </c>
       <c r="BB8" s="22">
         <v>48305.0</v>
       </c>
-      <c r="BC8" s="21">
+      <c r="BC8" s="20">
         <v>2000000.0</v>
       </c>
       <c r="BD8" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="BE8" s="20" t="s">
+      <c r="BE8" s="23" t="s">
         <v>101</v>
       </c>
       <c r="BF8" s="17" t="s">
@@ -3874,7 +3883,7 @@
       <c r="BG8" s="22">
         <v>44652.0</v>
       </c>
-      <c r="BH8" s="20" t="s">
+      <c r="BH8" s="23" t="s">
         <v>102</v>
       </c>
       <c r="BI8" s="17" t="s">
@@ -3886,33 +3895,33 @@
       <c r="BK8" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BL8" s="24" t="s">
+      <c r="BL8" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="BM8" s="24" t="s">
+      <c r="BM8" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="BN8" s="24" t="s">
+      <c r="BN8" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="BO8" s="24" t="s">
+      <c r="BO8" s="25" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="32" t="s">
-        <v>164</v>
+      <c r="A9" s="34" t="s">
+        <v>163</v>
       </c>
       <c r="B9" s="15">
         <v>1007.0</v>
       </c>
-      <c r="C9" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" s="23" t="s">
+      <c r="C9" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="24" t="s">
         <v>84</v>
       </c>
       <c r="F9" s="18" t="s">
@@ -3960,16 +3969,16 @@
       <c r="T9" s="19">
         <v>0.0</v>
       </c>
-      <c r="U9" s="25" t="s">
-        <v>92</v>
+      <c r="U9" s="26" t="s">
+        <v>111</v>
       </c>
       <c r="V9" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="W9" s="19">
         <v>1.0</v>
       </c>
-      <c r="X9" s="29">
+      <c r="X9" s="31">
         <v>9.0</v>
       </c>
       <c r="Y9" s="17" t="str">
@@ -3977,54 +3986,54 @@
         <v>EQU.TR.BTR.001.CRE.03.........</v>
       </c>
       <c r="Z9" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA9" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="AA9" s="17" t="s">
+      <c r="AB9" s="24">
+        <v>1009.0</v>
+      </c>
+      <c r="AC9" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD9" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE9" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF9" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG9" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH9" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI9" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ9" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK9" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL9" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM9" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN9" s="16" t="s">
         <v>167</v>
-      </c>
-      <c r="AB9" s="23">
-        <v>1009.0</v>
-      </c>
-      <c r="AC9" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD9" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE9" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF9" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="AG9" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH9" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI9" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ9" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK9" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL9" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM9" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AN9" s="16" t="s">
-        <v>168</v>
       </c>
       <c r="AO9" s="22">
         <v>43831.0</v>
       </c>
-      <c r="AP9" s="26">
+      <c r="AP9" s="27">
         <v>50000.0</v>
       </c>
       <c r="AQ9" s="16" t="s">
@@ -4058,19 +4067,19 @@
       <c r="AZ9" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="BA9" s="21">
+      <c r="BA9" s="20">
         <v>110000.0</v>
       </c>
       <c r="BB9" s="22">
         <v>48305.0</v>
       </c>
-      <c r="BC9" s="21">
+      <c r="BC9" s="20">
         <v>2000000.0</v>
       </c>
       <c r="BD9" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="BE9" s="20" t="s">
+      <c r="BE9" s="23" t="s">
         <v>101</v>
       </c>
       <c r="BF9" s="17" t="s">
@@ -4079,7 +4088,7 @@
       <c r="BG9" s="22">
         <v>44652.0</v>
       </c>
-      <c r="BH9" s="20" t="s">
+      <c r="BH9" s="23" t="s">
         <v>102</v>
       </c>
       <c r="BI9" s="17" t="s">
@@ -4091,33 +4100,33 @@
       <c r="BK9" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BL9" s="24" t="s">
+      <c r="BL9" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="BM9" s="24" t="s">
+      <c r="BM9" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="BN9" s="24" t="s">
+      <c r="BN9" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="BO9" s="24" t="s">
+      <c r="BO9" s="25" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="32" t="s">
-        <v>169</v>
+      <c r="A10" s="34" t="s">
+        <v>168</v>
       </c>
       <c r="B10" s="15">
         <v>1008.0</v>
       </c>
-      <c r="C10" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="E10" s="23" t="s">
+      <c r="C10" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="24" t="s">
         <v>84</v>
       </c>
       <c r="F10" s="18" t="s">
@@ -4165,16 +4174,16 @@
       <c r="T10" s="19">
         <v>0.0</v>
       </c>
-      <c r="U10" s="25" t="s">
-        <v>92</v>
+      <c r="U10" s="26" t="s">
+        <v>111</v>
       </c>
       <c r="V10" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="W10" s="19">
         <v>1.0</v>
       </c>
-      <c r="X10" s="29">
+      <c r="X10" s="31">
         <v>10.0</v>
       </c>
       <c r="Y10" s="17" t="str">
@@ -4182,54 +4191,54 @@
         <v>EQU.TR.BTR.001.LEC.01.........</v>
       </c>
       <c r="Z10" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA10" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="AA10" s="17" t="s">
+      <c r="AB10" s="24">
+        <v>1010.0</v>
+      </c>
+      <c r="AC10" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD10" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE10" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF10" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG10" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH10" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI10" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ10" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK10" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL10" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM10" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN10" s="16" t="s">
         <v>172</v>
-      </c>
-      <c r="AB10" s="23">
-        <v>1010.0</v>
-      </c>
-      <c r="AC10" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD10" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE10" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF10" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="AG10" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH10" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI10" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ10" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK10" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL10" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM10" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AN10" s="16" t="s">
-        <v>173</v>
       </c>
       <c r="AO10" s="22">
         <v>43831.0</v>
       </c>
-      <c r="AP10" s="26">
+      <c r="AP10" s="27">
         <v>50000.0</v>
       </c>
       <c r="AQ10" s="16" t="s">
@@ -4263,19 +4272,19 @@
       <c r="AZ10" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="BA10" s="21">
+      <c r="BA10" s="20">
         <v>110000.0</v>
       </c>
       <c r="BB10" s="22">
         <v>48305.0</v>
       </c>
-      <c r="BC10" s="21">
+      <c r="BC10" s="20">
         <v>2000000.0</v>
       </c>
       <c r="BD10" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="BE10" s="20" t="s">
+      <c r="BE10" s="23" t="s">
         <v>101</v>
       </c>
       <c r="BF10" s="17" t="s">
@@ -4284,7 +4293,7 @@
       <c r="BG10" s="22">
         <v>44652.0</v>
       </c>
-      <c r="BH10" s="20" t="s">
+      <c r="BH10" s="23" t="s">
         <v>102</v>
       </c>
       <c r="BI10" s="17" t="s">
@@ -4296,33 +4305,33 @@
       <c r="BK10" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BL10" s="24" t="s">
+      <c r="BL10" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="BM10" s="24" t="s">
+      <c r="BM10" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="BN10" s="24" t="s">
+      <c r="BN10" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="BO10" s="24" t="s">
+      <c r="BO10" s="25" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="32" t="s">
-        <v>174</v>
+      <c r="A11" s="34" t="s">
+        <v>173</v>
       </c>
       <c r="B11" s="15">
         <v>1009.0</v>
       </c>
-      <c r="C11" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11" s="23" t="s">
+      <c r="C11" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="24" t="s">
         <v>84</v>
       </c>
       <c r="F11" s="18" t="s">
@@ -4370,16 +4379,16 @@
       <c r="T11" s="19">
         <v>0.0</v>
       </c>
-      <c r="U11" s="25" t="s">
-        <v>92</v>
+      <c r="U11" s="26" t="s">
+        <v>111</v>
       </c>
       <c r="V11" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="W11" s="19">
         <v>1.0</v>
       </c>
-      <c r="X11" s="29">
+      <c r="X11" s="31">
         <v>11.0</v>
       </c>
       <c r="Y11" s="17" t="str">
@@ -4387,54 +4396,54 @@
         <v>EQU.UPD.TR.BTR.001.MAJ.01.....</v>
       </c>
       <c r="Z11" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA11" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="AA11" s="17" t="s">
+      <c r="AB11" s="24">
+        <v>1011.0</v>
+      </c>
+      <c r="AC11" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD11" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE11" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF11" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG11" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH11" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI11" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ11" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK11" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL11" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM11" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN11" s="16" t="s">
         <v>177</v>
-      </c>
-      <c r="AB11" s="23">
-        <v>1011.0</v>
-      </c>
-      <c r="AC11" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD11" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE11" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF11" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG11" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH11" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI11" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ11" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK11" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL11" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM11" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AN11" s="16" t="s">
-        <v>178</v>
       </c>
       <c r="AO11" s="22">
         <v>43831.0</v>
       </c>
-      <c r="AP11" s="26">
+      <c r="AP11" s="27">
         <v>50000.0</v>
       </c>
       <c r="AQ11" s="16" t="s">
@@ -4468,19 +4477,19 @@
       <c r="AZ11" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="BA11" s="21">
+      <c r="BA11" s="20">
         <v>110000.0</v>
       </c>
       <c r="BB11" s="22">
         <v>48305.0</v>
       </c>
-      <c r="BC11" s="21">
+      <c r="BC11" s="20">
         <v>2000000.0</v>
       </c>
       <c r="BD11" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="BE11" s="20" t="s">
+      <c r="BE11" s="23" t="s">
         <v>101</v>
       </c>
       <c r="BF11" s="17" t="s">
@@ -4489,7 +4498,7 @@
       <c r="BG11" s="22">
         <v>44652.0</v>
       </c>
-      <c r="BH11" s="20" t="s">
+      <c r="BH11" s="23" t="s">
         <v>102</v>
       </c>
       <c r="BI11" s="17" t="s">
@@ -4501,33 +4510,33 @@
       <c r="BK11" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BL11" s="24" t="s">
+      <c r="BL11" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="BM11" s="24" t="s">
+      <c r="BM11" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="BN11" s="24" t="s">
+      <c r="BN11" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="BO11" s="24" t="s">
+      <c r="BO11" s="25" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="32" t="s">
-        <v>174</v>
+      <c r="A12" s="34" t="s">
+        <v>173</v>
       </c>
       <c r="B12" s="15">
         <v>1010.0</v>
       </c>
-      <c r="C12" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" s="23" t="s">
+      <c r="C12" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="24" t="s">
         <v>84</v>
       </c>
       <c r="F12" s="18" t="s">
@@ -4575,16 +4584,16 @@
       <c r="T12" s="19">
         <v>0.0</v>
       </c>
-      <c r="U12" s="25" t="s">
-        <v>92</v>
+      <c r="U12" s="26" t="s">
+        <v>111</v>
       </c>
       <c r="V12" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="W12" s="19">
         <v>1.0</v>
       </c>
-      <c r="X12" s="29">
+      <c r="X12" s="31">
         <v>12.0</v>
       </c>
       <c r="Y12" s="17" t="str">
@@ -4592,54 +4601,54 @@
         <v>EQU.TR.BTR.001.MAJ.01.........</v>
       </c>
       <c r="Z12" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA12" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="AA12" s="17" t="s">
+      <c r="AB12" s="24">
+        <v>1012.0</v>
+      </c>
+      <c r="AC12" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD12" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE12" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF12" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG12" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH12" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI12" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ12" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK12" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL12" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM12" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN12" s="16" t="s">
         <v>181</v>
-      </c>
-      <c r="AB12" s="23">
-        <v>1012.0</v>
-      </c>
-      <c r="AC12" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD12" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE12" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF12" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="AG12" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH12" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI12" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ12" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK12" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL12" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM12" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AN12" s="16" t="s">
-        <v>182</v>
       </c>
       <c r="AO12" s="22">
         <v>43831.0</v>
       </c>
-      <c r="AP12" s="26">
+      <c r="AP12" s="27">
         <v>50000.0</v>
       </c>
       <c r="AQ12" s="16" t="s">
@@ -4673,19 +4682,19 @@
       <c r="AZ12" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="BA12" s="21">
+      <c r="BA12" s="20">
         <v>110000.0</v>
       </c>
       <c r="BB12" s="22">
         <v>48305.0</v>
       </c>
-      <c r="BC12" s="21">
+      <c r="BC12" s="20">
         <v>2000000.0</v>
       </c>
       <c r="BD12" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="BE12" s="20" t="s">
+      <c r="BE12" s="23" t="s">
         <v>101</v>
       </c>
       <c r="BF12" s="17" t="s">
@@ -4694,7 +4703,7 @@
       <c r="BG12" s="22">
         <v>44652.0</v>
       </c>
-      <c r="BH12" s="20" t="s">
+      <c r="BH12" s="23" t="s">
         <v>102</v>
       </c>
       <c r="BI12" s="17" t="s">
@@ -4706,33 +4715,33 @@
       <c r="BK12" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BL12" s="24" t="s">
+      <c r="BL12" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="BM12" s="24" t="s">
+      <c r="BM12" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="BN12" s="24" t="s">
+      <c r="BN12" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="BO12" s="24" t="s">
+      <c r="BO12" s="25" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B13" s="15">
         <v>1011.0</v>
       </c>
-      <c r="C13" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="E13" s="23" t="s">
+      <c r="C13" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="24" t="s">
         <v>84</v>
       </c>
       <c r="F13" s="18" t="s">
@@ -4780,16 +4789,16 @@
       <c r="T13" s="19">
         <v>0.0</v>
       </c>
-      <c r="U13" s="25" t="s">
-        <v>92</v>
+      <c r="U13" s="26" t="s">
+        <v>111</v>
       </c>
       <c r="V13" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="W13" s="19">
         <v>1.0</v>
       </c>
-      <c r="X13" s="29">
+      <c r="X13" s="31">
         <v>13.0</v>
       </c>
       <c r="Y13" s="17" t="str">
@@ -4797,54 +4806,54 @@
         <v>EQU.TR.BTR.001.SUP.01.........</v>
       </c>
       <c r="Z13" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA13" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="AA13" s="17" t="s">
+      <c r="AB13" s="24">
+        <v>1013.0</v>
+      </c>
+      <c r="AC13" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD13" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE13" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF13" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG13" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH13" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI13" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ13" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK13" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL13" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM13" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN13" s="16" t="s">
         <v>186</v>
-      </c>
-      <c r="AB13" s="23">
-        <v>1013.0</v>
-      </c>
-      <c r="AC13" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD13" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE13" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF13" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="AG13" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH13" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI13" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ13" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK13" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL13" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM13" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AN13" s="16" t="s">
-        <v>187</v>
       </c>
       <c r="AO13" s="22">
         <v>43831.0</v>
       </c>
-      <c r="AP13" s="26">
+      <c r="AP13" s="27">
         <v>50000.0</v>
       </c>
       <c r="AQ13" s="16" t="s">
@@ -4878,19 +4887,19 @@
       <c r="AZ13" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="BA13" s="21">
+      <c r="BA13" s="20">
         <v>110000.0</v>
       </c>
       <c r="BB13" s="22">
         <v>48305.0</v>
       </c>
-      <c r="BC13" s="21">
+      <c r="BC13" s="20">
         <v>2000000.0</v>
       </c>
       <c r="BD13" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="BE13" s="20" t="s">
+      <c r="BE13" s="23" t="s">
         <v>101</v>
       </c>
       <c r="BF13" s="17" t="s">
@@ -4899,7 +4908,7 @@
       <c r="BG13" s="22">
         <v>44652.0</v>
       </c>
-      <c r="BH13" s="20" t="s">
+      <c r="BH13" s="23" t="s">
         <v>102</v>
       </c>
       <c r="BI13" s="17" t="s">
@@ -4911,33 +4920,33 @@
       <c r="BK13" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BL13" s="24" t="s">
+      <c r="BL13" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="BM13" s="24" t="s">
+      <c r="BM13" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="BN13" s="24" t="s">
+      <c r="BN13" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="BO13" s="24" t="s">
+      <c r="BO13" s="25" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B14" s="15">
         <v>1012.0</v>
       </c>
-      <c r="C14" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="E14" s="23" t="s">
+      <c r="C14" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="24" t="s">
         <v>84</v>
       </c>
       <c r="F14" s="18" t="s">
@@ -4985,16 +4994,16 @@
       <c r="T14" s="19">
         <v>0.0</v>
       </c>
-      <c r="U14" s="25" t="s">
-        <v>92</v>
+      <c r="U14" s="26" t="s">
+        <v>111</v>
       </c>
       <c r="V14" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="W14" s="19">
         <v>1.0</v>
       </c>
-      <c r="X14" s="29">
+      <c r="X14" s="31">
         <v>14.0</v>
       </c>
       <c r="Y14" s="17" t="str">
@@ -5002,54 +5011,54 @@
         <v>EQU.TR.BTR.001.REC.01.........</v>
       </c>
       <c r="Z14" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="AA14" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="AA14" s="17" t="s">
+      <c r="AB14" s="24">
+        <v>1014.0</v>
+      </c>
+      <c r="AC14" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD14" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE14" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF14" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG14" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH14" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI14" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ14" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK14" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL14" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM14" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN14" s="16" t="s">
         <v>191</v>
-      </c>
-      <c r="AB14" s="23">
-        <v>1014.0</v>
-      </c>
-      <c r="AC14" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD14" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE14" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF14" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG14" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH14" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI14" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ14" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK14" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL14" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM14" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AN14" s="16" t="s">
-        <v>192</v>
       </c>
       <c r="AO14" s="22">
         <v>43831.0</v>
       </c>
-      <c r="AP14" s="26">
+      <c r="AP14" s="27">
         <v>50000.0</v>
       </c>
       <c r="AQ14" s="16" t="s">
@@ -5083,19 +5092,19 @@
       <c r="AZ14" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="BA14" s="21">
+      <c r="BA14" s="20">
         <v>110000.0</v>
       </c>
       <c r="BB14" s="22">
         <v>48305.0</v>
       </c>
-      <c r="BC14" s="21">
+      <c r="BC14" s="20">
         <v>2000000.0</v>
       </c>
       <c r="BD14" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="BE14" s="20" t="s">
+      <c r="BE14" s="23" t="s">
         <v>101</v>
       </c>
       <c r="BF14" s="17" t="s">
@@ -5104,7 +5113,7 @@
       <c r="BG14" s="22">
         <v>44652.0</v>
       </c>
-      <c r="BH14" s="20" t="s">
+      <c r="BH14" s="23" t="s">
         <v>102</v>
       </c>
       <c r="BI14" s="17" t="s">
@@ -5116,16 +5125,16 @@
       <c r="BK14" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BL14" s="24" t="s">
+      <c r="BL14" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="BM14" s="24" t="s">
+      <c r="BM14" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="BN14" s="24" t="s">
+      <c r="BN14" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="BO14" s="24" t="s">
+      <c r="BO14" s="25" t="s">
         <v>104</v>
       </c>
     </row>
@@ -6549,20 +6558,20 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="34" t="s">
+      <c r="E1" s="37" t="s">
         <v>194</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>195</v>
       </c>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
@@ -6587,25 +6596,25 @@
       <c r="Z1" s="13"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="36"/>
+      <c r="A2" s="38"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="36"/>
+      <c r="A3" s="38"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="36"/>
+      <c r="A4" s="38"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="36"/>
+      <c r="A5" s="38"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="36"/>
+      <c r="A6" s="38"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="36"/>
+      <c r="A7" s="38"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="36"/>
+      <c r="A8" s="38"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2"/>
@@ -9603,22 +9612,22 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="34" t="s">
+      <c r="D1" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="E1" s="37" t="s">
         <v>198</v>
       </c>
-      <c r="E1" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="37" t="s">
         <v>52</v>
       </c>
       <c r="G1" s="13"/>
@@ -9643,25 +9652,25 @@
       <c r="Z1" s="13"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="36"/>
+      <c r="A2" s="38"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="36"/>
+      <c r="A3" s="38"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="36"/>
+      <c r="A4" s="38"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="36"/>
+      <c r="A5" s="38"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="36"/>
+      <c r="A6" s="38"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="36"/>
+      <c r="A7" s="38"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="36"/>
+      <c r="A8" s="38"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2"/>
@@ -12660,14 +12669,14 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="C1" s="37" t="s">
         <v>201</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>202</v>
       </c>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
@@ -12700,8 +12709,8 @@
       <c r="B2" s="19">
         <v>1000.0</v>
       </c>
-      <c r="C2" s="23" t="s">
-        <v>203</v>
+      <c r="C2" s="24" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -12711,30 +12720,30 @@
       <c r="B3" s="19">
         <v>1001.0</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>204</v>
+      <c r="C3" s="24" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="31">
         <v>1002.0</v>
       </c>
-      <c r="C4" s="23" t="s">
-        <v>205</v>
+      <c r="C4" s="24" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="31">
         <v>1003.0</v>
       </c>
-      <c r="C5" s="23" t="s">
-        <v>206</v>
+      <c r="C5" s="24" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
@@ -12744,8 +12753,8 @@
       <c r="B6" s="19">
         <v>2000.0</v>
       </c>
-      <c r="C6" s="23" t="s">
-        <v>207</v>
+      <c r="C6" s="24" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
@@ -12755,8 +12764,8 @@
       <c r="B7" s="19">
         <v>2001.0</v>
       </c>
-      <c r="C7" s="23" t="s">
-        <v>208</v>
+      <c r="C7" s="24" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
@@ -12766,8 +12775,8 @@
       <c r="B8" s="19">
         <v>2002.0</v>
       </c>
-      <c r="C8" s="23" t="s">
-        <v>209</v>
+      <c r="C8" s="24" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -12777,8 +12786,8 @@
       <c r="B9" s="19">
         <v>2003.0</v>
       </c>
-      <c r="C9" s="23" t="s">
-        <v>210</v>
+      <c r="C9" s="24" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -12788,8 +12797,8 @@
       <c r="B10" s="19">
         <v>3000.0</v>
       </c>
-      <c r="C10" s="23" t="s">
-        <v>211</v>
+      <c r="C10" s="24" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
@@ -12799,8 +12808,8 @@
       <c r="B11" s="19">
         <v>3001.0</v>
       </c>
-      <c r="C11" s="23" t="s">
-        <v>212</v>
+      <c r="C11" s="24" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
@@ -12810,8 +12819,8 @@
       <c r="B12" s="19">
         <v>3002.0</v>
       </c>
-      <c r="C12" s="23" t="s">
-        <v>213</v>
+      <c r="C12" s="24" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -12821,8 +12830,8 @@
       <c r="B13" s="19">
         <v>3003.0</v>
       </c>
-      <c r="C13" s="23" t="s">
-        <v>214</v>
+      <c r="C13" s="24" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
@@ -15819,10 +15828,10 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>215</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>216</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -15850,25 +15859,25 @@
       <c r="Z1" s="13"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="36"/>
+      <c r="A2" s="38"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="36"/>
+      <c r="A3" s="38"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="36"/>
+      <c r="A4" s="38"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="36"/>
+      <c r="A5" s="38"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="36"/>
+      <c r="A6" s="38"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="36"/>
+      <c r="A7" s="38"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="36"/>
+      <c r="A8" s="38"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2"/>

--- a/TNR_PREJDD/PREJDD.RT.EQU.xlsx
+++ b/TNR_PREJDD/PREJDD.RT.EQU.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="228">
   <si>
     <t>Date</t>
   </si>
@@ -599,6 +599,30 @@
     <t>OBSERVATION 14</t>
   </si>
   <si>
+    <t>RT.ART.006.SRM.01</t>
+  </si>
+  <si>
+    <t>CONS15</t>
+  </si>
+  <si>
+    <t>EQU15</t>
+  </si>
+  <si>
+    <t>EQU.RT.ART.006.SRM.01</t>
+  </si>
+  <si>
+    <t>RT.ART.006.SRS.01</t>
+  </si>
+  <si>
+    <t>CONS16</t>
+  </si>
+  <si>
+    <t>EQU16</t>
+  </si>
+  <si>
+    <t>EQU.RT.ART.006.SRS.01</t>
+  </si>
+  <si>
     <t>CAS DE TEST (EQU_CONTRA)</t>
   </si>
   <si>
@@ -618,6 +642,18 @@
   </si>
   <si>
     <t>NU_QTE</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>ART.RT.ART.006.SRM.01</t>
+  </si>
+  <si>
+    <t>OBSERVATION</t>
+  </si>
+  <si>
+    <t>ART.RT.ART.006.SRS.01</t>
   </si>
   <si>
     <t>CAS DE TEST (EQUDOC)</t>
@@ -825,7 +861,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -883,6 +919,9 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -900,9 +939,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -929,6 +965,9 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="5" fillId="4" fontId="3" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="5" fillId="4" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -2247,8 +2286,8 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="30.0"/>
-    <col customWidth="1" min="2" max="2" width="24.38"/>
-    <col customWidth="1" min="3" max="3" width="23.63"/>
+    <col customWidth="1" min="2" max="2" width="10.88"/>
+    <col customWidth="1" min="3" max="3" width="24.0"/>
     <col customWidth="1" min="4" max="4" width="24.63"/>
     <col customWidth="1" min="5" max="5" width="20.25"/>
     <col customWidth="1" min="6" max="6" width="10.63"/>
@@ -2261,12 +2300,14 @@
     <col customWidth="1" min="21" max="21" width="20.75"/>
     <col customWidth="1" min="25" max="25" width="24.63"/>
     <col customWidth="1" min="26" max="26" width="12.25"/>
-    <col customWidth="1" min="27" max="27" width="20.5"/>
+    <col customWidth="1" min="27" max="27" width="24.38"/>
+    <col customWidth="1" min="28" max="28" width="10.63"/>
     <col customWidth="1" min="32" max="32" width="21.38"/>
     <col customWidth="1" min="37" max="37" width="9.38"/>
     <col customWidth="1" min="39" max="39" width="7.75"/>
     <col customWidth="1" min="40" max="40" width="15.13"/>
     <col customWidth="1" min="46" max="46" width="24.63"/>
+    <col customWidth="1" min="57" max="57" width="13.88"/>
     <col customWidth="1" min="62" max="63" width="19.5"/>
   </cols>
   <sheetData>
@@ -2547,7 +2588,7 @@
         <v>2.0</v>
       </c>
       <c r="Y2" s="17" t="str">
-        <f t="shared" ref="Y2:Y14" si="1">CONCATENATE(UPPER(AA2),REPT(".",30-LEN(AA2)))</f>
+        <f t="shared" ref="Y2:Y16" si="1">CONCATENATE(UPPER(AA2),REPT(".",30-LEN(AA2)))</f>
         <v>EQU.RT.EQU.001.LEC.01.........</v>
       </c>
       <c r="Z2" s="17" t="s">
@@ -2611,7 +2652,7 @@
         <v>98</v>
       </c>
       <c r="AT2" s="18" t="str">
-        <f t="shared" ref="AT2:AT14" si="2">Y2</f>
+        <f t="shared" ref="AT2:AT16" si="2">Y2</f>
         <v>EQU.RT.EQU.001.LEC.01.........</v>
       </c>
       <c r="AU2" s="17" t="s">
@@ -2653,28 +2694,28 @@
       <c r="BG2" s="22">
         <v>44652.0</v>
       </c>
-      <c r="BH2" s="23" t="s">
+      <c r="BH2" s="24" t="s">
         <v>102</v>
       </c>
       <c r="BI2" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BJ2" s="24">
+      <c r="BJ2" s="25">
         <v>1000.0</v>
       </c>
       <c r="BK2" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="BL2" s="25" t="s">
+      <c r="BL2" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="BM2" s="25" t="s">
+      <c r="BM2" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="BN2" s="25" t="s">
+      <c r="BN2" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="BO2" s="25" t="s">
+      <c r="BO2" s="26" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2739,7 +2780,7 @@
       <c r="T3" s="19">
         <v>0.0</v>
       </c>
-      <c r="U3" s="26" t="s">
+      <c r="U3" s="27" t="s">
         <v>111</v>
       </c>
       <c r="V3" s="16" t="s">
@@ -2764,10 +2805,10 @@
       <c r="AB3" s="20">
         <v>1003.0</v>
       </c>
-      <c r="AC3" s="27">
+      <c r="AC3" s="28">
         <v>30.0</v>
       </c>
-      <c r="AD3" s="27">
+      <c r="AD3" s="28">
         <v>130.0</v>
       </c>
       <c r="AE3" s="17" t="s">
@@ -2788,10 +2829,10 @@
       <c r="AJ3" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="AK3" s="28">
+      <c r="AK3" s="29">
         <v>43466.0</v>
       </c>
-      <c r="AL3" s="27">
+      <c r="AL3" s="28">
         <v>30000.0</v>
       </c>
       <c r="AM3" s="17" t="s">
@@ -2803,7 +2844,7 @@
       <c r="AO3" s="22">
         <v>43831.0</v>
       </c>
-      <c r="AP3" s="27">
+      <c r="AP3" s="28">
         <v>30000.0</v>
       </c>
       <c r="AQ3" s="16" t="s">
@@ -2837,7 +2878,7 @@
       <c r="AZ3" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="BA3" s="27">
+      <c r="BA3" s="28">
         <v>200000.0</v>
       </c>
       <c r="BB3" s="22">
@@ -2849,7 +2890,7 @@
       <c r="BD3" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="BE3" s="29" t="s">
+      <c r="BE3" s="23" t="s">
         <v>120</v>
       </c>
       <c r="BF3" s="17" t="s">
@@ -2858,28 +2899,28 @@
       <c r="BG3" s="22">
         <v>43831.0</v>
       </c>
-      <c r="BH3" s="23" t="s">
+      <c r="BH3" s="24" t="s">
         <v>102</v>
       </c>
       <c r="BI3" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BJ3" s="24">
+      <c r="BJ3" s="25">
         <v>1002.0</v>
       </c>
       <c r="BK3" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="BL3" s="25" t="s">
+      <c r="BL3" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="BM3" s="25" t="s">
+      <c r="BM3" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="BN3" s="25" t="s">
+      <c r="BN3" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="BO3" s="25" t="s">
+      <c r="BO3" s="26" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2944,7 +2985,7 @@
       <c r="T4" s="19">
         <v>0.0</v>
       </c>
-      <c r="U4" s="26" t="s">
+      <c r="U4" s="27" t="s">
         <v>128</v>
       </c>
       <c r="V4" s="17" t="s">
@@ -2966,13 +3007,13 @@
       <c r="AA4" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="AB4" s="27">
+      <c r="AB4" s="28">
         <v>1004.0</v>
       </c>
-      <c r="AC4" s="24">
+      <c r="AC4" s="25">
         <v>40.0</v>
       </c>
-      <c r="AD4" s="24">
+      <c r="AD4" s="25">
         <v>140.0</v>
       </c>
       <c r="AE4" s="17" t="s">
@@ -2993,7 +3034,7 @@
       <c r="AJ4" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="AK4" s="28">
+      <c r="AK4" s="29">
         <v>43466.0</v>
       </c>
       <c r="AL4" s="20">
@@ -3063,7 +3104,7 @@
       <c r="BG4" s="22">
         <v>43831.0</v>
       </c>
-      <c r="BH4" s="23" t="s">
+      <c r="BH4" s="24" t="s">
         <v>102</v>
       </c>
       <c r="BI4" s="17" t="s">
@@ -3075,16 +3116,16 @@
       <c r="BK4" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="BL4" s="25" t="s">
+      <c r="BL4" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="BM4" s="25" t="s">
+      <c r="BM4" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="BN4" s="25" t="s">
+      <c r="BN4" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="BO4" s="25" t="s">
+      <c r="BO4" s="26" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3171,13 +3212,13 @@
       <c r="AA5" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="AB5" s="27">
+      <c r="AB5" s="28">
         <v>1005.0</v>
       </c>
-      <c r="AC5" s="24">
+      <c r="AC5" s="25">
         <v>50.0</v>
       </c>
-      <c r="AD5" s="24">
+      <c r="AD5" s="25">
         <v>150.0</v>
       </c>
       <c r="AE5" s="17" t="s">
@@ -3198,10 +3239,10 @@
       <c r="AJ5" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="AK5" s="28">
+      <c r="AK5" s="29">
         <v>43466.0</v>
       </c>
-      <c r="AL5" s="27">
+      <c r="AL5" s="28">
         <v>50000.0</v>
       </c>
       <c r="AM5" s="17" t="s">
@@ -3213,7 +3254,7 @@
       <c r="AO5" s="22">
         <v>43831.0</v>
       </c>
-      <c r="AP5" s="27">
+      <c r="AP5" s="28">
         <v>50000.0</v>
       </c>
       <c r="AQ5" s="16" t="s">
@@ -3247,7 +3288,7 @@
       <c r="AZ5" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="BA5" s="27">
+      <c r="BA5" s="28">
         <v>380000.0</v>
       </c>
       <c r="BB5" s="22">
@@ -3268,7 +3309,7 @@
       <c r="BG5" s="22">
         <v>43831.0</v>
       </c>
-      <c r="BH5" s="23" t="s">
+      <c r="BH5" s="24" t="s">
         <v>102</v>
       </c>
       <c r="BI5" s="17" t="s">
@@ -3280,16 +3321,16 @@
       <c r="BK5" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="BL5" s="25" t="s">
+      <c r="BL5" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="BM5" s="25" t="s">
+      <c r="BM5" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="BN5" s="25" t="s">
+      <c r="BN5" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="BO5" s="25" t="s">
+      <c r="BO5" s="26" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3300,13 +3341,13 @@
       <c r="B6" s="15">
         <v>1004.0</v>
       </c>
-      <c r="C6" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" s="24" t="s">
+      <c r="C6" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="25" t="s">
         <v>84</v>
       </c>
       <c r="F6" s="18" t="s">
@@ -3373,10 +3414,10 @@
       <c r="Z6" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="AA6" s="24" t="s">
+      <c r="AA6" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="AB6" s="24">
+      <c r="AB6" s="25">
         <v>1006.0</v>
       </c>
       <c r="AC6" s="17" t="s">
@@ -3418,7 +3459,7 @@
       <c r="AO6" s="22">
         <v>43831.0</v>
       </c>
-      <c r="AP6" s="27">
+      <c r="AP6" s="28">
         <v>50000.0</v>
       </c>
       <c r="AQ6" s="16" t="s">
@@ -3452,7 +3493,7 @@
       <c r="AZ6" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="BA6" s="27">
+      <c r="BA6" s="28">
         <v>380000.0</v>
       </c>
       <c r="BB6" s="22">
@@ -3465,7 +3506,7 @@
         <v>98</v>
       </c>
       <c r="BE6" s="23" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="BF6" s="17" t="s">
         <v>84</v>
@@ -3473,7 +3514,7 @@
       <c r="BG6" s="22">
         <v>43831.0</v>
       </c>
-      <c r="BH6" s="23" t="s">
+      <c r="BH6" s="24" t="s">
         <v>102</v>
       </c>
       <c r="BI6" s="17" t="s">
@@ -3485,16 +3526,16 @@
       <c r="BK6" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BL6" s="25" t="s">
+      <c r="BL6" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="BM6" s="25" t="s">
+      <c r="BM6" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="BN6" s="25" t="s">
+      <c r="BN6" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="BO6" s="25" t="s">
+      <c r="BO6" s="26" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3505,13 +3546,13 @@
       <c r="B7" s="15">
         <v>1005.0</v>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" s="24" t="s">
+      <c r="C7" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="25" t="s">
         <v>84</v>
       </c>
       <c r="F7" s="18" t="s">
@@ -3578,10 +3619,10 @@
       <c r="Z7" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="AA7" s="24" t="s">
+      <c r="AA7" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="AB7" s="24">
+      <c r="AB7" s="25">
         <v>1007.0</v>
       </c>
       <c r="AC7" s="17" t="s">
@@ -3623,7 +3664,7 @@
       <c r="AO7" s="22">
         <v>43831.0</v>
       </c>
-      <c r="AP7" s="27">
+      <c r="AP7" s="28">
         <v>50000.0</v>
       </c>
       <c r="AQ7" s="16" t="s">
@@ -3657,7 +3698,7 @@
       <c r="AZ7" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="BA7" s="27">
+      <c r="BA7" s="28">
         <v>380000.0</v>
       </c>
       <c r="BB7" s="22">
@@ -3670,7 +3711,7 @@
         <v>98</v>
       </c>
       <c r="BE7" s="23" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="BF7" s="17" t="s">
         <v>84</v>
@@ -3678,7 +3719,7 @@
       <c r="BG7" s="22">
         <v>43831.0</v>
       </c>
-      <c r="BH7" s="23" t="s">
+      <c r="BH7" s="24" t="s">
         <v>102</v>
       </c>
       <c r="BI7" s="17" t="s">
@@ -3690,16 +3731,16 @@
       <c r="BK7" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BL7" s="25" t="s">
+      <c r="BL7" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="BM7" s="25" t="s">
+      <c r="BM7" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="BN7" s="25" t="s">
+      <c r="BN7" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="BO7" s="25" t="s">
+      <c r="BO7" s="26" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3710,13 +3751,13 @@
       <c r="B8" s="15">
         <v>1006.0</v>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="E8" s="24" t="s">
+      <c r="C8" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="25" t="s">
         <v>84</v>
       </c>
       <c r="F8" s="18" t="s">
@@ -3764,7 +3805,7 @@
       <c r="T8" s="19">
         <v>0.0</v>
       </c>
-      <c r="U8" s="26" t="s">
+      <c r="U8" s="27" t="s">
         <v>111</v>
       </c>
       <c r="V8" s="17" t="s">
@@ -3786,7 +3827,7 @@
       <c r="AA8" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="AB8" s="24">
+      <c r="AB8" s="25">
         <v>1008.0</v>
       </c>
       <c r="AC8" s="17" t="s">
@@ -3828,7 +3869,7 @@
       <c r="AO8" s="22">
         <v>43831.0</v>
       </c>
-      <c r="AP8" s="27">
+      <c r="AP8" s="28">
         <v>50000.0</v>
       </c>
       <c r="AQ8" s="16" t="s">
@@ -3883,7 +3924,7 @@
       <c r="BG8" s="22">
         <v>44652.0</v>
       </c>
-      <c r="BH8" s="23" t="s">
+      <c r="BH8" s="24" t="s">
         <v>102</v>
       </c>
       <c r="BI8" s="17" t="s">
@@ -3895,16 +3936,16 @@
       <c r="BK8" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BL8" s="25" t="s">
+      <c r="BL8" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="BM8" s="25" t="s">
+      <c r="BM8" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="BN8" s="25" t="s">
+      <c r="BN8" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="BO8" s="25" t="s">
+      <c r="BO8" s="26" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3915,13 +3956,13 @@
       <c r="B9" s="15">
         <v>1007.0</v>
       </c>
-      <c r="C9" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" s="24" t="s">
+      <c r="C9" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="25" t="s">
         <v>84</v>
       </c>
       <c r="F9" s="18" t="s">
@@ -3969,7 +4010,7 @@
       <c r="T9" s="19">
         <v>0.0</v>
       </c>
-      <c r="U9" s="26" t="s">
+      <c r="U9" s="27" t="s">
         <v>111</v>
       </c>
       <c r="V9" s="16" t="s">
@@ -3991,7 +4032,7 @@
       <c r="AA9" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="AB9" s="24">
+      <c r="AB9" s="25">
         <v>1009.0</v>
       </c>
       <c r="AC9" s="17" t="s">
@@ -4033,7 +4074,7 @@
       <c r="AO9" s="22">
         <v>43831.0</v>
       </c>
-      <c r="AP9" s="27">
+      <c r="AP9" s="28">
         <v>50000.0</v>
       </c>
       <c r="AQ9" s="16" t="s">
@@ -4080,7 +4121,7 @@
         <v>100</v>
       </c>
       <c r="BE9" s="23" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="BF9" s="17" t="s">
         <v>84</v>
@@ -4088,7 +4129,7 @@
       <c r="BG9" s="22">
         <v>44652.0</v>
       </c>
-      <c r="BH9" s="23" t="s">
+      <c r="BH9" s="24" t="s">
         <v>102</v>
       </c>
       <c r="BI9" s="17" t="s">
@@ -4100,16 +4141,16 @@
       <c r="BK9" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BL9" s="25" t="s">
+      <c r="BL9" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="BM9" s="25" t="s">
+      <c r="BM9" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="BN9" s="25" t="s">
+      <c r="BN9" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="BO9" s="25" t="s">
+      <c r="BO9" s="26" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4120,13 +4161,13 @@
       <c r="B10" s="15">
         <v>1008.0</v>
       </c>
-      <c r="C10" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="E10" s="24" t="s">
+      <c r="C10" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="25" t="s">
         <v>84</v>
       </c>
       <c r="F10" s="18" t="s">
@@ -4174,7 +4215,7 @@
       <c r="T10" s="19">
         <v>0.0</v>
       </c>
-      <c r="U10" s="26" t="s">
+      <c r="U10" s="27" t="s">
         <v>111</v>
       </c>
       <c r="V10" s="17" t="s">
@@ -4196,7 +4237,7 @@
       <c r="AA10" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="AB10" s="24">
+      <c r="AB10" s="25">
         <v>1010.0</v>
       </c>
       <c r="AC10" s="17" t="s">
@@ -4238,7 +4279,7 @@
       <c r="AO10" s="22">
         <v>43831.0</v>
       </c>
-      <c r="AP10" s="27">
+      <c r="AP10" s="28">
         <v>50000.0</v>
       </c>
       <c r="AQ10" s="16" t="s">
@@ -4285,7 +4326,7 @@
         <v>100</v>
       </c>
       <c r="BE10" s="23" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="BF10" s="17" t="s">
         <v>84</v>
@@ -4293,7 +4334,7 @@
       <c r="BG10" s="22">
         <v>44652.0</v>
       </c>
-      <c r="BH10" s="23" t="s">
+      <c r="BH10" s="24" t="s">
         <v>102</v>
       </c>
       <c r="BI10" s="17" t="s">
@@ -4305,16 +4346,16 @@
       <c r="BK10" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BL10" s="25" t="s">
+      <c r="BL10" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="BM10" s="25" t="s">
+      <c r="BM10" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="BN10" s="25" t="s">
+      <c r="BN10" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="BO10" s="25" t="s">
+      <c r="BO10" s="26" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4325,13 +4366,13 @@
       <c r="B11" s="15">
         <v>1009.0</v>
       </c>
-      <c r="C11" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11" s="24" t="s">
+      <c r="C11" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>84</v>
       </c>
       <c r="F11" s="18" t="s">
@@ -4379,7 +4420,7 @@
       <c r="T11" s="19">
         <v>0.0</v>
       </c>
-      <c r="U11" s="26" t="s">
+      <c r="U11" s="27" t="s">
         <v>111</v>
       </c>
       <c r="V11" s="16" t="s">
@@ -4401,7 +4442,7 @@
       <c r="AA11" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="AB11" s="24">
+      <c r="AB11" s="25">
         <v>1011.0</v>
       </c>
       <c r="AC11" s="17" t="s">
@@ -4443,7 +4484,7 @@
       <c r="AO11" s="22">
         <v>43831.0</v>
       </c>
-      <c r="AP11" s="27">
+      <c r="AP11" s="28">
         <v>50000.0</v>
       </c>
       <c r="AQ11" s="16" t="s">
@@ -4498,7 +4539,7 @@
       <c r="BG11" s="22">
         <v>44652.0</v>
       </c>
-      <c r="BH11" s="23" t="s">
+      <c r="BH11" s="24" t="s">
         <v>102</v>
       </c>
       <c r="BI11" s="17" t="s">
@@ -4510,16 +4551,16 @@
       <c r="BK11" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BL11" s="25" t="s">
+      <c r="BL11" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="BM11" s="25" t="s">
+      <c r="BM11" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="BN11" s="25" t="s">
+      <c r="BN11" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="BO11" s="25" t="s">
+      <c r="BO11" s="26" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4530,13 +4571,13 @@
       <c r="B12" s="15">
         <v>1010.0</v>
       </c>
-      <c r="C12" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" s="24" t="s">
+      <c r="C12" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="25" t="s">
         <v>84</v>
       </c>
       <c r="F12" s="18" t="s">
@@ -4584,7 +4625,7 @@
       <c r="T12" s="19">
         <v>0.0</v>
       </c>
-      <c r="U12" s="26" t="s">
+      <c r="U12" s="27" t="s">
         <v>111</v>
       </c>
       <c r="V12" s="16" t="s">
@@ -4606,7 +4647,7 @@
       <c r="AA12" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="AB12" s="24">
+      <c r="AB12" s="25">
         <v>1012.0</v>
       </c>
       <c r="AC12" s="17" t="s">
@@ -4648,7 +4689,7 @@
       <c r="AO12" s="22">
         <v>43831.0</v>
       </c>
-      <c r="AP12" s="27">
+      <c r="AP12" s="28">
         <v>50000.0</v>
       </c>
       <c r="AQ12" s="16" t="s">
@@ -4695,7 +4736,7 @@
         <v>100</v>
       </c>
       <c r="BE12" s="23" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="BF12" s="17" t="s">
         <v>84</v>
@@ -4703,7 +4744,7 @@
       <c r="BG12" s="22">
         <v>44652.0</v>
       </c>
-      <c r="BH12" s="23" t="s">
+      <c r="BH12" s="24" t="s">
         <v>102</v>
       </c>
       <c r="BI12" s="17" t="s">
@@ -4715,16 +4756,16 @@
       <c r="BK12" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BL12" s="25" t="s">
+      <c r="BL12" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="BM12" s="25" t="s">
+      <c r="BM12" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="BN12" s="25" t="s">
+      <c r="BN12" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="BO12" s="25" t="s">
+      <c r="BO12" s="26" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4735,13 +4776,13 @@
       <c r="B13" s="15">
         <v>1011.0</v>
       </c>
-      <c r="C13" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="E13" s="24" t="s">
+      <c r="C13" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="25" t="s">
         <v>84</v>
       </c>
       <c r="F13" s="18" t="s">
@@ -4789,7 +4830,7 @@
       <c r="T13" s="19">
         <v>0.0</v>
       </c>
-      <c r="U13" s="26" t="s">
+      <c r="U13" s="27" t="s">
         <v>111</v>
       </c>
       <c r="V13" s="16" t="s">
@@ -4811,7 +4852,7 @@
       <c r="AA13" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="AB13" s="24">
+      <c r="AB13" s="25">
         <v>1013.0</v>
       </c>
       <c r="AC13" s="17" t="s">
@@ -4853,7 +4894,7 @@
       <c r="AO13" s="22">
         <v>43831.0</v>
       </c>
-      <c r="AP13" s="27">
+      <c r="AP13" s="28">
         <v>50000.0</v>
       </c>
       <c r="AQ13" s="16" t="s">
@@ -4900,7 +4941,7 @@
         <v>100</v>
       </c>
       <c r="BE13" s="23" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="BF13" s="17" t="s">
         <v>84</v>
@@ -4908,7 +4949,7 @@
       <c r="BG13" s="22">
         <v>44652.0</v>
       </c>
-      <c r="BH13" s="23" t="s">
+      <c r="BH13" s="24" t="s">
         <v>102</v>
       </c>
       <c r="BI13" s="17" t="s">
@@ -4920,16 +4961,16 @@
       <c r="BK13" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BL13" s="25" t="s">
+      <c r="BL13" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="BM13" s="25" t="s">
+      <c r="BM13" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="BN13" s="25" t="s">
+      <c r="BN13" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="BO13" s="25" t="s">
+      <c r="BO13" s="26" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4940,13 +4981,13 @@
       <c r="B14" s="15">
         <v>1012.0</v>
       </c>
-      <c r="C14" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="E14" s="24" t="s">
+      <c r="C14" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="25" t="s">
         <v>84</v>
       </c>
       <c r="F14" s="18" t="s">
@@ -4994,7 +5035,7 @@
       <c r="T14" s="19">
         <v>0.0</v>
       </c>
-      <c r="U14" s="26" t="s">
+      <c r="U14" s="27" t="s">
         <v>111</v>
       </c>
       <c r="V14" s="17" t="s">
@@ -5016,7 +5057,7 @@
       <c r="AA14" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="AB14" s="24">
+      <c r="AB14" s="25">
         <v>1014.0</v>
       </c>
       <c r="AC14" s="17" t="s">
@@ -5058,7 +5099,7 @@
       <c r="AO14" s="22">
         <v>43831.0</v>
       </c>
-      <c r="AP14" s="27">
+      <c r="AP14" s="28">
         <v>50000.0</v>
       </c>
       <c r="AQ14" s="16" t="s">
@@ -5113,7 +5154,7 @@
       <c r="BG14" s="22">
         <v>44652.0</v>
       </c>
-      <c r="BH14" s="23" t="s">
+      <c r="BH14" s="24" t="s">
         <v>102</v>
       </c>
       <c r="BI14" s="17" t="s">
@@ -5125,26 +5166,428 @@
       <c r="BK14" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BL14" s="25" t="s">
+      <c r="BL14" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="BM14" s="25" t="s">
+      <c r="BM14" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="BN14" s="25" t="s">
+      <c r="BN14" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="BO14" s="25" t="s">
+      <c r="BO14" s="26" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="2"/>
-      <c r="AF15" s="16"/>
+      <c r="A15" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="B15" s="15">
+        <v>1013.0</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="L15" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="M15" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="N15" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="O15" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="P15" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q15" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="R15" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="S15" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="T15" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="U15" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="V15" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="W15" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="X15" s="31">
+        <v>15.0</v>
+      </c>
+      <c r="Y15" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>EQU.RT.ART.006.SRM.01.........</v>
+      </c>
+      <c r="Z15" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA15" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="AB15" s="25">
+        <v>1015.0</v>
+      </c>
+      <c r="AC15" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD15" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE15" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF15" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG15" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH15" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI15" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ15" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK15" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL15" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM15" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN15" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO15" s="22">
+        <v>43831.0</v>
+      </c>
+      <c r="AP15" s="28">
+        <v>50000.0</v>
+      </c>
+      <c r="AQ15" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR15" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AS15" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AT15" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>EQU.RT.ART.006.SRM.01.........</v>
+      </c>
+      <c r="AU15" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="AV15" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW15" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX15" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY15" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ15" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA15" s="28">
+        <v>380000.0</v>
+      </c>
+      <c r="BB15" s="22">
+        <v>47484.0</v>
+      </c>
+      <c r="BC15" s="20">
+        <v>8000000.0</v>
+      </c>
+      <c r="BD15" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="BE15" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="BF15" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG15" s="22">
+        <v>43831.0</v>
+      </c>
+      <c r="BH15" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="BI15" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ15" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK15" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL15" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="BM15" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN15" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO15" s="26" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="2"/>
-      <c r="AF16" s="17"/>
+      <c r="A16" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="B16" s="15">
+        <v>1014.0</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="K16" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="L16" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="M16" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="N16" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="O16" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="P16" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q16" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="R16" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="S16" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="T16" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="U16" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="V16" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="W16" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="X16" s="31">
+        <v>16.0</v>
+      </c>
+      <c r="Y16" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>EQU.RT.ART.006.SRS.01.........</v>
+      </c>
+      <c r="Z16" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA16" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB16" s="25">
+        <v>1016.0</v>
+      </c>
+      <c r="AC16" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD16" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE16" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF16" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG16" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH16" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI16" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ16" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK16" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL16" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM16" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN16" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO16" s="22">
+        <v>43831.0</v>
+      </c>
+      <c r="AP16" s="28">
+        <v>50000.0</v>
+      </c>
+      <c r="AQ16" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR16" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AS16" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AT16" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>EQU.RT.ART.006.SRS.01.........</v>
+      </c>
+      <c r="AU16" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="AV16" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW16" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX16" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY16" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ16" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA16" s="28">
+        <v>380000.0</v>
+      </c>
+      <c r="BB16" s="22">
+        <v>47484.0</v>
+      </c>
+      <c r="BC16" s="20">
+        <v>8000000.0</v>
+      </c>
+      <c r="BD16" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="BE16" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="BF16" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG16" s="22">
+        <v>43831.0</v>
+      </c>
+      <c r="BH16" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="BI16" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ16" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK16" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL16" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="BM16" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN16" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO16" s="26" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="2"/>
@@ -6559,7 +7002,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="35" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="B1" s="36" t="s">
         <v>14</v>
@@ -6568,10 +7011,10 @@
         <v>28</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="E1" s="37" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
@@ -9609,23 +10052,25 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="30.0"/>
     <col customWidth="1" min="2" max="2" width="20.88"/>
+    <col customWidth="1" min="4" max="4" width="19.88"/>
+    <col customWidth="1" min="6" max="6" width="28.13"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="35" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="B1" s="36" t="s">
         <v>14</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="E1" s="37" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="F1" s="37" t="s">
         <v>52</v>
@@ -9652,10 +10097,44 @@
       <c r="Z1" s="13"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="38"/>
+      <c r="A2" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="19">
+        <v>1013.0</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="E2" s="25">
+        <v>10.0</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="38"/>
+      <c r="A3" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3" s="19">
+        <v>1014.0</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="E3" s="25">
+        <v>10.0</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="38"/>
@@ -12670,13 +13149,13 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="35" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
@@ -12709,8 +13188,8 @@
       <c r="B2" s="19">
         <v>1000.0</v>
       </c>
-      <c r="C2" s="24" t="s">
-        <v>202</v>
+      <c r="C2" s="25" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -12720,8 +13199,8 @@
       <c r="B3" s="19">
         <v>1001.0</v>
       </c>
-      <c r="C3" s="24" t="s">
-        <v>203</v>
+      <c r="C3" s="25" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
@@ -12731,8 +13210,8 @@
       <c r="B4" s="31">
         <v>1002.0</v>
       </c>
-      <c r="C4" s="24" t="s">
-        <v>204</v>
+      <c r="C4" s="25" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
@@ -12742,8 +13221,8 @@
       <c r="B5" s="31">
         <v>1003.0</v>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>205</v>
+      <c r="C5" s="25" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
@@ -12753,8 +13232,8 @@
       <c r="B6" s="19">
         <v>2000.0</v>
       </c>
-      <c r="C6" s="24" t="s">
-        <v>206</v>
+      <c r="C6" s="25" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
@@ -12764,8 +13243,8 @@
       <c r="B7" s="19">
         <v>2001.0</v>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>207</v>
+      <c r="C7" s="25" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
@@ -12775,8 +13254,8 @@
       <c r="B8" s="19">
         <v>2002.0</v>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>208</v>
+      <c r="C8" s="25" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -12786,8 +13265,8 @@
       <c r="B9" s="19">
         <v>2003.0</v>
       </c>
-      <c r="C9" s="24" t="s">
-        <v>209</v>
+      <c r="C9" s="25" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -12797,8 +13276,8 @@
       <c r="B10" s="19">
         <v>3000.0</v>
       </c>
-      <c r="C10" s="24" t="s">
-        <v>210</v>
+      <c r="C10" s="25" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
@@ -12808,8 +13287,8 @@
       <c r="B11" s="19">
         <v>3001.0</v>
       </c>
-      <c r="C11" s="24" t="s">
-        <v>211</v>
+      <c r="C11" s="25" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
@@ -12819,8 +13298,8 @@
       <c r="B12" s="19">
         <v>3002.0</v>
       </c>
-      <c r="C12" s="24" t="s">
-        <v>212</v>
+      <c r="C12" s="25" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -12830,8 +13309,8 @@
       <c r="B13" s="19">
         <v>3003.0</v>
       </c>
-      <c r="C13" s="24" t="s">
-        <v>213</v>
+      <c r="C13" s="25" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
@@ -15828,10 +16307,10 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>

--- a/TNR_PREJDD/PREJDD.RT.EQU.xlsx
+++ b/TNR_PREJDD/PREJDD.RT.EQU.xlsx
@@ -299,7 +299,7 @@
     <t>EQU.RT.EQU.001.LEC.01</t>
   </si>
   <si>
-    <t>ATTENTE REPONSE MOE</t>
+    <t>$TBD</t>
   </si>
   <si>
     <t>MEREETFILLE</t>

--- a/TNR_PREJDD/PREJDD.RT.EQU.xlsx
+++ b/TNR_PREJDD/PREJDD.RT.EQU.xlsx
@@ -647,13 +647,13 @@
     <t>A</t>
   </si>
   <si>
-    <t>ART.RT.ART.006.SRM.01</t>
+    <t>ART_RT_ART_006_SRM_01</t>
   </si>
   <si>
     <t>OBSERVATION</t>
   </si>
   <si>
-    <t>ART.RT.ART.006.SRS.01</t>
+    <t>ART_RT_ART_006_SRS_01</t>
   </si>
   <si>
     <t>CAS DE TEST (EQUDOC)</t>

--- a/TNR_PREJDD/PREJDD.RT.EQU.xlsx
+++ b/TNR_PREJDD/PREJDD.RT.EQU.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="227">
   <si>
     <t>Date</t>
   </si>
@@ -297,9 +297,6 @@
   </si>
   <si>
     <t>EQU.RT.EQU.001.LEC.01</t>
-  </si>
-  <si>
-    <t>$TBD</t>
   </si>
   <si>
     <t>MEREETFILLE</t>
@@ -716,7 +713,7 @@
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -756,11 +753,6 @@
     <font>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <color theme="1"/>
@@ -861,7 +853,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -925,9 +917,6 @@
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="5" fontId="6" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -940,7 +929,7 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -955,13 +944,13 @@
     <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="10" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="3" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="5" fillId="4" fontId="3" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
@@ -2610,19 +2599,19 @@
         <v>84</v>
       </c>
       <c r="AF2" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG2" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="AG2" s="17" t="s">
+      <c r="AH2" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="AH2" s="17" t="s">
+      <c r="AI2" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="AI2" s="17" t="s">
+      <c r="AJ2" s="17" t="s">
         <v>95</v>
-      </c>
-      <c r="AJ2" s="17" t="s">
-        <v>96</v>
       </c>
       <c r="AK2" s="22">
         <v>43922.0</v>
@@ -2634,7 +2623,7 @@
         <v>84</v>
       </c>
       <c r="AN2" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AO2" s="22">
         <v>44652.0</v>
@@ -2643,35 +2632,35 @@
         <v>20000.0</v>
       </c>
       <c r="AQ2" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AR2" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AS2" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AT2" s="18" t="str">
         <f t="shared" ref="AT2:AT16" si="2">Y2</f>
         <v>EQU.RT.EQU.001.LEC.01.........</v>
       </c>
       <c r="AU2" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV2" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW2" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX2" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY2" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ2" s="18" t="s">
         <v>98</v>
-      </c>
-      <c r="AV2" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="AW2" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX2" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AY2" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AZ2" s="18" t="s">
-        <v>99</v>
       </c>
       <c r="BA2" s="20">
         <v>110000.0</v>
@@ -2683,10 +2672,10 @@
         <v>2000000.0</v>
       </c>
       <c r="BD2" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="BE2" s="23" t="s">
         <v>100</v>
-      </c>
-      <c r="BE2" s="23" t="s">
-        <v>101</v>
       </c>
       <c r="BF2" s="17" t="s">
         <v>84</v>
@@ -2695,45 +2684,45 @@
         <v>44652.0</v>
       </c>
       <c r="BH2" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="BI2" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ2" s="21">
+        <v>1000.0</v>
+      </c>
+      <c r="BK2" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="BI2" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="BJ2" s="25">
-        <v>1000.0</v>
-      </c>
-      <c r="BK2" s="17" t="s">
+      <c r="BL2" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="BM2" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="BN2" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="BL2" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="BM2" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="BN2" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="BO2" s="26" t="s">
-        <v>104</v>
+      <c r="BO2" s="25" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3" s="15">
         <v>1001.0</v>
       </c>
       <c r="C3" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="E3" s="16" t="s">
         <v>107</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>108</v>
       </c>
       <c r="F3" s="18" t="s">
         <v>84</v>
@@ -2763,7 +2752,7 @@
         <v>84</v>
       </c>
       <c r="O3" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P3" s="16" t="s">
         <v>85</v>
@@ -2775,16 +2764,16 @@
         <v>84</v>
       </c>
       <c r="S3" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="T3" s="19">
         <v>0.0</v>
       </c>
-      <c r="U3" s="27" t="s">
+      <c r="U3" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="V3" s="16" t="s">
         <v>111</v>
-      </c>
-      <c r="V3" s="16" t="s">
-        <v>112</v>
       </c>
       <c r="W3" s="19">
         <v>1.0</v>
@@ -2797,74 +2786,74 @@
         <v>EQU.RT.EQU.001.MAJ.01.........</v>
       </c>
       <c r="Z3" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA3" s="17" t="s">
         <v>113</v>
-      </c>
-      <c r="AA3" s="17" t="s">
-        <v>114</v>
       </c>
       <c r="AB3" s="20">
         <v>1003.0</v>
       </c>
-      <c r="AC3" s="28">
+      <c r="AC3" s="27">
         <v>30.0</v>
       </c>
-      <c r="AD3" s="28">
+      <c r="AD3" s="27">
         <v>130.0</v>
       </c>
       <c r="AE3" s="17" t="s">
         <v>84</v>
       </c>
       <c r="AF3" s="21" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="AG3" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH3" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="AH3" s="16" t="s">
+      <c r="AI3" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="AI3" s="16" t="s">
+      <c r="AJ3" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="AJ3" s="16" t="s">
+      <c r="AK3" s="28">
+        <v>43466.0</v>
+      </c>
+      <c r="AL3" s="27">
+        <v>30000.0</v>
+      </c>
+      <c r="AM3" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN3" s="16" t="s">
         <v>118</v>
-      </c>
-      <c r="AK3" s="29">
-        <v>43466.0</v>
-      </c>
-      <c r="AL3" s="28">
-        <v>30000.0</v>
-      </c>
-      <c r="AM3" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AN3" s="16" t="s">
-        <v>119</v>
       </c>
       <c r="AO3" s="22">
         <v>43831.0</v>
       </c>
-      <c r="AP3" s="28">
+      <c r="AP3" s="27">
         <v>30000.0</v>
       </c>
       <c r="AQ3" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AR3" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AS3" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AT3" s="18" t="str">
         <f t="shared" si="2"/>
         <v>EQU.RT.EQU.001.MAJ.01.........</v>
       </c>
       <c r="AU3" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AV3" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AW3" s="17" t="s">
         <v>84</v>
@@ -2876,9 +2865,9 @@
         <v>84</v>
       </c>
       <c r="AZ3" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="BA3" s="28">
+        <v>98</v>
+      </c>
+      <c r="BA3" s="27">
         <v>200000.0</v>
       </c>
       <c r="BB3" s="22">
@@ -2888,10 +2877,10 @@
         <v>4000000.0</v>
       </c>
       <c r="BD3" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BE3" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BF3" s="17" t="s">
         <v>84</v>
@@ -2900,46 +2889,46 @@
         <v>43831.0</v>
       </c>
       <c r="BH3" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BI3" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BJ3" s="25">
+      <c r="BJ3" s="21">
         <v>1002.0</v>
       </c>
       <c r="BK3" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="BL3" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="BM3" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="BN3" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="BO3" s="26" t="s">
-        <v>104</v>
+        <v>120</v>
+      </c>
+      <c r="BL3" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="BM3" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="BN3" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="BO3" s="25" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B4" s="15">
         <v>1002.0</v>
       </c>
       <c r="C4" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="E4" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="E4" s="16" t="s">
-        <v>125</v>
-      </c>
       <c r="F4" s="18" t="s">
         <v>84</v>
       </c>
@@ -2952,7 +2941,7 @@
       <c r="I4" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="J4" s="30">
+      <c r="J4" s="29">
         <v>1002.0</v>
       </c>
       <c r="K4" s="19">
@@ -2968,7 +2957,7 @@
         <v>84</v>
       </c>
       <c r="O4" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P4" s="16" t="s">
         <v>85</v>
@@ -2980,21 +2969,21 @@
         <v>84</v>
       </c>
       <c r="S4" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="T4" s="19">
         <v>0.0</v>
       </c>
-      <c r="U4" s="27" t="s">
+      <c r="U4" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="V4" s="17" t="s">
         <v>128</v>
-      </c>
-      <c r="V4" s="17" t="s">
-        <v>129</v>
       </c>
       <c r="W4" s="19">
         <v>1.0</v>
       </c>
-      <c r="X4" s="31">
+      <c r="X4" s="30">
         <v>4.0</v>
       </c>
       <c r="Y4" s="17" t="str">
@@ -3002,39 +2991,39 @@
         <v>EQU.RT.EQU.001.SUP.01.........</v>
       </c>
       <c r="Z4" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA4" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="AA4" s="16" t="s">
+      <c r="AB4" s="27">
+        <v>1004.0</v>
+      </c>
+      <c r="AC4" s="21">
+        <v>40.0</v>
+      </c>
+      <c r="AD4" s="21">
+        <v>140.0</v>
+      </c>
+      <c r="AE4" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF4" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG4" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH4" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI4" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ4" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="AB4" s="28">
-        <v>1004.0</v>
-      </c>
-      <c r="AC4" s="25">
-        <v>40.0</v>
-      </c>
-      <c r="AD4" s="25">
-        <v>140.0</v>
-      </c>
-      <c r="AE4" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF4" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG4" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="AH4" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI4" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ4" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="AK4" s="29">
+      <c r="AK4" s="28">
         <v>43466.0</v>
       </c>
       <c r="AL4" s="20">
@@ -3044,7 +3033,7 @@
         <v>84</v>
       </c>
       <c r="AN4" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AO4" s="22">
         <v>43831.0</v>
@@ -3053,35 +3042,35 @@
         <v>40000.0</v>
       </c>
       <c r="AQ4" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AR4" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AS4" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AT4" s="18" t="str">
         <f t="shared" si="2"/>
         <v>EQU.RT.EQU.001.SUP.01.........</v>
       </c>
       <c r="AU4" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV4" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW4" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX4" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY4" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ4" s="18" t="s">
         <v>98</v>
-      </c>
-      <c r="AV4" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="AW4" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX4" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AY4" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AZ4" s="18" t="s">
-        <v>99</v>
       </c>
       <c r="BA4" s="20">
         <v>290000.0</v>
@@ -3093,10 +3082,10 @@
         <v>6000000.0</v>
       </c>
       <c r="BD4" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BE4" s="23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="BF4" s="17" t="s">
         <v>84</v>
@@ -3105,46 +3094,46 @@
         <v>43831.0</v>
       </c>
       <c r="BH4" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BI4" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BJ4" s="32">
+      <c r="BJ4" s="31">
         <v>1004.0</v>
       </c>
       <c r="BK4" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="BL4" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="BM4" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="BN4" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="BO4" s="26" t="s">
-        <v>104</v>
+        <v>134</v>
+      </c>
+      <c r="BL4" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="BM4" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="BN4" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="BO4" s="25" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B5" s="15">
         <v>1003.0</v>
       </c>
       <c r="C5" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="E5" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="E5" s="16" t="s">
-        <v>139</v>
-      </c>
       <c r="F5" s="18" t="s">
         <v>84</v>
       </c>
@@ -3157,7 +3146,7 @@
       <c r="I5" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="J5" s="30">
+      <c r="J5" s="29">
         <v>1003.0</v>
       </c>
       <c r="K5" s="19">
@@ -3173,7 +3162,7 @@
         <v>84</v>
       </c>
       <c r="O5" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P5" s="16" t="s">
         <v>85</v>
@@ -3185,7 +3174,7 @@
         <v>84</v>
       </c>
       <c r="S5" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="T5" s="19">
         <v>0.0</v>
@@ -3194,12 +3183,12 @@
         <v>88</v>
       </c>
       <c r="V5" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="W5" s="19">
         <v>1.0</v>
       </c>
-      <c r="X5" s="31">
+      <c r="X5" s="30">
         <v>5.0</v>
       </c>
       <c r="Y5" s="17" t="str">
@@ -3207,74 +3196,74 @@
         <v>EQU.RT.EQU.001.REC.01.........</v>
       </c>
       <c r="Z5" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA5" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="AA5" s="16" t="s">
+      <c r="AB5" s="27">
+        <v>1005.0</v>
+      </c>
+      <c r="AC5" s="21">
+        <v>50.0</v>
+      </c>
+      <c r="AD5" s="21">
+        <v>150.0</v>
+      </c>
+      <c r="AE5" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF5" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG5" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH5" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI5" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ5" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="AB5" s="28">
-        <v>1005.0</v>
-      </c>
-      <c r="AC5" s="25">
-        <v>50.0</v>
-      </c>
-      <c r="AD5" s="25">
-        <v>150.0</v>
-      </c>
-      <c r="AE5" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF5" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG5" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="AH5" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI5" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ5" s="16" t="s">
+      <c r="AK5" s="28">
+        <v>43466.0</v>
+      </c>
+      <c r="AL5" s="27">
+        <v>50000.0</v>
+      </c>
+      <c r="AM5" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN5" s="16" t="s">
         <v>145</v>
-      </c>
-      <c r="AK5" s="29">
-        <v>43466.0</v>
-      </c>
-      <c r="AL5" s="28">
-        <v>50000.0</v>
-      </c>
-      <c r="AM5" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AN5" s="16" t="s">
-        <v>146</v>
       </c>
       <c r="AO5" s="22">
         <v>43831.0</v>
       </c>
-      <c r="AP5" s="28">
+      <c r="AP5" s="27">
         <v>50000.0</v>
       </c>
       <c r="AQ5" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AR5" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AS5" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AT5" s="18" t="str">
         <f t="shared" si="2"/>
         <v>EQU.RT.EQU.001.REC.01.........</v>
       </c>
       <c r="AU5" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AV5" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AW5" s="17" t="s">
         <v>84</v>
@@ -3286,9 +3275,9 @@
         <v>84</v>
       </c>
       <c r="AZ5" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="BA5" s="28">
+        <v>98</v>
+      </c>
+      <c r="BA5" s="27">
         <v>380000.0</v>
       </c>
       <c r="BB5" s="22">
@@ -3298,10 +3287,10 @@
         <v>8000000.0</v>
       </c>
       <c r="BD5" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="BE5" s="23" t="s">
         <v>100</v>
-      </c>
-      <c r="BE5" s="23" t="s">
-        <v>101</v>
       </c>
       <c r="BF5" s="17" t="s">
         <v>84</v>
@@ -3310,44 +3299,44 @@
         <v>43831.0</v>
       </c>
       <c r="BH5" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BI5" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BJ5" s="32">
+      <c r="BJ5" s="31">
         <v>1005.0</v>
       </c>
       <c r="BK5" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="BL5" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="BM5" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="BN5" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="BO5" s="25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="32" t="s">
         <v>147</v>
-      </c>
-      <c r="BL5" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="BM5" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="BN5" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="BO5" s="26" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="33" t="s">
-        <v>148</v>
       </c>
       <c r="B6" s="15">
         <v>1004.0</v>
       </c>
-      <c r="C6" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" s="25" t="s">
+      <c r="C6" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="21" t="s">
         <v>84</v>
       </c>
       <c r="F6" s="18" t="s">
@@ -3399,12 +3388,12 @@
         <v>88</v>
       </c>
       <c r="V6" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="W6" s="19">
         <v>1.0</v>
       </c>
-      <c r="X6" s="31">
+      <c r="X6" s="30">
         <v>6.0</v>
       </c>
       <c r="Y6" s="17" t="str">
@@ -3412,88 +3401,88 @@
         <v>EQU.RT.ART.006.SRA.01.........</v>
       </c>
       <c r="Z6" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA6" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="AA6" s="25" t="s">
+      <c r="AB6" s="21">
+        <v>1006.0</v>
+      </c>
+      <c r="AC6" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD6" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE6" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF6" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG6" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH6" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI6" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ6" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK6" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL6" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM6" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN6" s="16" t="s">
         <v>151</v>
-      </c>
-      <c r="AB6" s="25">
-        <v>1006.0</v>
-      </c>
-      <c r="AC6" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD6" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE6" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF6" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG6" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH6" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI6" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ6" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK6" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL6" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM6" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AN6" s="16" t="s">
-        <v>152</v>
       </c>
       <c r="AO6" s="22">
         <v>43831.0</v>
       </c>
-      <c r="AP6" s="28">
+      <c r="AP6" s="27">
         <v>50000.0</v>
       </c>
       <c r="AQ6" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AR6" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AS6" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AT6" s="18" t="str">
         <f t="shared" si="2"/>
         <v>EQU.RT.ART.006.SRA.01.........</v>
       </c>
       <c r="AU6" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV6" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW6" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX6" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY6" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ6" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="AV6" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="AW6" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX6" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AY6" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AZ6" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="BA6" s="28">
+      <c r="BA6" s="27">
         <v>380000.0</v>
       </c>
       <c r="BB6" s="22">
@@ -3503,10 +3492,10 @@
         <v>8000000.0</v>
       </c>
       <c r="BD6" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BE6" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BF6" s="17" t="s">
         <v>84</v>
@@ -3515,7 +3504,7 @@
         <v>43831.0</v>
       </c>
       <c r="BH6" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BI6" s="17" t="s">
         <v>84</v>
@@ -3526,33 +3515,33 @@
       <c r="BK6" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BL6" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="BM6" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="BN6" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="BO6" s="26" t="s">
-        <v>104</v>
+      <c r="BL6" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="BM6" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="BN6" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="BO6" s="25" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="33" t="s">
-        <v>153</v>
+      <c r="A7" s="32" t="s">
+        <v>152</v>
       </c>
       <c r="B7" s="15">
         <v>1005.0</v>
       </c>
-      <c r="C7" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" s="25" t="s">
+      <c r="C7" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="21" t="s">
         <v>84</v>
       </c>
       <c r="F7" s="18" t="s">
@@ -3604,12 +3593,12 @@
         <v>88</v>
       </c>
       <c r="V7" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="W7" s="19">
         <v>1.0</v>
       </c>
-      <c r="X7" s="31">
+      <c r="X7" s="30">
         <v>7.0</v>
       </c>
       <c r="Y7" s="17" t="str">
@@ -3617,88 +3606,88 @@
         <v>EQU.RT.MAT.001.CRE.01.........</v>
       </c>
       <c r="Z7" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA7" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="AA7" s="25" t="s">
+      <c r="AB7" s="21">
+        <v>1007.0</v>
+      </c>
+      <c r="AC7" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD7" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE7" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF7" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG7" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH7" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI7" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ7" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK7" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL7" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM7" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN7" s="16" t="s">
         <v>156</v>
-      </c>
-      <c r="AB7" s="25">
-        <v>1007.0</v>
-      </c>
-      <c r="AC7" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD7" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE7" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF7" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG7" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH7" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI7" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ7" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK7" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL7" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM7" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AN7" s="16" t="s">
-        <v>157</v>
       </c>
       <c r="AO7" s="22">
         <v>43831.0</v>
       </c>
-      <c r="AP7" s="28">
+      <c r="AP7" s="27">
         <v>50000.0</v>
       </c>
       <c r="AQ7" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AR7" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AS7" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AT7" s="18" t="str">
         <f t="shared" si="2"/>
         <v>EQU.RT.MAT.001.CRE.01.........</v>
       </c>
       <c r="AU7" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV7" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW7" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX7" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY7" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ7" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="AV7" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="AW7" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX7" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AY7" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AZ7" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="BA7" s="28">
+      <c r="BA7" s="27">
         <v>380000.0</v>
       </c>
       <c r="BB7" s="22">
@@ -3708,10 +3697,10 @@
         <v>8000000.0</v>
       </c>
       <c r="BD7" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BE7" s="23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="BF7" s="17" t="s">
         <v>84</v>
@@ -3720,7 +3709,7 @@
         <v>43831.0</v>
       </c>
       <c r="BH7" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BI7" s="17" t="s">
         <v>84</v>
@@ -3731,33 +3720,33 @@
       <c r="BK7" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BL7" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="BM7" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="BN7" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="BO7" s="26" t="s">
-        <v>104</v>
+      <c r="BL7" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="BM7" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="BN7" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="BO7" s="25" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B8" s="15">
         <v>1006.0</v>
       </c>
-      <c r="C8" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="E8" s="25" t="s">
+      <c r="C8" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="21" t="s">
         <v>84</v>
       </c>
       <c r="F8" s="18" t="s">
@@ -3805,16 +3794,16 @@
       <c r="T8" s="19">
         <v>0.0</v>
       </c>
-      <c r="U8" s="27" t="s">
-        <v>111</v>
+      <c r="U8" s="26" t="s">
+        <v>110</v>
       </c>
       <c r="V8" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W8" s="19">
         <v>1.0</v>
       </c>
-      <c r="X8" s="31">
+      <c r="X8" s="30">
         <v>8.0</v>
       </c>
       <c r="Y8" s="17" t="str">
@@ -3822,86 +3811,86 @@
         <v>EQU.TR.BTR.001.CRE.01.........</v>
       </c>
       <c r="Z8" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA8" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="AA8" s="17" t="s">
+      <c r="AB8" s="21">
+        <v>1008.0</v>
+      </c>
+      <c r="AC8" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD8" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE8" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF8" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG8" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH8" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI8" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ8" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK8" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL8" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM8" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN8" s="16" t="s">
         <v>161</v>
-      </c>
-      <c r="AB8" s="25">
-        <v>1008.0</v>
-      </c>
-      <c r="AC8" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD8" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE8" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF8" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG8" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH8" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI8" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ8" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK8" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL8" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM8" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AN8" s="16" t="s">
-        <v>162</v>
       </c>
       <c r="AO8" s="22">
         <v>43831.0</v>
       </c>
-      <c r="AP8" s="28">
+      <c r="AP8" s="27">
         <v>50000.0</v>
       </c>
       <c r="AQ8" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AR8" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AS8" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AT8" s="18" t="str">
         <f t="shared" si="2"/>
         <v>EQU.TR.BTR.001.CRE.01.........</v>
       </c>
       <c r="AU8" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV8" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW8" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX8" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY8" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ8" s="18" t="s">
         <v>98</v>
-      </c>
-      <c r="AV8" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="AW8" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX8" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AY8" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AZ8" s="18" t="s">
-        <v>99</v>
       </c>
       <c r="BA8" s="20">
         <v>110000.0</v>
@@ -3913,10 +3902,10 @@
         <v>2000000.0</v>
       </c>
       <c r="BD8" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="BE8" s="23" t="s">
         <v>100</v>
-      </c>
-      <c r="BE8" s="23" t="s">
-        <v>101</v>
       </c>
       <c r="BF8" s="17" t="s">
         <v>84</v>
@@ -3925,7 +3914,7 @@
         <v>44652.0</v>
       </c>
       <c r="BH8" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BI8" s="17" t="s">
         <v>84</v>
@@ -3936,33 +3925,33 @@
       <c r="BK8" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BL8" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="BM8" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="BN8" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="BO8" s="26" t="s">
-        <v>104</v>
+      <c r="BL8" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="BM8" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="BN8" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="BO8" s="25" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="34" t="s">
-        <v>163</v>
+      <c r="A9" s="33" t="s">
+        <v>162</v>
       </c>
       <c r="B9" s="15">
         <v>1007.0</v>
       </c>
-      <c r="C9" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" s="25" t="s">
+      <c r="C9" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="21" t="s">
         <v>84</v>
       </c>
       <c r="F9" s="18" t="s">
@@ -4010,16 +3999,16 @@
       <c r="T9" s="19">
         <v>0.0</v>
       </c>
-      <c r="U9" s="27" t="s">
-        <v>111</v>
+      <c r="U9" s="26" t="s">
+        <v>110</v>
       </c>
       <c r="V9" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="W9" s="19">
         <v>1.0</v>
       </c>
-      <c r="X9" s="31">
+      <c r="X9" s="30">
         <v>9.0</v>
       </c>
       <c r="Y9" s="17" t="str">
@@ -4027,86 +4016,86 @@
         <v>EQU.TR.BTR.001.CRE.03.........</v>
       </c>
       <c r="Z9" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA9" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="AA9" s="17" t="s">
+      <c r="AB9" s="21">
+        <v>1009.0</v>
+      </c>
+      <c r="AC9" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD9" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE9" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF9" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG9" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH9" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI9" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ9" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK9" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL9" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM9" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN9" s="16" t="s">
         <v>166</v>
-      </c>
-      <c r="AB9" s="25">
-        <v>1009.0</v>
-      </c>
-      <c r="AC9" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD9" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE9" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF9" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG9" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH9" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI9" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ9" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK9" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL9" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM9" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AN9" s="16" t="s">
-        <v>167</v>
       </c>
       <c r="AO9" s="22">
         <v>43831.0</v>
       </c>
-      <c r="AP9" s="28">
+      <c r="AP9" s="27">
         <v>50000.0</v>
       </c>
       <c r="AQ9" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AR9" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AS9" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AT9" s="18" t="str">
         <f t="shared" si="2"/>
         <v>EQU.TR.BTR.001.CRE.03.........</v>
       </c>
       <c r="AU9" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV9" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW9" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX9" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY9" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ9" s="18" t="s">
         <v>98</v>
-      </c>
-      <c r="AV9" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="AW9" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX9" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AY9" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AZ9" s="18" t="s">
-        <v>99</v>
       </c>
       <c r="BA9" s="20">
         <v>110000.0</v>
@@ -4118,10 +4107,10 @@
         <v>2000000.0</v>
       </c>
       <c r="BD9" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BE9" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BF9" s="17" t="s">
         <v>84</v>
@@ -4130,7 +4119,7 @@
         <v>44652.0</v>
       </c>
       <c r="BH9" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BI9" s="17" t="s">
         <v>84</v>
@@ -4141,33 +4130,33 @@
       <c r="BK9" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BL9" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="BM9" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="BN9" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="BO9" s="26" t="s">
-        <v>104</v>
+      <c r="BL9" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="BM9" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="BN9" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="BO9" s="25" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="34" t="s">
-        <v>168</v>
+      <c r="A10" s="33" t="s">
+        <v>167</v>
       </c>
       <c r="B10" s="15">
         <v>1008.0</v>
       </c>
-      <c r="C10" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="E10" s="25" t="s">
+      <c r="C10" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>84</v>
       </c>
       <c r="F10" s="18" t="s">
@@ -4215,16 +4204,16 @@
       <c r="T10" s="19">
         <v>0.0</v>
       </c>
-      <c r="U10" s="27" t="s">
-        <v>111</v>
+      <c r="U10" s="26" t="s">
+        <v>110</v>
       </c>
       <c r="V10" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W10" s="19">
         <v>1.0</v>
       </c>
-      <c r="X10" s="31">
+      <c r="X10" s="30">
         <v>10.0</v>
       </c>
       <c r="Y10" s="17" t="str">
@@ -4232,86 +4221,86 @@
         <v>EQU.TR.BTR.001.LEC.01.........</v>
       </c>
       <c r="Z10" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA10" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="AA10" s="17" t="s">
+      <c r="AB10" s="21">
+        <v>1010.0</v>
+      </c>
+      <c r="AC10" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD10" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE10" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF10" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG10" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH10" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI10" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ10" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK10" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL10" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM10" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN10" s="16" t="s">
         <v>171</v>
-      </c>
-      <c r="AB10" s="25">
-        <v>1010.0</v>
-      </c>
-      <c r="AC10" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD10" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE10" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF10" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG10" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH10" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI10" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ10" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK10" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL10" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM10" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AN10" s="16" t="s">
-        <v>172</v>
       </c>
       <c r="AO10" s="22">
         <v>43831.0</v>
       </c>
-      <c r="AP10" s="28">
+      <c r="AP10" s="27">
         <v>50000.0</v>
       </c>
       <c r="AQ10" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AR10" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AS10" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AT10" s="18" t="str">
         <f t="shared" si="2"/>
         <v>EQU.TR.BTR.001.LEC.01.........</v>
       </c>
       <c r="AU10" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV10" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW10" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX10" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY10" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ10" s="18" t="s">
         <v>98</v>
-      </c>
-      <c r="AV10" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="AW10" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX10" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AY10" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AZ10" s="18" t="s">
-        <v>99</v>
       </c>
       <c r="BA10" s="20">
         <v>110000.0</v>
@@ -4323,10 +4312,10 @@
         <v>2000000.0</v>
       </c>
       <c r="BD10" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BE10" s="23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="BF10" s="17" t="s">
         <v>84</v>
@@ -4335,7 +4324,7 @@
         <v>44652.0</v>
       </c>
       <c r="BH10" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BI10" s="17" t="s">
         <v>84</v>
@@ -4346,33 +4335,33 @@
       <c r="BK10" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BL10" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="BM10" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="BN10" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="BO10" s="26" t="s">
-        <v>104</v>
+      <c r="BL10" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="BM10" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="BN10" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="BO10" s="25" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="34" t="s">
-        <v>173</v>
+      <c r="A11" s="33" t="s">
+        <v>172</v>
       </c>
       <c r="B11" s="15">
         <v>1009.0</v>
       </c>
-      <c r="C11" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11" s="25" t="s">
+      <c r="C11" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>84</v>
       </c>
       <c r="F11" s="18" t="s">
@@ -4420,16 +4409,16 @@
       <c r="T11" s="19">
         <v>0.0</v>
       </c>
-      <c r="U11" s="27" t="s">
-        <v>111</v>
+      <c r="U11" s="26" t="s">
+        <v>110</v>
       </c>
       <c r="V11" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W11" s="19">
         <v>1.0</v>
       </c>
-      <c r="X11" s="31">
+      <c r="X11" s="30">
         <v>11.0</v>
       </c>
       <c r="Y11" s="17" t="str">
@@ -4437,86 +4426,86 @@
         <v>EQU.UPD.TR.BTR.001.MAJ.01.....</v>
       </c>
       <c r="Z11" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA11" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="AA11" s="17" t="s">
+      <c r="AB11" s="21">
+        <v>1011.0</v>
+      </c>
+      <c r="AC11" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD11" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE11" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF11" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG11" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH11" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI11" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ11" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK11" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL11" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM11" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN11" s="16" t="s">
         <v>176</v>
-      </c>
-      <c r="AB11" s="25">
-        <v>1011.0</v>
-      </c>
-      <c r="AC11" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD11" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE11" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF11" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG11" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH11" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI11" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ11" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK11" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL11" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM11" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AN11" s="16" t="s">
-        <v>177</v>
       </c>
       <c r="AO11" s="22">
         <v>43831.0</v>
       </c>
-      <c r="AP11" s="28">
+      <c r="AP11" s="27">
         <v>50000.0</v>
       </c>
       <c r="AQ11" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AR11" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AS11" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AT11" s="18" t="str">
         <f t="shared" si="2"/>
         <v>EQU.UPD.TR.BTR.001.MAJ.01.....</v>
       </c>
       <c r="AU11" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV11" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW11" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX11" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY11" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ11" s="18" t="s">
         <v>98</v>
-      </c>
-      <c r="AV11" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="AW11" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX11" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AY11" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AZ11" s="18" t="s">
-        <v>99</v>
       </c>
       <c r="BA11" s="20">
         <v>110000.0</v>
@@ -4528,10 +4517,10 @@
         <v>2000000.0</v>
       </c>
       <c r="BD11" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="BE11" s="23" t="s">
         <v>100</v>
-      </c>
-      <c r="BE11" s="23" t="s">
-        <v>101</v>
       </c>
       <c r="BF11" s="17" t="s">
         <v>84</v>
@@ -4540,7 +4529,7 @@
         <v>44652.0</v>
       </c>
       <c r="BH11" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BI11" s="17" t="s">
         <v>84</v>
@@ -4551,33 +4540,33 @@
       <c r="BK11" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BL11" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="BM11" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="BN11" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="BO11" s="26" t="s">
-        <v>104</v>
+      <c r="BL11" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="BM11" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="BN11" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="BO11" s="25" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="34" t="s">
-        <v>173</v>
+      <c r="A12" s="33" t="s">
+        <v>172</v>
       </c>
       <c r="B12" s="15">
         <v>1010.0</v>
       </c>
-      <c r="C12" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" s="25" t="s">
+      <c r="C12" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="21" t="s">
         <v>84</v>
       </c>
       <c r="F12" s="18" t="s">
@@ -4625,16 +4614,16 @@
       <c r="T12" s="19">
         <v>0.0</v>
       </c>
-      <c r="U12" s="27" t="s">
-        <v>111</v>
+      <c r="U12" s="26" t="s">
+        <v>110</v>
       </c>
       <c r="V12" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="W12" s="19">
         <v>1.0</v>
       </c>
-      <c r="X12" s="31">
+      <c r="X12" s="30">
         <v>12.0</v>
       </c>
       <c r="Y12" s="17" t="str">
@@ -4642,86 +4631,86 @@
         <v>EQU.TR.BTR.001.MAJ.01.........</v>
       </c>
       <c r="Z12" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="AA12" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="AA12" s="17" t="s">
+      <c r="AB12" s="21">
+        <v>1012.0</v>
+      </c>
+      <c r="AC12" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD12" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE12" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF12" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG12" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH12" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI12" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ12" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK12" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL12" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM12" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN12" s="16" t="s">
         <v>180</v>
-      </c>
-      <c r="AB12" s="25">
-        <v>1012.0</v>
-      </c>
-      <c r="AC12" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD12" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE12" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF12" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG12" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH12" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI12" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ12" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK12" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL12" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM12" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AN12" s="16" t="s">
-        <v>181</v>
       </c>
       <c r="AO12" s="22">
         <v>43831.0</v>
       </c>
-      <c r="AP12" s="28">
+      <c r="AP12" s="27">
         <v>50000.0</v>
       </c>
       <c r="AQ12" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AR12" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AS12" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AT12" s="18" t="str">
         <f t="shared" si="2"/>
         <v>EQU.TR.BTR.001.MAJ.01.........</v>
       </c>
       <c r="AU12" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV12" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW12" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX12" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY12" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ12" s="18" t="s">
         <v>98</v>
-      </c>
-      <c r="AV12" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="AW12" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX12" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AY12" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AZ12" s="18" t="s">
-        <v>99</v>
       </c>
       <c r="BA12" s="20">
         <v>110000.0</v>
@@ -4733,10 +4722,10 @@
         <v>2000000.0</v>
       </c>
       <c r="BD12" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BE12" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BF12" s="17" t="s">
         <v>84</v>
@@ -4745,7 +4734,7 @@
         <v>44652.0</v>
       </c>
       <c r="BH12" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BI12" s="17" t="s">
         <v>84</v>
@@ -4756,33 +4745,33 @@
       <c r="BK12" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BL12" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="BM12" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="BN12" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="BO12" s="26" t="s">
-        <v>104</v>
+      <c r="BL12" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="BM12" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="BN12" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="BO12" s="25" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B13" s="15">
         <v>1011.0</v>
       </c>
-      <c r="C13" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="E13" s="25" t="s">
+      <c r="C13" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="21" t="s">
         <v>84</v>
       </c>
       <c r="F13" s="18" t="s">
@@ -4830,16 +4819,16 @@
       <c r="T13" s="19">
         <v>0.0</v>
       </c>
-      <c r="U13" s="27" t="s">
-        <v>111</v>
+      <c r="U13" s="26" t="s">
+        <v>110</v>
       </c>
       <c r="V13" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="W13" s="19">
         <v>1.0</v>
       </c>
-      <c r="X13" s="31">
+      <c r="X13" s="30">
         <v>13.0</v>
       </c>
       <c r="Y13" s="17" t="str">
@@ -4847,86 +4836,86 @@
         <v>EQU.TR.BTR.001.SUP.01.........</v>
       </c>
       <c r="Z13" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA13" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="AA13" s="17" t="s">
+      <c r="AB13" s="21">
+        <v>1013.0</v>
+      </c>
+      <c r="AC13" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD13" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE13" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF13" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG13" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH13" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI13" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ13" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK13" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL13" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM13" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN13" s="16" t="s">
         <v>185</v>
-      </c>
-      <c r="AB13" s="25">
-        <v>1013.0</v>
-      </c>
-      <c r="AC13" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD13" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE13" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF13" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG13" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH13" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI13" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ13" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK13" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL13" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM13" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AN13" s="16" t="s">
-        <v>186</v>
       </c>
       <c r="AO13" s="22">
         <v>43831.0</v>
       </c>
-      <c r="AP13" s="28">
+      <c r="AP13" s="27">
         <v>50000.0</v>
       </c>
       <c r="AQ13" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AR13" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AS13" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AT13" s="18" t="str">
         <f t="shared" si="2"/>
         <v>EQU.TR.BTR.001.SUP.01.........</v>
       </c>
       <c r="AU13" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV13" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW13" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX13" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY13" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ13" s="18" t="s">
         <v>98</v>
-      </c>
-      <c r="AV13" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="AW13" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX13" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AY13" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AZ13" s="18" t="s">
-        <v>99</v>
       </c>
       <c r="BA13" s="20">
         <v>110000.0</v>
@@ -4938,10 +4927,10 @@
         <v>2000000.0</v>
       </c>
       <c r="BD13" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BE13" s="23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="BF13" s="17" t="s">
         <v>84</v>
@@ -4950,7 +4939,7 @@
         <v>44652.0</v>
       </c>
       <c r="BH13" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BI13" s="17" t="s">
         <v>84</v>
@@ -4961,33 +4950,33 @@
       <c r="BK13" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BL13" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="BM13" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="BN13" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="BO13" s="26" t="s">
-        <v>104</v>
+      <c r="BL13" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="BM13" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="BN13" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="BO13" s="25" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B14" s="15">
         <v>1012.0</v>
       </c>
-      <c r="C14" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="E14" s="25" t="s">
+      <c r="C14" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="21" t="s">
         <v>84</v>
       </c>
       <c r="F14" s="18" t="s">
@@ -5035,16 +5024,16 @@
       <c r="T14" s="19">
         <v>0.0</v>
       </c>
-      <c r="U14" s="27" t="s">
-        <v>111</v>
+      <c r="U14" s="26" t="s">
+        <v>110</v>
       </c>
       <c r="V14" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="W14" s="19">
         <v>1.0</v>
       </c>
-      <c r="X14" s="31">
+      <c r="X14" s="30">
         <v>14.0</v>
       </c>
       <c r="Y14" s="17" t="str">
@@ -5052,86 +5041,86 @@
         <v>EQU.TR.BTR.001.REC.01.........</v>
       </c>
       <c r="Z14" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA14" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="AA14" s="17" t="s">
+      <c r="AB14" s="21">
+        <v>1014.0</v>
+      </c>
+      <c r="AC14" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD14" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE14" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF14" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG14" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH14" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI14" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ14" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK14" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL14" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM14" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN14" s="16" t="s">
         <v>190</v>
-      </c>
-      <c r="AB14" s="25">
-        <v>1014.0</v>
-      </c>
-      <c r="AC14" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD14" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE14" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF14" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG14" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH14" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI14" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ14" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK14" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL14" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM14" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AN14" s="16" t="s">
-        <v>191</v>
       </c>
       <c r="AO14" s="22">
         <v>43831.0</v>
       </c>
-      <c r="AP14" s="28">
+      <c r="AP14" s="27">
         <v>50000.0</v>
       </c>
       <c r="AQ14" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AR14" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AS14" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AT14" s="18" t="str">
         <f t="shared" si="2"/>
         <v>EQU.TR.BTR.001.REC.01.........</v>
       </c>
       <c r="AU14" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV14" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW14" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX14" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY14" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ14" s="18" t="s">
         <v>98</v>
-      </c>
-      <c r="AV14" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="AW14" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX14" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AY14" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AZ14" s="18" t="s">
-        <v>99</v>
       </c>
       <c r="BA14" s="20">
         <v>110000.0</v>
@@ -5143,10 +5132,10 @@
         <v>2000000.0</v>
       </c>
       <c r="BD14" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="BE14" s="23" t="s">
         <v>100</v>
-      </c>
-      <c r="BE14" s="23" t="s">
-        <v>101</v>
       </c>
       <c r="BF14" s="17" t="s">
         <v>84</v>
@@ -5155,7 +5144,7 @@
         <v>44652.0</v>
       </c>
       <c r="BH14" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BI14" s="17" t="s">
         <v>84</v>
@@ -5166,33 +5155,33 @@
       <c r="BK14" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BL14" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="BM14" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="BN14" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="BO14" s="26" t="s">
-        <v>104</v>
+      <c r="BL14" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="BM14" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="BN14" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="BO14" s="25" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="34" t="s">
-        <v>192</v>
+      <c r="A15" s="33" t="s">
+        <v>191</v>
       </c>
       <c r="B15" s="15">
         <v>1013.0</v>
       </c>
-      <c r="C15" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="E15" s="25" t="s">
+      <c r="C15" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="21" t="s">
         <v>84</v>
       </c>
       <c r="F15" s="18" t="s">
@@ -5244,12 +5233,12 @@
         <v>88</v>
       </c>
       <c r="V15" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="W15" s="19">
         <v>1.0</v>
       </c>
-      <c r="X15" s="31">
+      <c r="X15" s="30">
         <v>15.0</v>
       </c>
       <c r="Y15" s="17" t="str">
@@ -5257,12 +5246,12 @@
         <v>EQU.RT.ART.006.SRM.01.........</v>
       </c>
       <c r="Z15" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="AA15" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="AA15" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="AB15" s="25">
+      <c r="AB15" s="21">
         <v>1015.0</v>
       </c>
       <c r="AC15" s="17" t="s">
@@ -5275,7 +5264,7 @@
         <v>84</v>
       </c>
       <c r="AF15" s="21" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="AG15" s="17" t="s">
         <v>84</v>
@@ -5299,46 +5288,46 @@
         <v>84</v>
       </c>
       <c r="AN15" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AO15" s="22">
         <v>43831.0</v>
       </c>
-      <c r="AP15" s="28">
+      <c r="AP15" s="27">
         <v>50000.0</v>
       </c>
       <c r="AQ15" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AR15" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AS15" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AT15" s="18" t="str">
         <f t="shared" si="2"/>
         <v>EQU.RT.ART.006.SRM.01.........</v>
       </c>
       <c r="AU15" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV15" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW15" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX15" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY15" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ15" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="AV15" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="AW15" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX15" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AY15" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AZ15" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="BA15" s="28">
+      <c r="BA15" s="27">
         <v>380000.0</v>
       </c>
       <c r="BB15" s="22">
@@ -5348,10 +5337,10 @@
         <v>8000000.0</v>
       </c>
       <c r="BD15" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BE15" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BF15" s="17" t="s">
         <v>84</v>
@@ -5360,7 +5349,7 @@
         <v>43831.0</v>
       </c>
       <c r="BH15" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BI15" s="17" t="s">
         <v>84</v>
@@ -5371,33 +5360,33 @@
       <c r="BK15" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BL15" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="BM15" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="BN15" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="BO15" s="26" t="s">
-        <v>104</v>
+      <c r="BL15" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="BM15" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="BN15" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="BO15" s="25" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="34" t="s">
-        <v>196</v>
+      <c r="A16" s="33" t="s">
+        <v>195</v>
       </c>
       <c r="B16" s="15">
         <v>1014.0</v>
       </c>
-      <c r="C16" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="E16" s="25" t="s">
+      <c r="C16" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="21" t="s">
         <v>84</v>
       </c>
       <c r="F16" s="18" t="s">
@@ -5449,12 +5438,12 @@
         <v>88</v>
       </c>
       <c r="V16" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W16" s="19">
         <v>1.0</v>
       </c>
-      <c r="X16" s="31">
+      <c r="X16" s="30">
         <v>16.0</v>
       </c>
       <c r="Y16" s="17" t="str">
@@ -5462,12 +5451,12 @@
         <v>EQU.RT.ART.006.SRS.01.........</v>
       </c>
       <c r="Z16" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA16" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="AA16" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="AB16" s="25">
+      <c r="AB16" s="21">
         <v>1016.0</v>
       </c>
       <c r="AC16" s="17" t="s">
@@ -5480,7 +5469,7 @@
         <v>84</v>
       </c>
       <c r="AF16" s="21" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="AG16" s="17" t="s">
         <v>84</v>
@@ -5504,46 +5493,46 @@
         <v>84</v>
       </c>
       <c r="AN16" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AO16" s="22">
         <v>43831.0</v>
       </c>
-      <c r="AP16" s="28">
+      <c r="AP16" s="27">
         <v>50000.0</v>
       </c>
       <c r="AQ16" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AR16" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AS16" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AT16" s="18" t="str">
         <f t="shared" si="2"/>
         <v>EQU.RT.ART.006.SRS.01.........</v>
       </c>
       <c r="AU16" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV16" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW16" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX16" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY16" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ16" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="AV16" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="AW16" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX16" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AY16" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AZ16" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="BA16" s="28">
+      <c r="BA16" s="27">
         <v>380000.0</v>
       </c>
       <c r="BB16" s="22">
@@ -5553,10 +5542,10 @@
         <v>8000000.0</v>
       </c>
       <c r="BD16" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BE16" s="23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="BF16" s="17" t="s">
         <v>84</v>
@@ -5565,7 +5554,7 @@
         <v>43831.0</v>
       </c>
       <c r="BH16" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BI16" s="17" t="s">
         <v>84</v>
@@ -5576,17 +5565,17 @@
       <c r="BK16" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BL16" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="BM16" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="BN16" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="BO16" s="26" t="s">
-        <v>104</v>
+      <c r="BL16" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="BM16" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="BN16" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="BO16" s="25" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
@@ -7001,20 +6990,20 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="B1" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="36" t="s">
+      <c r="E1" s="36" t="s">
         <v>201</v>
-      </c>
-      <c r="E1" s="37" t="s">
-        <v>202</v>
       </c>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
@@ -7039,25 +7028,25 @@
       <c r="Z1" s="13"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="38"/>
+      <c r="A2" s="37"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="38"/>
+      <c r="A3" s="37"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="38"/>
+      <c r="A4" s="37"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="38"/>
+      <c r="A5" s="37"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="38"/>
+      <c r="A6" s="37"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="38"/>
+      <c r="A7" s="37"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="38"/>
+      <c r="A8" s="37"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2"/>
@@ -10057,22 +10046,22 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="B1" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="36" t="s">
+      <c r="D1" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="E1" s="36" t="s">
         <v>205</v>
       </c>
-      <c r="E1" s="37" t="s">
-        <v>206</v>
-      </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="36" t="s">
         <v>52</v>
       </c>
       <c r="G1" s="13"/>
@@ -10097,59 +10086,59 @@
       <c r="Z1" s="13"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="39" t="s">
-        <v>192</v>
+      <c r="A2" s="38" t="s">
+        <v>191</v>
       </c>
       <c r="B2" s="19">
         <v>1013.0</v>
       </c>
       <c r="C2" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="E2" s="21">
+        <v>10.0</v>
+      </c>
+      <c r="F2" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="E2" s="25">
-        <v>10.0</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>209</v>
-      </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="39" t="s">
-        <v>196</v>
+      <c r="A3" s="38" t="s">
+        <v>195</v>
       </c>
       <c r="B3" s="19">
         <v>1014.0</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="E3" s="25">
+        <v>209</v>
+      </c>
+      <c r="E3" s="21">
         <v>10.0</v>
       </c>
-      <c r="F3" s="25" t="s">
-        <v>209</v>
+      <c r="F3" s="21" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="38"/>
+      <c r="A4" s="37"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="38"/>
+      <c r="A5" s="37"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="38"/>
+      <c r="A6" s="37"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="38"/>
+      <c r="A7" s="37"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="38"/>
+      <c r="A8" s="37"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2"/>
@@ -13148,14 +13137,14 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="C1" s="36" t="s">
         <v>212</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>213</v>
       </c>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
@@ -13188,41 +13177,41 @@
       <c r="B2" s="19">
         <v>1000.0</v>
       </c>
-      <c r="C2" s="25" t="s">
-        <v>214</v>
+      <c r="C2" s="21" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3" s="19">
         <v>1001.0</v>
       </c>
-      <c r="C3" s="25" t="s">
-        <v>215</v>
+      <c r="C3" s="21" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="B4" s="31">
+        <v>121</v>
+      </c>
+      <c r="B4" s="30">
         <v>1002.0</v>
       </c>
-      <c r="C4" s="25" t="s">
-        <v>216</v>
+      <c r="C4" s="21" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="B5" s="31">
+        <v>135</v>
+      </c>
+      <c r="B5" s="30">
         <v>1003.0</v>
       </c>
-      <c r="C5" s="25" t="s">
-        <v>217</v>
+      <c r="C5" s="21" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
@@ -13232,41 +13221,41 @@
       <c r="B6" s="19">
         <v>2000.0</v>
       </c>
-      <c r="C6" s="25" t="s">
-        <v>218</v>
+      <c r="C6" s="21" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B7" s="19">
         <v>2001.0</v>
       </c>
-      <c r="C7" s="25" t="s">
-        <v>219</v>
+      <c r="C7" s="21" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B8" s="19">
         <v>2002.0</v>
       </c>
-      <c r="C8" s="25" t="s">
-        <v>220</v>
+      <c r="C8" s="21" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B9" s="19">
         <v>2003.0</v>
       </c>
-      <c r="C9" s="25" t="s">
-        <v>221</v>
+      <c r="C9" s="21" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -13276,41 +13265,41 @@
       <c r="B10" s="19">
         <v>3000.0</v>
       </c>
-      <c r="C10" s="25" t="s">
-        <v>222</v>
+      <c r="C10" s="21" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B11" s="19">
         <v>3001.0</v>
       </c>
-      <c r="C11" s="25" t="s">
-        <v>223</v>
+      <c r="C11" s="21" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B12" s="19">
         <v>3002.0</v>
       </c>
-      <c r="C12" s="25" t="s">
-        <v>224</v>
+      <c r="C12" s="21" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B13" s="19">
         <v>3003.0</v>
       </c>
-      <c r="C13" s="25" t="s">
-        <v>225</v>
+      <c r="C13" s="21" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
@@ -16307,10 +16296,10 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>226</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>227</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -16338,25 +16327,25 @@
       <c r="Z1" s="13"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="38"/>
+      <c r="A2" s="37"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="38"/>
+      <c r="A3" s="37"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="38"/>
+      <c r="A4" s="37"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="38"/>
+      <c r="A5" s="37"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="38"/>
+      <c r="A6" s="37"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="38"/>
+      <c r="A7" s="37"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="38"/>
+      <c r="A8" s="37"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2"/>

--- a/TNR_PREJDD/PREJDD.RT.EQU.xlsx
+++ b/TNR_PREJDD/PREJDD.RT.EQU.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="223">
   <si>
     <t>Date</t>
   </si>
@@ -296,9 +296,6 @@
     <t>EQU02</t>
   </si>
   <si>
-    <t>EQU.RT.EQU.001.LEC.01</t>
-  </si>
-  <si>
     <t>MEREETFILLE</t>
   </si>
   <si>
@@ -362,9 +359,6 @@
     <t>EQU03</t>
   </si>
   <si>
-    <t>EQU.RT.EQU.001.MAJ.01</t>
-  </si>
-  <si>
     <t>PEREETFILS</t>
   </si>
   <si>
@@ -413,9 +407,6 @@
     <t>EQU04</t>
   </si>
   <si>
-    <t>EQU.RT.EQU.001.SUP.01</t>
-  </si>
-  <si>
     <t>REFFOU04</t>
   </si>
   <si>
@@ -450,9 +441,6 @@
   </si>
   <si>
     <t>EQU05</t>
-  </si>
-  <si>
-    <t>EQU.RT.EQU.001.REC.01</t>
   </si>
   <si>
     <t>REFFOU05</t>
@@ -2578,13 +2566,13 @@
       </c>
       <c r="Y2" s="17" t="str">
         <f t="shared" ref="Y2:Y16" si="1">CONCATENATE(UPPER(AA2),REPT(".",30-LEN(AA2)))</f>
-        <v>EQU.RT.EQU.001.LEC.01.........</v>
+        <v>RT.EQU.001.LEC.01.............</v>
       </c>
       <c r="Z2" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="AA2" s="17" t="s">
-        <v>91</v>
+      <c r="AA2" s="16" t="s">
+        <v>80</v>
       </c>
       <c r="AB2" s="20">
         <v>1001.0</v>
@@ -2595,23 +2583,23 @@
       <c r="AD2" s="20">
         <v>120.0</v>
       </c>
-      <c r="AE2" s="17" t="s">
-        <v>84</v>
+      <c r="AE2" s="16">
+        <v>0.0</v>
       </c>
       <c r="AF2" s="21" t="s">
         <v>84</v>
       </c>
       <c r="AG2" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH2" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="AH2" s="17" t="s">
+      <c r="AI2" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="AI2" s="17" t="s">
+      <c r="AJ2" s="17" t="s">
         <v>94</v>
-      </c>
-      <c r="AJ2" s="17" t="s">
-        <v>95</v>
       </c>
       <c r="AK2" s="22">
         <v>43922.0</v>
@@ -2623,7 +2611,7 @@
         <v>84</v>
       </c>
       <c r="AN2" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AO2" s="22">
         <v>44652.0</v>
@@ -2632,35 +2620,35 @@
         <v>20000.0</v>
       </c>
       <c r="AQ2" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AR2" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AS2" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AT2" s="18" t="str">
         <f t="shared" ref="AT2:AT16" si="2">Y2</f>
-        <v>EQU.RT.EQU.001.LEC.01.........</v>
+        <v>RT.EQU.001.LEC.01.............</v>
       </c>
       <c r="AU2" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="AV2" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="AW2" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX2" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY2" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ2" s="18" t="s">
         <v>97</v>
-      </c>
-      <c r="AV2" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="AW2" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX2" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AY2" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AZ2" s="18" t="s">
-        <v>98</v>
       </c>
       <c r="BA2" s="20">
         <v>110000.0</v>
@@ -2672,10 +2660,10 @@
         <v>2000000.0</v>
       </c>
       <c r="BD2" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="BE2" s="23" t="s">
         <v>99</v>
-      </c>
-      <c r="BE2" s="23" t="s">
-        <v>100</v>
       </c>
       <c r="BF2" s="17" t="s">
         <v>84</v>
@@ -2684,7 +2672,7 @@
         <v>44652.0</v>
       </c>
       <c r="BH2" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BI2" s="17" t="s">
         <v>84</v>
@@ -2693,36 +2681,36 @@
         <v>1000.0</v>
       </c>
       <c r="BK2" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="BL2" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="BM2" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="BN2" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="BL2" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="BM2" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="BN2" s="25" t="s">
-        <v>103</v>
-      </c>
       <c r="BO2" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B3" s="15">
         <v>1001.0</v>
       </c>
       <c r="C3" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="E3" s="16" t="s">
         <v>106</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>107</v>
       </c>
       <c r="F3" s="18" t="s">
         <v>84</v>
@@ -2752,7 +2740,7 @@
         <v>84</v>
       </c>
       <c r="O3" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P3" s="16" t="s">
         <v>85</v>
@@ -2764,16 +2752,16 @@
         <v>84</v>
       </c>
       <c r="S3" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="T3" s="19">
         <v>0.0</v>
       </c>
       <c r="U3" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="V3" s="16" t="s">
         <v>110</v>
-      </c>
-      <c r="V3" s="16" t="s">
-        <v>111</v>
       </c>
       <c r="W3" s="19">
         <v>1.0</v>
@@ -2783,13 +2771,13 @@
       </c>
       <c r="Y3" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>EQU.RT.EQU.001.MAJ.01.........</v>
+        <v>RT.EQU.001.MAJ.01.............</v>
       </c>
       <c r="Z3" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA3" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
+      </c>
+      <c r="AA3" s="16" t="s">
+        <v>103</v>
       </c>
       <c r="AB3" s="20">
         <v>1003.0</v>
@@ -2800,23 +2788,23 @@
       <c r="AD3" s="27">
         <v>130.0</v>
       </c>
-      <c r="AE3" s="17" t="s">
-        <v>84</v>
+      <c r="AE3" s="16">
+        <v>0.0</v>
       </c>
       <c r="AF3" s="21" t="s">
         <v>84</v>
       </c>
       <c r="AG3" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH3" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI3" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="AH3" s="16" t="s">
+      <c r="AJ3" s="16" t="s">
         <v>115</v>
-      </c>
-      <c r="AI3" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="AJ3" s="16" t="s">
-        <v>117</v>
       </c>
       <c r="AK3" s="28">
         <v>43466.0</v>
@@ -2828,7 +2816,7 @@
         <v>84</v>
       </c>
       <c r="AN3" s="16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AO3" s="22">
         <v>43831.0</v>
@@ -2837,23 +2825,23 @@
         <v>30000.0</v>
       </c>
       <c r="AQ3" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AR3" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AS3" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AT3" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>EQU.RT.EQU.001.MAJ.01.........</v>
+        <v>RT.EQU.001.MAJ.01.............</v>
       </c>
       <c r="AU3" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AV3" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AW3" s="17" t="s">
         <v>84</v>
@@ -2865,7 +2853,7 @@
         <v>84</v>
       </c>
       <c r="AZ3" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BA3" s="27">
         <v>200000.0</v>
@@ -2877,10 +2865,10 @@
         <v>4000000.0</v>
       </c>
       <c r="BD3" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BE3" s="23" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BF3" s="17" t="s">
         <v>84</v>
@@ -2889,7 +2877,7 @@
         <v>43831.0</v>
       </c>
       <c r="BH3" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BI3" s="17" t="s">
         <v>84</v>
@@ -2898,36 +2886,36 @@
         <v>1002.0</v>
       </c>
       <c r="BK3" s="16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="BL3" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BM3" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BN3" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BO3" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B4" s="15">
         <v>1002.0</v>
       </c>
       <c r="C4" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>122</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>124</v>
       </c>
       <c r="F4" s="18" t="s">
         <v>84</v>
@@ -2957,7 +2945,7 @@
         <v>84</v>
       </c>
       <c r="O4" s="16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="P4" s="16" t="s">
         <v>85</v>
@@ -2969,16 +2957,16 @@
         <v>84</v>
       </c>
       <c r="S4" s="16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="T4" s="19">
         <v>0.0</v>
       </c>
       <c r="U4" s="26" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="V4" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="W4" s="19">
         <v>1.0</v>
@@ -2988,13 +2976,13 @@
       </c>
       <c r="Y4" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>EQU.RT.EQU.001.SUP.01.........</v>
+        <v>RT.EQU.001.SUP.01.............</v>
       </c>
       <c r="Z4" s="17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AA4" s="16" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="AB4" s="27">
         <v>1004.0</v>
@@ -3005,23 +2993,23 @@
       <c r="AD4" s="21">
         <v>140.0</v>
       </c>
-      <c r="AE4" s="17" t="s">
-        <v>84</v>
+      <c r="AE4" s="16">
+        <v>0.0</v>
       </c>
       <c r="AF4" s="21" t="s">
         <v>84</v>
       </c>
       <c r="AG4" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH4" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="AH4" s="17" t="s">
+      <c r="AI4" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="AI4" s="17" t="s">
-        <v>94</v>
-      </c>
       <c r="AJ4" s="17" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AK4" s="28">
         <v>43466.0</v>
@@ -3033,7 +3021,7 @@
         <v>84</v>
       </c>
       <c r="AN4" s="17" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AO4" s="22">
         <v>43831.0</v>
@@ -3042,35 +3030,35 @@
         <v>40000.0</v>
       </c>
       <c r="AQ4" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AR4" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AS4" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AT4" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>EQU.RT.EQU.001.SUP.01.........</v>
+        <v>RT.EQU.001.SUP.01.............</v>
       </c>
       <c r="AU4" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="AV4" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="AW4" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX4" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY4" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ4" s="18" t="s">
         <v>97</v>
-      </c>
-      <c r="AV4" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="AW4" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX4" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AY4" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AZ4" s="18" t="s">
-        <v>98</v>
       </c>
       <c r="BA4" s="20">
         <v>290000.0</v>
@@ -3082,10 +3070,10 @@
         <v>6000000.0</v>
       </c>
       <c r="BD4" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BE4" s="23" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="BF4" s="17" t="s">
         <v>84</v>
@@ -3094,7 +3082,7 @@
         <v>43831.0</v>
       </c>
       <c r="BH4" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BI4" s="17" t="s">
         <v>84</v>
@@ -3103,36 +3091,36 @@
         <v>1004.0</v>
       </c>
       <c r="BK4" s="16" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="BL4" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BM4" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BN4" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BO4" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="14" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B5" s="15">
         <v>1003.0</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F5" s="18" t="s">
         <v>84</v>
@@ -3162,7 +3150,7 @@
         <v>84</v>
       </c>
       <c r="O5" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="P5" s="16" t="s">
         <v>85</v>
@@ -3174,7 +3162,7 @@
         <v>84</v>
       </c>
       <c r="S5" s="16" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="T5" s="19">
         <v>0.0</v>
@@ -3183,7 +3171,7 @@
         <v>88</v>
       </c>
       <c r="V5" s="16" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="W5" s="19">
         <v>1.0</v>
@@ -3193,13 +3181,13 @@
       </c>
       <c r="Y5" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>EQU.RT.EQU.001.REC.01.........</v>
+        <v>RT.EQU.001.REC.01.............</v>
       </c>
       <c r="Z5" s="17" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AA5" s="16" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="AB5" s="27">
         <v>1005.0</v>
@@ -3210,23 +3198,23 @@
       <c r="AD5" s="21">
         <v>150.0</v>
       </c>
-      <c r="AE5" s="17" t="s">
-        <v>84</v>
+      <c r="AE5" s="16">
+        <v>0.0</v>
       </c>
       <c r="AF5" s="21" t="s">
         <v>84</v>
       </c>
       <c r="AG5" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH5" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI5" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="AH5" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="AI5" s="16" t="s">
-        <v>116</v>
-      </c>
       <c r="AJ5" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AK5" s="28">
         <v>43466.0</v>
@@ -3238,7 +3226,7 @@
         <v>84</v>
       </c>
       <c r="AN5" s="16" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="AO5" s="22">
         <v>43831.0</v>
@@ -3247,23 +3235,23 @@
         <v>50000.0</v>
       </c>
       <c r="AQ5" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AR5" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AS5" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AT5" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>EQU.RT.EQU.001.REC.01.........</v>
+        <v>RT.EQU.001.REC.01.............</v>
       </c>
       <c r="AU5" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AV5" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AW5" s="17" t="s">
         <v>84</v>
@@ -3275,7 +3263,7 @@
         <v>84</v>
       </c>
       <c r="AZ5" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BA5" s="27">
         <v>380000.0</v>
@@ -3287,10 +3275,10 @@
         <v>8000000.0</v>
       </c>
       <c r="BD5" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="BE5" s="23" t="s">
         <v>99</v>
-      </c>
-      <c r="BE5" s="23" t="s">
-        <v>100</v>
       </c>
       <c r="BF5" s="17" t="s">
         <v>84</v>
@@ -3299,7 +3287,7 @@
         <v>43831.0</v>
       </c>
       <c r="BH5" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BI5" s="17" t="s">
         <v>84</v>
@@ -3308,24 +3296,24 @@
         <v>1005.0</v>
       </c>
       <c r="BK5" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="BL5" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BM5" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BN5" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BO5" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="32" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B6" s="15">
         <v>1004.0</v>
@@ -3388,7 +3376,7 @@
         <v>88</v>
       </c>
       <c r="V6" s="16" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="W6" s="19">
         <v>1.0</v>
@@ -3401,10 +3389,10 @@
         <v>EQU.RT.ART.006.SRA.01.........</v>
       </c>
       <c r="Z6" s="17" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="AA6" s="21" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB6" s="21">
         <v>1006.0</v>
@@ -3415,8 +3403,8 @@
       <c r="AD6" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="AE6" s="17" t="s">
-        <v>84</v>
+      <c r="AE6" s="16">
+        <v>0.0</v>
       </c>
       <c r="AF6" s="21" t="s">
         <v>84</v>
@@ -3443,7 +3431,7 @@
         <v>84</v>
       </c>
       <c r="AN6" s="16" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="AO6" s="22">
         <v>43831.0</v>
@@ -3452,35 +3440,35 @@
         <v>50000.0</v>
       </c>
       <c r="AQ6" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AR6" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AS6" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AT6" s="18" t="str">
         <f t="shared" si="2"/>
         <v>EQU.RT.ART.006.SRA.01.........</v>
       </c>
       <c r="AU6" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="AV6" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="AW6" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX6" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY6" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ6" s="18" t="s">
         <v>97</v>
-      </c>
-      <c r="AV6" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="AW6" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX6" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AY6" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AZ6" s="18" t="s">
-        <v>98</v>
       </c>
       <c r="BA6" s="27">
         <v>380000.0</v>
@@ -3492,10 +3480,10 @@
         <v>8000000.0</v>
       </c>
       <c r="BD6" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BE6" s="23" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BF6" s="17" t="s">
         <v>84</v>
@@ -3504,7 +3492,7 @@
         <v>43831.0</v>
       </c>
       <c r="BH6" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BI6" s="17" t="s">
         <v>84</v>
@@ -3516,21 +3504,21 @@
         <v>84</v>
       </c>
       <c r="BL6" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BM6" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BN6" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BO6" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="32" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B7" s="15">
         <v>1005.0</v>
@@ -3593,7 +3581,7 @@
         <v>88</v>
       </c>
       <c r="V7" s="16" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="W7" s="19">
         <v>1.0</v>
@@ -3606,10 +3594,10 @@
         <v>EQU.RT.MAT.001.CRE.01.........</v>
       </c>
       <c r="Z7" s="17" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AA7" s="21" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AB7" s="21">
         <v>1007.0</v>
@@ -3620,8 +3608,8 @@
       <c r="AD7" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="AE7" s="17" t="s">
-        <v>84</v>
+      <c r="AE7" s="16">
+        <v>0.0</v>
       </c>
       <c r="AF7" s="21" t="s">
         <v>84</v>
@@ -3648,7 +3636,7 @@
         <v>84</v>
       </c>
       <c r="AN7" s="16" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AO7" s="22">
         <v>43831.0</v>
@@ -3657,35 +3645,35 @@
         <v>50000.0</v>
       </c>
       <c r="AQ7" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AR7" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AS7" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AT7" s="18" t="str">
         <f t="shared" si="2"/>
         <v>EQU.RT.MAT.001.CRE.01.........</v>
       </c>
       <c r="AU7" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="AV7" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="AW7" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX7" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY7" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ7" s="18" t="s">
         <v>97</v>
-      </c>
-      <c r="AV7" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="AW7" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX7" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AY7" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AZ7" s="18" t="s">
-        <v>98</v>
       </c>
       <c r="BA7" s="27">
         <v>380000.0</v>
@@ -3697,10 +3685,10 @@
         <v>8000000.0</v>
       </c>
       <c r="BD7" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BE7" s="23" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="BF7" s="17" t="s">
         <v>84</v>
@@ -3709,7 +3697,7 @@
         <v>43831.0</v>
       </c>
       <c r="BH7" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BI7" s="17" t="s">
         <v>84</v>
@@ -3721,21 +3709,21 @@
         <v>84</v>
       </c>
       <c r="BL7" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BM7" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BN7" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BO7" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="14" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B8" s="15">
         <v>1006.0</v>
@@ -3795,10 +3783,10 @@
         <v>0.0</v>
       </c>
       <c r="U8" s="26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="V8" s="17" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="W8" s="19">
         <v>1.0</v>
@@ -3811,10 +3799,10 @@
         <v>EQU.TR.BTR.001.CRE.01.........</v>
       </c>
       <c r="Z8" s="17" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="AA8" s="17" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="AB8" s="21">
         <v>1008.0</v>
@@ -3825,8 +3813,8 @@
       <c r="AD8" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="AE8" s="17" t="s">
-        <v>84</v>
+      <c r="AE8" s="16">
+        <v>0.0</v>
       </c>
       <c r="AF8" s="21" t="s">
         <v>84</v>
@@ -3853,7 +3841,7 @@
         <v>84</v>
       </c>
       <c r="AN8" s="16" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AO8" s="22">
         <v>43831.0</v>
@@ -3862,35 +3850,35 @@
         <v>50000.0</v>
       </c>
       <c r="AQ8" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AR8" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AS8" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AT8" s="18" t="str">
         <f t="shared" si="2"/>
         <v>EQU.TR.BTR.001.CRE.01.........</v>
       </c>
       <c r="AU8" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="AV8" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="AW8" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX8" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY8" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ8" s="18" t="s">
         <v>97</v>
-      </c>
-      <c r="AV8" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="AW8" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX8" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AY8" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AZ8" s="18" t="s">
-        <v>98</v>
       </c>
       <c r="BA8" s="20">
         <v>110000.0</v>
@@ -3902,10 +3890,10 @@
         <v>2000000.0</v>
       </c>
       <c r="BD8" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="BE8" s="23" t="s">
         <v>99</v>
-      </c>
-      <c r="BE8" s="23" t="s">
-        <v>100</v>
       </c>
       <c r="BF8" s="17" t="s">
         <v>84</v>
@@ -3914,7 +3902,7 @@
         <v>44652.0</v>
       </c>
       <c r="BH8" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BI8" s="17" t="s">
         <v>84</v>
@@ -3926,21 +3914,21 @@
         <v>84</v>
       </c>
       <c r="BL8" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BM8" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BN8" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BO8" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="33" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B9" s="15">
         <v>1007.0</v>
@@ -4000,10 +3988,10 @@
         <v>0.0</v>
       </c>
       <c r="U9" s="26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="V9" s="16" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="W9" s="19">
         <v>1.0</v>
@@ -4016,10 +4004,10 @@
         <v>EQU.TR.BTR.001.CRE.03.........</v>
       </c>
       <c r="Z9" s="17" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="AA9" s="17" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AB9" s="21">
         <v>1009.0</v>
@@ -4030,8 +4018,8 @@
       <c r="AD9" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="AE9" s="17" t="s">
-        <v>84</v>
+      <c r="AE9" s="16">
+        <v>0.0</v>
       </c>
       <c r="AF9" s="21" t="s">
         <v>84</v>
@@ -4058,7 +4046,7 @@
         <v>84</v>
       </c>
       <c r="AN9" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="AO9" s="22">
         <v>43831.0</v>
@@ -4067,35 +4055,35 @@
         <v>50000.0</v>
       </c>
       <c r="AQ9" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AR9" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AS9" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AT9" s="18" t="str">
         <f t="shared" si="2"/>
         <v>EQU.TR.BTR.001.CRE.03.........</v>
       </c>
       <c r="AU9" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="AV9" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="AW9" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX9" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY9" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ9" s="18" t="s">
         <v>97</v>
-      </c>
-      <c r="AV9" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="AW9" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX9" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AY9" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AZ9" s="18" t="s">
-        <v>98</v>
       </c>
       <c r="BA9" s="20">
         <v>110000.0</v>
@@ -4107,10 +4095,10 @@
         <v>2000000.0</v>
       </c>
       <c r="BD9" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BE9" s="23" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BF9" s="17" t="s">
         <v>84</v>
@@ -4119,7 +4107,7 @@
         <v>44652.0</v>
       </c>
       <c r="BH9" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BI9" s="17" t="s">
         <v>84</v>
@@ -4131,21 +4119,21 @@
         <v>84</v>
       </c>
       <c r="BL9" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BM9" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BN9" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BO9" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="33" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B10" s="15">
         <v>1008.0</v>
@@ -4205,10 +4193,10 @@
         <v>0.0</v>
       </c>
       <c r="U10" s="26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="V10" s="17" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="W10" s="19">
         <v>1.0</v>
@@ -4221,10 +4209,10 @@
         <v>EQU.TR.BTR.001.LEC.01.........</v>
       </c>
       <c r="Z10" s="17" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="AA10" s="17" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AB10" s="21">
         <v>1010.0</v>
@@ -4235,8 +4223,8 @@
       <c r="AD10" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="AE10" s="17" t="s">
-        <v>84</v>
+      <c r="AE10" s="16">
+        <v>0.0</v>
       </c>
       <c r="AF10" s="21" t="s">
         <v>84</v>
@@ -4263,7 +4251,7 @@
         <v>84</v>
       </c>
       <c r="AN10" s="16" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="AO10" s="22">
         <v>43831.0</v>
@@ -4272,35 +4260,35 @@
         <v>50000.0</v>
       </c>
       <c r="AQ10" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AR10" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AS10" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AT10" s="18" t="str">
         <f t="shared" si="2"/>
         <v>EQU.TR.BTR.001.LEC.01.........</v>
       </c>
       <c r="AU10" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="AV10" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="AW10" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX10" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY10" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ10" s="18" t="s">
         <v>97</v>
-      </c>
-      <c r="AV10" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="AW10" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX10" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AY10" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AZ10" s="18" t="s">
-        <v>98</v>
       </c>
       <c r="BA10" s="20">
         <v>110000.0</v>
@@ -4312,10 +4300,10 @@
         <v>2000000.0</v>
       </c>
       <c r="BD10" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BE10" s="23" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="BF10" s="17" t="s">
         <v>84</v>
@@ -4324,7 +4312,7 @@
         <v>44652.0</v>
       </c>
       <c r="BH10" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BI10" s="17" t="s">
         <v>84</v>
@@ -4336,21 +4324,21 @@
         <v>84</v>
       </c>
       <c r="BL10" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BM10" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BN10" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BO10" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B11" s="15">
         <v>1009.0</v>
@@ -4410,10 +4398,10 @@
         <v>0.0</v>
       </c>
       <c r="U11" s="26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="V11" s="16" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="W11" s="19">
         <v>1.0</v>
@@ -4426,10 +4414,10 @@
         <v>EQU.UPD.TR.BTR.001.MAJ.01.....</v>
       </c>
       <c r="Z11" s="17" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="AA11" s="17" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="AB11" s="21">
         <v>1011.0</v>
@@ -4440,8 +4428,8 @@
       <c r="AD11" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="AE11" s="17" t="s">
-        <v>84</v>
+      <c r="AE11" s="16">
+        <v>0.0</v>
       </c>
       <c r="AF11" s="21" t="s">
         <v>84</v>
@@ -4468,7 +4456,7 @@
         <v>84</v>
       </c>
       <c r="AN11" s="16" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="AO11" s="22">
         <v>43831.0</v>
@@ -4477,35 +4465,35 @@
         <v>50000.0</v>
       </c>
       <c r="AQ11" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AR11" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AS11" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AT11" s="18" t="str">
         <f t="shared" si="2"/>
         <v>EQU.UPD.TR.BTR.001.MAJ.01.....</v>
       </c>
       <c r="AU11" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="AV11" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="AW11" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX11" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY11" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ11" s="18" t="s">
         <v>97</v>
-      </c>
-      <c r="AV11" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="AW11" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX11" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AY11" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AZ11" s="18" t="s">
-        <v>98</v>
       </c>
       <c r="BA11" s="20">
         <v>110000.0</v>
@@ -4517,10 +4505,10 @@
         <v>2000000.0</v>
       </c>
       <c r="BD11" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="BE11" s="23" t="s">
         <v>99</v>
-      </c>
-      <c r="BE11" s="23" t="s">
-        <v>100</v>
       </c>
       <c r="BF11" s="17" t="s">
         <v>84</v>
@@ -4529,7 +4517,7 @@
         <v>44652.0</v>
       </c>
       <c r="BH11" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BI11" s="17" t="s">
         <v>84</v>
@@ -4541,21 +4529,21 @@
         <v>84</v>
       </c>
       <c r="BL11" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BM11" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BN11" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BO11" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B12" s="15">
         <v>1010.0</v>
@@ -4615,10 +4603,10 @@
         <v>0.0</v>
       </c>
       <c r="U12" s="26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="V12" s="16" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="W12" s="19">
         <v>1.0</v>
@@ -4631,10 +4619,10 @@
         <v>EQU.TR.BTR.001.MAJ.01.........</v>
       </c>
       <c r="Z12" s="17" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="AA12" s="17" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="AB12" s="21">
         <v>1012.0</v>
@@ -4645,8 +4633,8 @@
       <c r="AD12" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="AE12" s="17" t="s">
-        <v>84</v>
+      <c r="AE12" s="16">
+        <v>0.0</v>
       </c>
       <c r="AF12" s="21" t="s">
         <v>84</v>
@@ -4673,7 +4661,7 @@
         <v>84</v>
       </c>
       <c r="AN12" s="16" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AO12" s="22">
         <v>43831.0</v>
@@ -4682,35 +4670,35 @@
         <v>50000.0</v>
       </c>
       <c r="AQ12" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AR12" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AS12" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AT12" s="18" t="str">
         <f t="shared" si="2"/>
         <v>EQU.TR.BTR.001.MAJ.01.........</v>
       </c>
       <c r="AU12" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="AV12" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="AW12" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX12" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY12" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ12" s="18" t="s">
         <v>97</v>
-      </c>
-      <c r="AV12" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="AW12" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX12" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AY12" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AZ12" s="18" t="s">
-        <v>98</v>
       </c>
       <c r="BA12" s="20">
         <v>110000.0</v>
@@ -4722,10 +4710,10 @@
         <v>2000000.0</v>
       </c>
       <c r="BD12" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BE12" s="23" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BF12" s="17" t="s">
         <v>84</v>
@@ -4734,7 +4722,7 @@
         <v>44652.0</v>
       </c>
       <c r="BH12" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BI12" s="17" t="s">
         <v>84</v>
@@ -4746,21 +4734,21 @@
         <v>84</v>
       </c>
       <c r="BL12" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BM12" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BN12" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BO12" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="14" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B13" s="15">
         <v>1011.0</v>
@@ -4820,10 +4808,10 @@
         <v>0.0</v>
       </c>
       <c r="U13" s="26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="V13" s="16" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="W13" s="19">
         <v>1.0</v>
@@ -4836,10 +4824,10 @@
         <v>EQU.TR.BTR.001.SUP.01.........</v>
       </c>
       <c r="Z13" s="17" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AA13" s="17" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="AB13" s="21">
         <v>1013.0</v>
@@ -4850,8 +4838,8 @@
       <c r="AD13" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="AE13" s="17" t="s">
-        <v>84</v>
+      <c r="AE13" s="16">
+        <v>0.0</v>
       </c>
       <c r="AF13" s="21" t="s">
         <v>84</v>
@@ -4878,7 +4866,7 @@
         <v>84</v>
       </c>
       <c r="AN13" s="16" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="AO13" s="22">
         <v>43831.0</v>
@@ -4887,35 +4875,35 @@
         <v>50000.0</v>
       </c>
       <c r="AQ13" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AR13" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AS13" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AT13" s="18" t="str">
         <f t="shared" si="2"/>
         <v>EQU.TR.BTR.001.SUP.01.........</v>
       </c>
       <c r="AU13" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="AV13" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="AW13" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX13" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY13" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ13" s="18" t="s">
         <v>97</v>
-      </c>
-      <c r="AV13" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="AW13" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX13" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AY13" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AZ13" s="18" t="s">
-        <v>98</v>
       </c>
       <c r="BA13" s="20">
         <v>110000.0</v>
@@ -4927,10 +4915,10 @@
         <v>2000000.0</v>
       </c>
       <c r="BD13" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BE13" s="23" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="BF13" s="17" t="s">
         <v>84</v>
@@ -4939,7 +4927,7 @@
         <v>44652.0</v>
       </c>
       <c r="BH13" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BI13" s="17" t="s">
         <v>84</v>
@@ -4951,21 +4939,21 @@
         <v>84</v>
       </c>
       <c r="BL13" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BM13" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BN13" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BO13" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B14" s="15">
         <v>1012.0</v>
@@ -5025,10 +5013,10 @@
         <v>0.0</v>
       </c>
       <c r="U14" s="26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="V14" s="17" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="W14" s="19">
         <v>1.0</v>
@@ -5041,10 +5029,10 @@
         <v>EQU.TR.BTR.001.REC.01.........</v>
       </c>
       <c r="Z14" s="17" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="AA14" s="17" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="AB14" s="21">
         <v>1014.0</v>
@@ -5055,8 +5043,8 @@
       <c r="AD14" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="AE14" s="17" t="s">
-        <v>84</v>
+      <c r="AE14" s="16">
+        <v>0.0</v>
       </c>
       <c r="AF14" s="21" t="s">
         <v>84</v>
@@ -5083,7 +5071,7 @@
         <v>84</v>
       </c>
       <c r="AN14" s="16" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="AO14" s="22">
         <v>43831.0</v>
@@ -5092,35 +5080,35 @@
         <v>50000.0</v>
       </c>
       <c r="AQ14" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AR14" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AS14" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AT14" s="18" t="str">
         <f t="shared" si="2"/>
         <v>EQU.TR.BTR.001.REC.01.........</v>
       </c>
       <c r="AU14" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="AV14" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="AW14" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX14" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY14" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ14" s="18" t="s">
         <v>97</v>
-      </c>
-      <c r="AV14" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="AW14" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX14" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AY14" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AZ14" s="18" t="s">
-        <v>98</v>
       </c>
       <c r="BA14" s="20">
         <v>110000.0</v>
@@ -5132,10 +5120,10 @@
         <v>2000000.0</v>
       </c>
       <c r="BD14" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="BE14" s="23" t="s">
         <v>99</v>
-      </c>
-      <c r="BE14" s="23" t="s">
-        <v>100</v>
       </c>
       <c r="BF14" s="17" t="s">
         <v>84</v>
@@ -5144,7 +5132,7 @@
         <v>44652.0</v>
       </c>
       <c r="BH14" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BI14" s="17" t="s">
         <v>84</v>
@@ -5156,21 +5144,21 @@
         <v>84</v>
       </c>
       <c r="BL14" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BM14" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BN14" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BO14" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="33" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B15" s="15">
         <v>1013.0</v>
@@ -5233,7 +5221,7 @@
         <v>88</v>
       </c>
       <c r="V15" s="16" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="W15" s="19">
         <v>1.0</v>
@@ -5246,10 +5234,10 @@
         <v>EQU.RT.ART.006.SRM.01.........</v>
       </c>
       <c r="Z15" s="17" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="AA15" s="17" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AB15" s="21">
         <v>1015.0</v>
@@ -5260,8 +5248,8 @@
       <c r="AD15" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="AE15" s="17" t="s">
-        <v>84</v>
+      <c r="AE15" s="16">
+        <v>0.0</v>
       </c>
       <c r="AF15" s="21" t="s">
         <v>84</v>
@@ -5288,7 +5276,7 @@
         <v>84</v>
       </c>
       <c r="AN15" s="16" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="AO15" s="22">
         <v>43831.0</v>
@@ -5297,35 +5285,35 @@
         <v>50000.0</v>
       </c>
       <c r="AQ15" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AR15" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AS15" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AT15" s="18" t="str">
         <f t="shared" si="2"/>
         <v>EQU.RT.ART.006.SRM.01.........</v>
       </c>
       <c r="AU15" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="AV15" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="AW15" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX15" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY15" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ15" s="18" t="s">
         <v>97</v>
-      </c>
-      <c r="AV15" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="AW15" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX15" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AY15" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AZ15" s="18" t="s">
-        <v>98</v>
       </c>
       <c r="BA15" s="27">
         <v>380000.0</v>
@@ -5337,10 +5325,10 @@
         <v>8000000.0</v>
       </c>
       <c r="BD15" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BE15" s="23" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BF15" s="17" t="s">
         <v>84</v>
@@ -5349,7 +5337,7 @@
         <v>43831.0</v>
       </c>
       <c r="BH15" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BI15" s="17" t="s">
         <v>84</v>
@@ -5361,21 +5349,21 @@
         <v>84</v>
       </c>
       <c r="BL15" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BM15" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BN15" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BO15" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B16" s="15">
         <v>1014.0</v>
@@ -5438,7 +5426,7 @@
         <v>88</v>
       </c>
       <c r="V16" s="17" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="W16" s="19">
         <v>1.0</v>
@@ -5451,10 +5439,10 @@
         <v>EQU.RT.ART.006.SRS.01.........</v>
       </c>
       <c r="Z16" s="17" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="AA16" s="17" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="AB16" s="21">
         <v>1016.0</v>
@@ -5465,8 +5453,8 @@
       <c r="AD16" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="AE16" s="17" t="s">
-        <v>84</v>
+      <c r="AE16" s="16">
+        <v>0.0</v>
       </c>
       <c r="AF16" s="21" t="s">
         <v>84</v>
@@ -5493,7 +5481,7 @@
         <v>84</v>
       </c>
       <c r="AN16" s="16" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="AO16" s="22">
         <v>43831.0</v>
@@ -5502,35 +5490,35 @@
         <v>50000.0</v>
       </c>
       <c r="AQ16" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AR16" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AS16" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AT16" s="18" t="str">
         <f t="shared" si="2"/>
         <v>EQU.RT.ART.006.SRS.01.........</v>
       </c>
       <c r="AU16" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="AV16" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="AW16" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX16" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY16" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ16" s="18" t="s">
         <v>97</v>
-      </c>
-      <c r="AV16" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="AW16" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX16" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AY16" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AZ16" s="18" t="s">
-        <v>98</v>
       </c>
       <c r="BA16" s="27">
         <v>380000.0</v>
@@ -5542,10 +5530,10 @@
         <v>8000000.0</v>
       </c>
       <c r="BD16" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BE16" s="23" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="BF16" s="17" t="s">
         <v>84</v>
@@ -5554,7 +5542,7 @@
         <v>43831.0</v>
       </c>
       <c r="BH16" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BI16" s="17" t="s">
         <v>84</v>
@@ -5566,16 +5554,16 @@
         <v>84</v>
       </c>
       <c r="BL16" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BM16" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BN16" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BO16" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
@@ -6991,7 +6979,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="34" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B1" s="35" t="s">
         <v>14</v>
@@ -7000,10 +6988,10 @@
         <v>28</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E1" s="36" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
@@ -10047,19 +10035,19 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="34" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B1" s="35" t="s">
         <v>14</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E1" s="36" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F1" s="36" t="s">
         <v>52</v>
@@ -10087,42 +10075,42 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="38" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B2" s="19">
         <v>1013.0</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E2" s="21">
         <v>10.0</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="38" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B3" s="19">
         <v>1014.0</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E3" s="21">
         <v>10.0</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
@@ -13138,13 +13126,13 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="34" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
@@ -13178,40 +13166,40 @@
         <v>1000.0</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B3" s="19">
         <v>1001.0</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B4" s="30">
         <v>1002.0</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="14" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B5" s="30">
         <v>1003.0</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
@@ -13222,40 +13210,40 @@
         <v>2000.0</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B7" s="19">
         <v>2001.0</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B8" s="19">
         <v>2002.0</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="14" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B9" s="19">
         <v>2003.0</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -13266,40 +13254,40 @@
         <v>3000.0</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B11" s="19">
         <v>3001.0</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B12" s="19">
         <v>3002.0</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="14" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B13" s="19">
         <v>3003.0</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
@@ -16296,10 +16284,10 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>

--- a/TNR_PREJDD/PREJDD.RT.EQU.xlsx
+++ b/TNR_PREJDD/PREJDD.RT.EQU.xlsx
@@ -753,7 +753,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -782,6 +782,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor rgb="FF00FFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -841,7 +847,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -916,6 +922,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -2837,8 +2846,8 @@
         <f t="shared" si="2"/>
         <v>RT.EQU.001.MAJ.01.............</v>
       </c>
-      <c r="AU3" s="16" t="s">
-        <v>98</v>
+      <c r="AU3" s="29" t="s">
+        <v>96</v>
       </c>
       <c r="AV3" s="16" t="s">
         <v>98</v>
@@ -2929,7 +2938,7 @@
       <c r="I4" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="J4" s="29">
+      <c r="J4" s="30">
         <v>1002.0</v>
       </c>
       <c r="K4" s="19">
@@ -2971,7 +2980,7 @@
       <c r="W4" s="19">
         <v>1.0</v>
       </c>
-      <c r="X4" s="30">
+      <c r="X4" s="31">
         <v>4.0</v>
       </c>
       <c r="Y4" s="17" t="str">
@@ -3087,7 +3096,7 @@
       <c r="BI4" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BJ4" s="31">
+      <c r="BJ4" s="32">
         <v>1004.0</v>
       </c>
       <c r="BK4" s="16" t="s">
@@ -3134,7 +3143,7 @@
       <c r="I5" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="J5" s="29">
+      <c r="J5" s="30">
         <v>1003.0</v>
       </c>
       <c r="K5" s="19">
@@ -3176,7 +3185,7 @@
       <c r="W5" s="19">
         <v>1.0</v>
       </c>
-      <c r="X5" s="30">
+      <c r="X5" s="31">
         <v>5.0</v>
       </c>
       <c r="Y5" s="17" t="str">
@@ -3247,8 +3256,8 @@
         <f t="shared" si="2"/>
         <v>RT.EQU.001.REC.01.............</v>
       </c>
-      <c r="AU5" s="16" t="s">
-        <v>98</v>
+      <c r="AU5" s="29" t="s">
+        <v>96</v>
       </c>
       <c r="AV5" s="16" t="s">
         <v>98</v>
@@ -3292,7 +3301,7 @@
       <c r="BI5" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BJ5" s="31">
+      <c r="BJ5" s="32">
         <v>1005.0</v>
       </c>
       <c r="BK5" s="16" t="s">
@@ -3312,7 +3321,7 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="33" t="s">
         <v>143</v>
       </c>
       <c r="B6" s="15">
@@ -3381,7 +3390,7 @@
       <c r="W6" s="19">
         <v>1.0</v>
       </c>
-      <c r="X6" s="30">
+      <c r="X6" s="31">
         <v>6.0</v>
       </c>
       <c r="Y6" s="17" t="str">
@@ -3517,7 +3526,7 @@
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="33" t="s">
         <v>148</v>
       </c>
       <c r="B7" s="15">
@@ -3586,7 +3595,7 @@
       <c r="W7" s="19">
         <v>1.0</v>
       </c>
-      <c r="X7" s="30">
+      <c r="X7" s="31">
         <v>7.0</v>
       </c>
       <c r="Y7" s="17" t="str">
@@ -3791,7 +3800,7 @@
       <c r="W8" s="19">
         <v>1.0</v>
       </c>
-      <c r="X8" s="30">
+      <c r="X8" s="31">
         <v>8.0</v>
       </c>
       <c r="Y8" s="17" t="str">
@@ -3927,7 +3936,7 @@
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="34" t="s">
         <v>158</v>
       </c>
       <c r="B9" s="15">
@@ -3996,7 +4005,7 @@
       <c r="W9" s="19">
         <v>1.0</v>
       </c>
-      <c r="X9" s="30">
+      <c r="X9" s="31">
         <v>9.0</v>
       </c>
       <c r="Y9" s="17" t="str">
@@ -4132,7 +4141,7 @@
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="34" t="s">
         <v>163</v>
       </c>
       <c r="B10" s="15">
@@ -4201,7 +4210,7 @@
       <c r="W10" s="19">
         <v>1.0</v>
       </c>
-      <c r="X10" s="30">
+      <c r="X10" s="31">
         <v>10.0</v>
       </c>
       <c r="Y10" s="17" t="str">
@@ -4337,7 +4346,7 @@
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="34" t="s">
         <v>168</v>
       </c>
       <c r="B11" s="15">
@@ -4406,7 +4415,7 @@
       <c r="W11" s="19">
         <v>1.0</v>
       </c>
-      <c r="X11" s="30">
+      <c r="X11" s="31">
         <v>11.0</v>
       </c>
       <c r="Y11" s="17" t="str">
@@ -4542,7 +4551,7 @@
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="34" t="s">
         <v>168</v>
       </c>
       <c r="B12" s="15">
@@ -4611,7 +4620,7 @@
       <c r="W12" s="19">
         <v>1.0</v>
       </c>
-      <c r="X12" s="30">
+      <c r="X12" s="31">
         <v>12.0</v>
       </c>
       <c r="Y12" s="17" t="str">
@@ -4816,7 +4825,7 @@
       <c r="W13" s="19">
         <v>1.0</v>
       </c>
-      <c r="X13" s="30">
+      <c r="X13" s="31">
         <v>13.0</v>
       </c>
       <c r="Y13" s="17" t="str">
@@ -5021,7 +5030,7 @@
       <c r="W14" s="19">
         <v>1.0</v>
       </c>
-      <c r="X14" s="30">
+      <c r="X14" s="31">
         <v>14.0</v>
       </c>
       <c r="Y14" s="17" t="str">
@@ -5157,7 +5166,7 @@
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="34" t="s">
         <v>187</v>
       </c>
       <c r="B15" s="15">
@@ -5226,7 +5235,7 @@
       <c r="W15" s="19">
         <v>1.0</v>
       </c>
-      <c r="X15" s="30">
+      <c r="X15" s="31">
         <v>15.0</v>
       </c>
       <c r="Y15" s="17" t="str">
@@ -5362,7 +5371,7 @@
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="34" t="s">
         <v>191</v>
       </c>
       <c r="B16" s="15">
@@ -5431,7 +5440,7 @@
       <c r="W16" s="19">
         <v>1.0</v>
       </c>
-      <c r="X16" s="30">
+      <c r="X16" s="31">
         <v>16.0</v>
       </c>
       <c r="Y16" s="17" t="str">
@@ -6978,19 +6987,19 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="37" t="s">
         <v>197</v>
       </c>
       <c r="F1" s="13"/>
@@ -7016,25 +7025,25 @@
       <c r="Z1" s="13"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="37"/>
+      <c r="A2" s="38"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="37"/>
+      <c r="A3" s="38"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="37"/>
+      <c r="A4" s="38"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="37"/>
+      <c r="A5" s="38"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="37"/>
+      <c r="A6" s="38"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="37"/>
+      <c r="A7" s="38"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="37"/>
+      <c r="A8" s="38"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2"/>
@@ -10034,22 +10043,22 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="37" t="s">
         <v>201</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="37" t="s">
         <v>52</v>
       </c>
       <c r="G1" s="13"/>
@@ -10074,7 +10083,7 @@
       <c r="Z1" s="13"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>187</v>
       </c>
       <c r="B2" s="19">
@@ -10094,7 +10103,7 @@
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="39" t="s">
         <v>191</v>
       </c>
       <c r="B3" s="19">
@@ -10114,19 +10123,19 @@
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="37"/>
+      <c r="A4" s="38"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="37"/>
+      <c r="A5" s="38"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="37"/>
+      <c r="A6" s="38"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="37"/>
+      <c r="A7" s="38"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="37"/>
+      <c r="A8" s="38"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2"/>
@@ -13125,13 +13134,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>207</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="37" t="s">
         <v>208</v>
       </c>
       <c r="D1" s="13"/>
@@ -13184,7 +13193,7 @@
       <c r="A4" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="31">
         <v>1002.0</v>
       </c>
       <c r="C4" s="21" t="s">
@@ -13195,7 +13204,7 @@
       <c r="A5" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="31">
         <v>1003.0</v>
       </c>
       <c r="C5" s="21" t="s">
@@ -16315,25 +16324,25 @@
       <c r="Z1" s="13"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="37"/>
+      <c r="A2" s="38"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="37"/>
+      <c r="A3" s="38"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="37"/>
+      <c r="A4" s="38"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="37"/>
+      <c r="A5" s="38"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="37"/>
+      <c r="A6" s="38"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="37"/>
+      <c r="A7" s="38"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="37"/>
+      <c r="A8" s="38"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2"/>

--- a/TNR_PREJDD/PREJDD.RT.EQU.xlsx
+++ b/TNR_PREJDD/PREJDD.RT.EQU.xlsx
@@ -14,14 +14,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataChecksum="BSW1sUcpzuYerqq7GoQzDsSSVi4W9t6QiIRwDIAggRU="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataChecksum="EYenHPdlVqTPBgxohlUEFJsr88KqAMZy2/C600rZUg4="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="219">
   <si>
     <t>Date</t>
   </si>
@@ -672,18 +672,6 @@
   </si>
   <si>
     <t>NOTES CONSIGNES SECURITE 2003</t>
-  </si>
-  <si>
-    <t>NOTES DU CONTRAT 3000</t>
-  </si>
-  <si>
-    <t>NOTES DU CONTRAT 3001</t>
-  </si>
-  <si>
-    <t>NOTES DU CONTRAT 3002</t>
-  </si>
-  <si>
-    <t>NOTES DU CONTRAT 3003</t>
   </si>
   <si>
     <t>CAS_DE_TEST</t>
@@ -847,7 +835,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -924,6 +912,9 @@
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="6" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2537,8 +2528,8 @@
       <c r="L2" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="M2" s="19">
-        <v>3000.0</v>
+      <c r="M2" s="17" t="s">
+        <v>84</v>
       </c>
       <c r="N2" s="17" t="s">
         <v>84</v>
@@ -2742,8 +2733,8 @@
       <c r="L3" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="M3" s="19">
-        <v>3001.0</v>
+      <c r="M3" s="17" t="s">
+        <v>84</v>
       </c>
       <c r="N3" s="17" t="s">
         <v>84</v>
@@ -2900,14 +2891,14 @@
       <c r="BL3" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="BM3" s="25" t="s">
-        <v>97</v>
+      <c r="BM3" s="30" t="s">
+        <v>84</v>
       </c>
       <c r="BN3" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="BO3" s="25" t="s">
-        <v>102</v>
+      <c r="BO3" s="30" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
@@ -2938,7 +2929,7 @@
       <c r="I4" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="J4" s="30">
+      <c r="J4" s="31">
         <v>1002.0</v>
       </c>
       <c r="K4" s="19">
@@ -2947,8 +2938,8 @@
       <c r="L4" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="M4" s="19">
-        <v>3002.0</v>
+      <c r="M4" s="17" t="s">
+        <v>84</v>
       </c>
       <c r="N4" s="17" t="s">
         <v>84</v>
@@ -2980,7 +2971,7 @@
       <c r="W4" s="19">
         <v>1.0</v>
       </c>
-      <c r="X4" s="31">
+      <c r="X4" s="32">
         <v>4.0</v>
       </c>
       <c r="Y4" s="17" t="str">
@@ -3096,7 +3087,7 @@
       <c r="BI4" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BJ4" s="32">
+      <c r="BJ4" s="33">
         <v>1004.0</v>
       </c>
       <c r="BK4" s="16" t="s">
@@ -3143,7 +3134,7 @@
       <c r="I5" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="J5" s="30">
+      <c r="J5" s="31">
         <v>1003.0</v>
       </c>
       <c r="K5" s="19">
@@ -3152,8 +3143,8 @@
       <c r="L5" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="M5" s="19">
-        <v>3003.0</v>
+      <c r="M5" s="17" t="s">
+        <v>84</v>
       </c>
       <c r="N5" s="17" t="s">
         <v>84</v>
@@ -3185,7 +3176,7 @@
       <c r="W5" s="19">
         <v>1.0</v>
       </c>
-      <c r="X5" s="31">
+      <c r="X5" s="32">
         <v>5.0</v>
       </c>
       <c r="Y5" s="17" t="str">
@@ -3301,7 +3292,7 @@
       <c r="BI5" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BJ5" s="32">
+      <c r="BJ5" s="33">
         <v>1005.0</v>
       </c>
       <c r="BK5" s="16" t="s">
@@ -3321,7 +3312,7 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="34" t="s">
         <v>143</v>
       </c>
       <c r="B6" s="15">
@@ -3390,7 +3381,7 @@
       <c r="W6" s="19">
         <v>1.0</v>
       </c>
-      <c r="X6" s="31">
+      <c r="X6" s="32">
         <v>6.0</v>
       </c>
       <c r="Y6" s="17" t="str">
@@ -3526,7 +3517,7 @@
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="34" t="s">
         <v>148</v>
       </c>
       <c r="B7" s="15">
@@ -3595,7 +3586,7 @@
       <c r="W7" s="19">
         <v>1.0</v>
       </c>
-      <c r="X7" s="31">
+      <c r="X7" s="32">
         <v>7.0</v>
       </c>
       <c r="Y7" s="17" t="str">
@@ -3800,7 +3791,7 @@
       <c r="W8" s="19">
         <v>1.0</v>
       </c>
-      <c r="X8" s="31">
+      <c r="X8" s="32">
         <v>8.0</v>
       </c>
       <c r="Y8" s="17" t="str">
@@ -3936,7 +3927,7 @@
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="35" t="s">
         <v>158</v>
       </c>
       <c r="B9" s="15">
@@ -4005,7 +3996,7 @@
       <c r="W9" s="19">
         <v>1.0</v>
       </c>
-      <c r="X9" s="31">
+      <c r="X9" s="32">
         <v>9.0</v>
       </c>
       <c r="Y9" s="17" t="str">
@@ -4141,7 +4132,7 @@
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="35" t="s">
         <v>163</v>
       </c>
       <c r="B10" s="15">
@@ -4210,7 +4201,7 @@
       <c r="W10" s="19">
         <v>1.0</v>
       </c>
-      <c r="X10" s="31">
+      <c r="X10" s="32">
         <v>10.0</v>
       </c>
       <c r="Y10" s="17" t="str">
@@ -4346,7 +4337,7 @@
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="35" t="s">
         <v>168</v>
       </c>
       <c r="B11" s="15">
@@ -4415,7 +4406,7 @@
       <c r="W11" s="19">
         <v>1.0</v>
       </c>
-      <c r="X11" s="31">
+      <c r="X11" s="32">
         <v>11.0</v>
       </c>
       <c r="Y11" s="17" t="str">
@@ -4551,7 +4542,7 @@
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="35" t="s">
         <v>168</v>
       </c>
       <c r="B12" s="15">
@@ -4620,7 +4611,7 @@
       <c r="W12" s="19">
         <v>1.0</v>
       </c>
-      <c r="X12" s="31">
+      <c r="X12" s="32">
         <v>12.0</v>
       </c>
       <c r="Y12" s="17" t="str">
@@ -4825,7 +4816,7 @@
       <c r="W13" s="19">
         <v>1.0</v>
       </c>
-      <c r="X13" s="31">
+      <c r="X13" s="32">
         <v>13.0</v>
       </c>
       <c r="Y13" s="17" t="str">
@@ -5030,7 +5021,7 @@
       <c r="W14" s="19">
         <v>1.0</v>
       </c>
-      <c r="X14" s="31">
+      <c r="X14" s="32">
         <v>14.0</v>
       </c>
       <c r="Y14" s="17" t="str">
@@ -5166,7 +5157,7 @@
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="35" t="s">
         <v>187</v>
       </c>
       <c r="B15" s="15">
@@ -5235,7 +5226,7 @@
       <c r="W15" s="19">
         <v>1.0</v>
       </c>
-      <c r="X15" s="31">
+      <c r="X15" s="32">
         <v>15.0</v>
       </c>
       <c r="Y15" s="17" t="str">
@@ -5371,7 +5362,7 @@
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="35" t="s">
         <v>191</v>
       </c>
       <c r="B16" s="15">
@@ -5440,7 +5431,7 @@
       <c r="W16" s="19">
         <v>1.0</v>
       </c>
-      <c r="X16" s="31">
+      <c r="X16" s="32">
         <v>16.0</v>
       </c>
       <c r="Y16" s="17" t="str">
@@ -6987,19 +6978,19 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="38" t="s">
         <v>197</v>
       </c>
       <c r="F1" s="13"/>
@@ -7025,25 +7016,25 @@
       <c r="Z1" s="13"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="38"/>
+      <c r="A2" s="39"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="38"/>
+      <c r="A3" s="39"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="38"/>
+      <c r="A4" s="39"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="38"/>
+      <c r="A5" s="39"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="38"/>
+      <c r="A6" s="39"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="38"/>
+      <c r="A7" s="39"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="38"/>
+      <c r="A8" s="39"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2"/>
@@ -10043,22 +10034,22 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="37" t="s">
         <v>199</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="37" t="s">
         <v>200</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="38" t="s">
         <v>52</v>
       </c>
       <c r="G1" s="13"/>
@@ -10083,7 +10074,7 @@
       <c r="Z1" s="13"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="40" t="s">
         <v>187</v>
       </c>
       <c r="B2" s="19">
@@ -10103,7 +10094,7 @@
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="40" t="s">
         <v>191</v>
       </c>
       <c r="B3" s="19">
@@ -10123,19 +10114,19 @@
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="38"/>
+      <c r="A4" s="39"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="38"/>
+      <c r="A5" s="39"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="38"/>
+      <c r="A6" s="39"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="38"/>
+      <c r="A7" s="39"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="38"/>
+      <c r="A8" s="39"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2"/>
@@ -13134,13 +13125,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="38" t="s">
         <v>208</v>
       </c>
       <c r="D1" s="13"/>
@@ -13193,7 +13184,7 @@
       <c r="A4" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="B4" s="31">
+      <c r="B4" s="32">
         <v>1002.0</v>
       </c>
       <c r="C4" s="21" t="s">
@@ -13204,7 +13195,7 @@
       <c r="A5" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="B5" s="31">
+      <c r="B5" s="32">
         <v>1003.0</v>
       </c>
       <c r="C5" s="21" t="s">
@@ -13256,48 +13247,16 @@
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" s="19">
-        <v>3000.0</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>217</v>
-      </c>
+      <c r="A10" s="2"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="B11" s="19">
-        <v>3001.0</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>218</v>
-      </c>
+      <c r="A11" s="2"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="B12" s="19">
-        <v>3002.0</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>219</v>
-      </c>
+      <c r="A12" s="2"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="B13" s="19">
-        <v>3003.0</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>220</v>
-      </c>
+      <c r="A13" s="2"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="2"/>
@@ -16218,16 +16177,16 @@
     <row r="986" ht="15.75" customHeight="1">
       <c r="A986" s="2"/>
     </row>
-    <row r="987" ht="15.75" customHeight="1">
+    <row r="987">
       <c r="A987" s="2"/>
     </row>
-    <row r="988" ht="15.75" customHeight="1">
+    <row r="988">
       <c r="A988" s="2"/>
     </row>
-    <row r="989" ht="15.75" customHeight="1">
+    <row r="989">
       <c r="A989" s="2"/>
     </row>
-    <row r="990" ht="15.75" customHeight="1">
+    <row r="990">
       <c r="A990" s="2"/>
     </row>
     <row r="991">
@@ -16250,18 +16209,6 @@
     </row>
     <row r="997">
       <c r="A997" s="2"/>
-    </row>
-    <row r="998">
-      <c r="A998" s="2"/>
-    </row>
-    <row r="999">
-      <c r="A999" s="2"/>
-    </row>
-    <row r="1000">
-      <c r="A1000" s="2"/>
-    </row>
-    <row r="1001">
-      <c r="A1001" s="2"/>
     </row>
   </sheetData>
   <printOptions/>
@@ -16293,10 +16240,10 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -16324,25 +16271,25 @@
       <c r="Z1" s="13"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="38"/>
+      <c r="A2" s="39"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="38"/>
+      <c r="A3" s="39"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="38"/>
+      <c r="A4" s="39"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="38"/>
+      <c r="A5" s="39"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="38"/>
+      <c r="A6" s="39"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="38"/>
+      <c r="A7" s="39"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="38"/>
+      <c r="A8" s="39"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2"/>

--- a/TNR_PREJDD/PREJDD.RT.EQU.xlsx
+++ b/TNR_PREJDD/PREJDD.RT.EQU.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="207">
   <si>
     <t>Date</t>
   </si>
@@ -401,7 +401,7 @@
     <t>GROUPE03</t>
   </si>
   <si>
-    <t>CONS04</t>
+    <t>CONS01</t>
   </si>
   <si>
     <t>EQU04</t>
@@ -437,9 +437,6 @@
     <t>ORG.RT.EQU.001.REC.01.........</t>
   </si>
   <si>
-    <t>CONS05</t>
-  </si>
-  <si>
     <t>EQU05</t>
   </si>
   <si>
@@ -455,9 +452,6 @@
     <t>RT.ART.006.SRA.01</t>
   </si>
   <si>
-    <t>CONS06</t>
-  </si>
-  <si>
     <t>EQU06</t>
   </si>
   <si>
@@ -470,9 +464,6 @@
     <t>RT.MAT.001.CRE.01</t>
   </si>
   <si>
-    <t>CONS07</t>
-  </si>
-  <si>
     <t>EQU07</t>
   </si>
   <si>
@@ -485,9 +476,6 @@
     <t>TR.BTR.001.CRE.01</t>
   </si>
   <si>
-    <t>CONS08</t>
-  </si>
-  <si>
     <t>EQU08</t>
   </si>
   <si>
@@ -500,9 +488,6 @@
     <t>TR.BTR.001.CRE.03</t>
   </si>
   <si>
-    <t>CONS09</t>
-  </si>
-  <si>
     <t>EQU09</t>
   </si>
   <si>
@@ -515,9 +500,6 @@
     <t>TR.BTR.001.LEC.01</t>
   </si>
   <si>
-    <t>CONS10</t>
-  </si>
-  <si>
     <t>EQU10</t>
   </si>
   <si>
@@ -530,9 +512,6 @@
     <t>TR.BTR.001.MAJ.01</t>
   </si>
   <si>
-    <t>CONS11</t>
-  </si>
-  <si>
     <t>EQU11</t>
   </si>
   <si>
@@ -542,9 +521,6 @@
     <t>OBSERVATION 11</t>
   </si>
   <si>
-    <t>CONS12</t>
-  </si>
-  <si>
     <t>EQU12</t>
   </si>
   <si>
@@ -557,9 +533,6 @@
     <t>TR.BTR.001.SUP.01</t>
   </si>
   <si>
-    <t>CONS13</t>
-  </si>
-  <si>
     <t>EQU13</t>
   </si>
   <si>
@@ -572,9 +545,6 @@
     <t>TR.BTR.001.REC.01</t>
   </si>
   <si>
-    <t>CONS14</t>
-  </si>
-  <si>
     <t>EQU14</t>
   </si>
   <si>
@@ -587,9 +557,6 @@
     <t>RT.ART.006.SRM.01</t>
   </si>
   <si>
-    <t>CONS15</t>
-  </si>
-  <si>
     <t>EQU15</t>
   </si>
   <si>
@@ -597,9 +564,6 @@
   </si>
   <si>
     <t>RT.ART.006.SRS.01</t>
-  </si>
-  <si>
-    <t>CONS16</t>
   </si>
   <si>
     <t>EQU16</t>
@@ -884,6 +848,9 @@
     <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
@@ -919,9 +886,6 @@
     </xf>
     <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
@@ -2561,8 +2525,8 @@
       <c r="W2" s="19">
         <v>1.0</v>
       </c>
-      <c r="X2" s="19">
-        <v>2.0</v>
+      <c r="X2" s="20">
+        <v>0.0</v>
       </c>
       <c r="Y2" s="17" t="str">
         <f t="shared" ref="Y2:Y16" si="1">CONCATENATE(UPPER(AA2),REPT(".",30-LEN(AA2)))</f>
@@ -2574,19 +2538,19 @@
       <c r="AA2" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB2" s="20">
+      <c r="AB2" s="21">
         <v>1001.0</v>
       </c>
-      <c r="AC2" s="20">
+      <c r="AC2" s="21">
         <v>20.0</v>
       </c>
-      <c r="AD2" s="20">
+      <c r="AD2" s="21">
         <v>120.0</v>
       </c>
       <c r="AE2" s="16">
         <v>0.0</v>
       </c>
-      <c r="AF2" s="21" t="s">
+      <c r="AF2" s="22" t="s">
         <v>84</v>
       </c>
       <c r="AG2" s="17" t="s">
@@ -2601,10 +2565,10 @@
       <c r="AJ2" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="AK2" s="22">
+      <c r="AK2" s="23">
         <v>43922.0</v>
       </c>
-      <c r="AL2" s="20">
+      <c r="AL2" s="21">
         <v>20000.0</v>
       </c>
       <c r="AM2" s="17" t="s">
@@ -2613,10 +2577,10 @@
       <c r="AN2" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="AO2" s="22">
+      <c r="AO2" s="23">
         <v>44652.0</v>
       </c>
-      <c r="AP2" s="20">
+      <c r="AP2" s="21">
         <v>20000.0</v>
       </c>
       <c r="AQ2" s="17" t="s">
@@ -2650,49 +2614,49 @@
       <c r="AZ2" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="BA2" s="20">
+      <c r="BA2" s="21">
         <v>110000.0</v>
       </c>
-      <c r="BB2" s="22">
+      <c r="BB2" s="23">
         <v>48305.0</v>
       </c>
-      <c r="BC2" s="20">
+      <c r="BC2" s="21">
         <v>2000000.0</v>
       </c>
       <c r="BD2" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="BE2" s="23" t="s">
+      <c r="BE2" s="24" t="s">
         <v>99</v>
       </c>
       <c r="BF2" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BG2" s="22">
+      <c r="BG2" s="23">
         <v>44652.0</v>
       </c>
-      <c r="BH2" s="24" t="s">
+      <c r="BH2" s="25" t="s">
         <v>100</v>
       </c>
       <c r="BI2" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BJ2" s="21">
+      <c r="BJ2" s="22">
         <v>1000.0</v>
       </c>
       <c r="BK2" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="BL2" s="25" t="s">
+      <c r="BL2" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="BM2" s="25" t="s">
+      <c r="BM2" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="BN2" s="25" t="s">
+      <c r="BN2" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="BO2" s="25" t="s">
+      <c r="BO2" s="26" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2757,7 +2721,7 @@
       <c r="T3" s="19">
         <v>0.0</v>
       </c>
-      <c r="U3" s="26" t="s">
+      <c r="U3" s="27" t="s">
         <v>109</v>
       </c>
       <c r="V3" s="16" t="s">
@@ -2766,8 +2730,8 @@
       <c r="W3" s="19">
         <v>1.0</v>
       </c>
-      <c r="X3" s="19">
-        <v>3.0</v>
+      <c r="X3" s="20">
+        <v>1.0</v>
       </c>
       <c r="Y3" s="17" t="str">
         <f t="shared" si="1"/>
@@ -2779,19 +2743,19 @@
       <c r="AA3" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="AB3" s="20">
+      <c r="AB3" s="21">
         <v>1003.0</v>
       </c>
-      <c r="AC3" s="27">
+      <c r="AC3" s="28">
         <v>30.0</v>
       </c>
-      <c r="AD3" s="27">
+      <c r="AD3" s="28">
         <v>130.0</v>
       </c>
       <c r="AE3" s="16">
         <v>0.0</v>
       </c>
-      <c r="AF3" s="21" t="s">
+      <c r="AF3" s="22" t="s">
         <v>84</v>
       </c>
       <c r="AG3" s="16" t="s">
@@ -2806,10 +2770,10 @@
       <c r="AJ3" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="AK3" s="28">
+      <c r="AK3" s="29">
         <v>43466.0</v>
       </c>
-      <c r="AL3" s="27">
+      <c r="AL3" s="28">
         <v>30000.0</v>
       </c>
       <c r="AM3" s="17" t="s">
@@ -2818,10 +2782,10 @@
       <c r="AN3" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="AO3" s="22">
+      <c r="AO3" s="23">
         <v>43831.0</v>
       </c>
-      <c r="AP3" s="27">
+      <c r="AP3" s="28">
         <v>30000.0</v>
       </c>
       <c r="AQ3" s="16" t="s">
@@ -2837,7 +2801,7 @@
         <f t="shared" si="2"/>
         <v>RT.EQU.001.MAJ.01.............</v>
       </c>
-      <c r="AU3" s="29" t="s">
+      <c r="AU3" s="30" t="s">
         <v>96</v>
       </c>
       <c r="AV3" s="16" t="s">
@@ -2855,49 +2819,49 @@
       <c r="AZ3" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="BA3" s="27">
+      <c r="BA3" s="28">
         <v>200000.0</v>
       </c>
-      <c r="BB3" s="22">
+      <c r="BB3" s="23">
         <v>47484.0</v>
       </c>
-      <c r="BC3" s="20">
+      <c r="BC3" s="21">
         <v>4000000.0</v>
       </c>
       <c r="BD3" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="BE3" s="23" t="s">
+      <c r="BE3" s="24" t="s">
         <v>117</v>
       </c>
       <c r="BF3" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BG3" s="22">
+      <c r="BG3" s="23">
         <v>43831.0</v>
       </c>
-      <c r="BH3" s="24" t="s">
+      <c r="BH3" s="25" t="s">
         <v>100</v>
       </c>
       <c r="BI3" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BJ3" s="21">
+      <c r="BJ3" s="22">
         <v>1002.0</v>
       </c>
       <c r="BK3" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="BL3" s="25" t="s">
+      <c r="BL3" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="BM3" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="BN3" s="25" t="s">
+      <c r="BM3" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN3" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="BO3" s="30" t="s">
+      <c r="BO3" s="31" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2929,7 +2893,7 @@
       <c r="I4" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="J4" s="31">
+      <c r="J4" s="32">
         <v>1002.0</v>
       </c>
       <c r="K4" s="19">
@@ -2962,17 +2926,17 @@
       <c r="T4" s="19">
         <v>0.0</v>
       </c>
-      <c r="U4" s="26" t="s">
+      <c r="U4" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="V4" s="17" t="s">
+      <c r="V4" s="16" t="s">
         <v>126</v>
       </c>
       <c r="W4" s="19">
         <v>1.0</v>
       </c>
-      <c r="X4" s="32">
-        <v>4.0</v>
+      <c r="X4" s="20">
+        <v>2.0</v>
       </c>
       <c r="Y4" s="17" t="str">
         <f t="shared" si="1"/>
@@ -2984,19 +2948,19 @@
       <c r="AA4" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="AB4" s="27">
+      <c r="AB4" s="28">
         <v>1004.0</v>
       </c>
-      <c r="AC4" s="21">
+      <c r="AC4" s="22">
         <v>40.0</v>
       </c>
-      <c r="AD4" s="21">
+      <c r="AD4" s="22">
         <v>140.0</v>
       </c>
       <c r="AE4" s="16">
         <v>0.0</v>
       </c>
-      <c r="AF4" s="21" t="s">
+      <c r="AF4" s="22" t="s">
         <v>84</v>
       </c>
       <c r="AG4" s="17" t="s">
@@ -3011,10 +2975,10 @@
       <c r="AJ4" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="AK4" s="28">
+      <c r="AK4" s="29">
         <v>43466.0</v>
       </c>
-      <c r="AL4" s="20">
+      <c r="AL4" s="21">
         <v>40000.0</v>
       </c>
       <c r="AM4" s="17" t="s">
@@ -3023,10 +2987,10 @@
       <c r="AN4" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="AO4" s="22">
+      <c r="AO4" s="23">
         <v>43831.0</v>
       </c>
-      <c r="AP4" s="20">
+      <c r="AP4" s="21">
         <v>40000.0</v>
       </c>
       <c r="AQ4" s="17" t="s">
@@ -3060,28 +3024,28 @@
       <c r="AZ4" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="BA4" s="20">
+      <c r="BA4" s="21">
         <v>290000.0</v>
       </c>
-      <c r="BB4" s="22">
+      <c r="BB4" s="23">
         <v>47484.0</v>
       </c>
-      <c r="BC4" s="20">
+      <c r="BC4" s="21">
         <v>6000000.0</v>
       </c>
       <c r="BD4" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="BE4" s="23" t="s">
+      <c r="BE4" s="24" t="s">
         <v>130</v>
       </c>
       <c r="BF4" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BG4" s="22">
+      <c r="BG4" s="23">
         <v>43831.0</v>
       </c>
-      <c r="BH4" s="24" t="s">
+      <c r="BH4" s="25" t="s">
         <v>100</v>
       </c>
       <c r="BI4" s="17" t="s">
@@ -3093,16 +3057,16 @@
       <c r="BK4" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="BL4" s="25" t="s">
+      <c r="BL4" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="BM4" s="25" t="s">
+      <c r="BM4" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="BN4" s="25" t="s">
+      <c r="BN4" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="BO4" s="25" t="s">
+      <c r="BO4" s="26" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3134,7 +3098,7 @@
       <c r="I5" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="J5" s="31">
+      <c r="J5" s="32">
         <v>1003.0</v>
       </c>
       <c r="K5" s="19">
@@ -3170,38 +3134,38 @@
       <c r="U5" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="V5" s="16" t="s">
-        <v>138</v>
+      <c r="V5" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="W5" s="19">
         <v>1.0</v>
       </c>
-      <c r="X5" s="32">
-        <v>5.0</v>
+      <c r="X5" s="20">
+        <v>3.0</v>
       </c>
       <c r="Y5" s="17" t="str">
         <f t="shared" si="1"/>
         <v>RT.EQU.001.REC.01.............</v>
       </c>
       <c r="Z5" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA5" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="AB5" s="27">
+      <c r="AB5" s="28">
         <v>1005.0</v>
       </c>
-      <c r="AC5" s="21">
+      <c r="AC5" s="22">
         <v>50.0</v>
       </c>
-      <c r="AD5" s="21">
+      <c r="AD5" s="22">
         <v>150.0</v>
       </c>
       <c r="AE5" s="16">
         <v>0.0</v>
       </c>
-      <c r="AF5" s="21" t="s">
+      <c r="AF5" s="22" t="s">
         <v>84</v>
       </c>
       <c r="AG5" s="16" t="s">
@@ -3214,24 +3178,24 @@
         <v>114</v>
       </c>
       <c r="AJ5" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK5" s="29">
+        <v>43466.0</v>
+      </c>
+      <c r="AL5" s="28">
+        <v>50000.0</v>
+      </c>
+      <c r="AM5" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN5" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="AK5" s="28">
-        <v>43466.0</v>
-      </c>
-      <c r="AL5" s="27">
-        <v>50000.0</v>
-      </c>
-      <c r="AM5" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AN5" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="AO5" s="22">
+      <c r="AO5" s="23">
         <v>43831.0</v>
       </c>
-      <c r="AP5" s="27">
+      <c r="AP5" s="28">
         <v>50000.0</v>
       </c>
       <c r="AQ5" s="16" t="s">
@@ -3247,7 +3211,7 @@
         <f t="shared" si="2"/>
         <v>RT.EQU.001.REC.01.............</v>
       </c>
-      <c r="AU5" s="29" t="s">
+      <c r="AU5" s="30" t="s">
         <v>96</v>
       </c>
       <c r="AV5" s="16" t="s">
@@ -3265,28 +3229,28 @@
       <c r="AZ5" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="BA5" s="27">
+      <c r="BA5" s="28">
         <v>380000.0</v>
       </c>
-      <c r="BB5" s="22">
+      <c r="BB5" s="23">
         <v>47484.0</v>
       </c>
-      <c r="BC5" s="20">
+      <c r="BC5" s="21">
         <v>8000000.0</v>
       </c>
       <c r="BD5" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="BE5" s="23" t="s">
+      <c r="BE5" s="24" t="s">
         <v>99</v>
       </c>
       <c r="BF5" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BG5" s="22">
+      <c r="BG5" s="23">
         <v>43831.0</v>
       </c>
-      <c r="BH5" s="24" t="s">
+      <c r="BH5" s="25" t="s">
         <v>100</v>
       </c>
       <c r="BI5" s="17" t="s">
@@ -3296,35 +3260,35 @@
         <v>1005.0</v>
       </c>
       <c r="BK5" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="BL5" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="BL5" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="BM5" s="25" t="s">
+      <c r="BM5" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="BN5" s="25" t="s">
+      <c r="BN5" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="BO5" s="25" t="s">
+      <c r="BO5" s="26" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B6" s="15">
         <v>1004.0</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" s="21" t="s">
+      <c r="C6" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="22" t="s">
         <v>84</v>
       </c>
       <c r="F6" s="18" t="s">
@@ -3376,25 +3340,25 @@
         <v>88</v>
       </c>
       <c r="V6" s="16" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="W6" s="19">
         <v>1.0</v>
       </c>
-      <c r="X6" s="32">
-        <v>6.0</v>
+      <c r="X6" s="20">
+        <v>4.0</v>
       </c>
       <c r="Y6" s="17" t="str">
         <f t="shared" si="1"/>
         <v>EQU.RT.ART.006.SRA.01.........</v>
       </c>
       <c r="Z6" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="AA6" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="AB6" s="21">
+        <v>143</v>
+      </c>
+      <c r="AA6" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB6" s="22">
         <v>1006.0</v>
       </c>
       <c r="AC6" s="17" t="s">
@@ -3406,7 +3370,7 @@
       <c r="AE6" s="16">
         <v>0.0</v>
       </c>
-      <c r="AF6" s="21" t="s">
+      <c r="AF6" s="22" t="s">
         <v>84</v>
       </c>
       <c r="AG6" s="17" t="s">
@@ -3431,12 +3395,12 @@
         <v>84</v>
       </c>
       <c r="AN6" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="AO6" s="22">
+        <v>145</v>
+      </c>
+      <c r="AO6" s="23">
         <v>43831.0</v>
       </c>
-      <c r="AP6" s="27">
+      <c r="AP6" s="28">
         <v>50000.0</v>
       </c>
       <c r="AQ6" s="16" t="s">
@@ -3470,28 +3434,28 @@
       <c r="AZ6" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="BA6" s="27">
+      <c r="BA6" s="28">
         <v>380000.0</v>
       </c>
-      <c r="BB6" s="22">
+      <c r="BB6" s="23">
         <v>47484.0</v>
       </c>
-      <c r="BC6" s="20">
+      <c r="BC6" s="21">
         <v>8000000.0</v>
       </c>
       <c r="BD6" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="BE6" s="23" t="s">
+      <c r="BE6" s="24" t="s">
         <v>117</v>
       </c>
       <c r="BF6" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BG6" s="22">
+      <c r="BG6" s="23">
         <v>43831.0</v>
       </c>
-      <c r="BH6" s="24" t="s">
+      <c r="BH6" s="25" t="s">
         <v>100</v>
       </c>
       <c r="BI6" s="17" t="s">
@@ -3503,33 +3467,33 @@
       <c r="BK6" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BL6" s="25" t="s">
+      <c r="BL6" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="BM6" s="25" t="s">
+      <c r="BM6" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="BN6" s="25" t="s">
+      <c r="BN6" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="BO6" s="25" t="s">
+      <c r="BO6" s="26" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="34" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B7" s="15">
         <v>1005.0</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" s="21" t="s">
+      <c r="C7" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="22" t="s">
         <v>84</v>
       </c>
       <c r="F7" s="18" t="s">
@@ -3581,25 +3545,25 @@
         <v>88</v>
       </c>
       <c r="V7" s="16" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="W7" s="19">
         <v>1.0</v>
       </c>
-      <c r="X7" s="32">
-        <v>7.0</v>
+      <c r="X7" s="20">
+        <v>5.0</v>
       </c>
       <c r="Y7" s="17" t="str">
         <f t="shared" si="1"/>
         <v>EQU.RT.MAT.001.CRE.01.........</v>
       </c>
       <c r="Z7" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="AA7" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="AB7" s="21">
+        <v>147</v>
+      </c>
+      <c r="AA7" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB7" s="22">
         <v>1007.0</v>
       </c>
       <c r="AC7" s="17" t="s">
@@ -3611,7 +3575,7 @@
       <c r="AE7" s="16">
         <v>0.0</v>
       </c>
-      <c r="AF7" s="21" t="s">
+      <c r="AF7" s="22" t="s">
         <v>84</v>
       </c>
       <c r="AG7" s="17" t="s">
@@ -3636,12 +3600,12 @@
         <v>84</v>
       </c>
       <c r="AN7" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="AO7" s="22">
+        <v>149</v>
+      </c>
+      <c r="AO7" s="23">
         <v>43831.0</v>
       </c>
-      <c r="AP7" s="27">
+      <c r="AP7" s="28">
         <v>50000.0</v>
       </c>
       <c r="AQ7" s="16" t="s">
@@ -3675,28 +3639,28 @@
       <c r="AZ7" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="BA7" s="27">
+      <c r="BA7" s="28">
         <v>380000.0</v>
       </c>
-      <c r="BB7" s="22">
+      <c r="BB7" s="23">
         <v>47484.0</v>
       </c>
-      <c r="BC7" s="20">
+      <c r="BC7" s="21">
         <v>8000000.0</v>
       </c>
       <c r="BD7" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="BE7" s="23" t="s">
+      <c r="BE7" s="24" t="s">
         <v>130</v>
       </c>
       <c r="BF7" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BG7" s="22">
+      <c r="BG7" s="23">
         <v>43831.0</v>
       </c>
-      <c r="BH7" s="24" t="s">
+      <c r="BH7" s="25" t="s">
         <v>100</v>
       </c>
       <c r="BI7" s="17" t="s">
@@ -3708,33 +3672,33 @@
       <c r="BK7" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BL7" s="25" t="s">
+      <c r="BL7" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="BM7" s="25" t="s">
+      <c r="BM7" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="BN7" s="25" t="s">
+      <c r="BN7" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="BO7" s="25" t="s">
+      <c r="BO7" s="26" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="14" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B8" s="15">
         <v>1006.0</v>
       </c>
-      <c r="C8" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="E8" s="21" t="s">
+      <c r="C8" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="22" t="s">
         <v>84</v>
       </c>
       <c r="F8" s="18" t="s">
@@ -3782,29 +3746,29 @@
       <c r="T8" s="19">
         <v>0.0</v>
       </c>
-      <c r="U8" s="26" t="s">
+      <c r="U8" s="27" t="s">
         <v>109</v>
       </c>
       <c r="V8" s="17" t="s">
-        <v>154</v>
+        <v>89</v>
       </c>
       <c r="W8" s="19">
         <v>1.0</v>
       </c>
-      <c r="X8" s="32">
-        <v>8.0</v>
+      <c r="X8" s="20">
+        <v>6.0</v>
       </c>
       <c r="Y8" s="17" t="str">
         <f t="shared" si="1"/>
         <v>EQU.TR.BTR.001.CRE.01.........</v>
       </c>
       <c r="Z8" s="17" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AA8" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="AB8" s="21">
+        <v>152</v>
+      </c>
+      <c r="AB8" s="22">
         <v>1008.0</v>
       </c>
       <c r="AC8" s="17" t="s">
@@ -3816,7 +3780,7 @@
       <c r="AE8" s="16">
         <v>0.0</v>
       </c>
-      <c r="AF8" s="21" t="s">
+      <c r="AF8" s="22" t="s">
         <v>84</v>
       </c>
       <c r="AG8" s="17" t="s">
@@ -3841,12 +3805,12 @@
         <v>84</v>
       </c>
       <c r="AN8" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="AO8" s="22">
+        <v>153</v>
+      </c>
+      <c r="AO8" s="23">
         <v>43831.0</v>
       </c>
-      <c r="AP8" s="27">
+      <c r="AP8" s="28">
         <v>50000.0</v>
       </c>
       <c r="AQ8" s="16" t="s">
@@ -3880,28 +3844,28 @@
       <c r="AZ8" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="BA8" s="20">
+      <c r="BA8" s="21">
         <v>110000.0</v>
       </c>
-      <c r="BB8" s="22">
+      <c r="BB8" s="23">
         <v>48305.0</v>
       </c>
-      <c r="BC8" s="20">
+      <c r="BC8" s="21">
         <v>2000000.0</v>
       </c>
       <c r="BD8" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="BE8" s="23" t="s">
+      <c r="BE8" s="24" t="s">
         <v>99</v>
       </c>
       <c r="BF8" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BG8" s="22">
+      <c r="BG8" s="23">
         <v>44652.0</v>
       </c>
-      <c r="BH8" s="24" t="s">
+      <c r="BH8" s="25" t="s">
         <v>100</v>
       </c>
       <c r="BI8" s="17" t="s">
@@ -3913,33 +3877,33 @@
       <c r="BK8" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BL8" s="25" t="s">
+      <c r="BL8" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="BM8" s="25" t="s">
+      <c r="BM8" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="BN8" s="25" t="s">
+      <c r="BN8" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="BO8" s="25" t="s">
+      <c r="BO8" s="26" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B9" s="15">
         <v>1007.0</v>
       </c>
-      <c r="C9" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" s="21" t="s">
+      <c r="C9" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="22" t="s">
         <v>84</v>
       </c>
       <c r="F9" s="18" t="s">
@@ -3987,29 +3951,29 @@
       <c r="T9" s="19">
         <v>0.0</v>
       </c>
-      <c r="U9" s="26" t="s">
+      <c r="U9" s="27" t="s">
         <v>109</v>
       </c>
       <c r="V9" s="16" t="s">
-        <v>159</v>
+        <v>110</v>
       </c>
       <c r="W9" s="19">
         <v>1.0</v>
       </c>
-      <c r="X9" s="32">
-        <v>9.0</v>
+      <c r="X9" s="20">
+        <v>7.0</v>
       </c>
       <c r="Y9" s="17" t="str">
         <f t="shared" si="1"/>
         <v>EQU.TR.BTR.001.CRE.03.........</v>
       </c>
       <c r="Z9" s="17" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AA9" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="AB9" s="21">
+        <v>156</v>
+      </c>
+      <c r="AB9" s="22">
         <v>1009.0</v>
       </c>
       <c r="AC9" s="17" t="s">
@@ -4021,7 +3985,7 @@
       <c r="AE9" s="16">
         <v>0.0</v>
       </c>
-      <c r="AF9" s="21" t="s">
+      <c r="AF9" s="22" t="s">
         <v>84</v>
       </c>
       <c r="AG9" s="17" t="s">
@@ -4046,12 +4010,12 @@
         <v>84</v>
       </c>
       <c r="AN9" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO9" s="22">
+        <v>157</v>
+      </c>
+      <c r="AO9" s="23">
         <v>43831.0</v>
       </c>
-      <c r="AP9" s="27">
+      <c r="AP9" s="28">
         <v>50000.0</v>
       </c>
       <c r="AQ9" s="16" t="s">
@@ -4085,28 +4049,28 @@
       <c r="AZ9" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="BA9" s="20">
+      <c r="BA9" s="21">
         <v>110000.0</v>
       </c>
-      <c r="BB9" s="22">
+      <c r="BB9" s="23">
         <v>48305.0</v>
       </c>
-      <c r="BC9" s="20">
+      <c r="BC9" s="21">
         <v>2000000.0</v>
       </c>
       <c r="BD9" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="BE9" s="23" t="s">
+      <c r="BE9" s="24" t="s">
         <v>117</v>
       </c>
       <c r="BF9" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BG9" s="22">
+      <c r="BG9" s="23">
         <v>44652.0</v>
       </c>
-      <c r="BH9" s="24" t="s">
+      <c r="BH9" s="25" t="s">
         <v>100</v>
       </c>
       <c r="BI9" s="17" t="s">
@@ -4118,33 +4082,33 @@
       <c r="BK9" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BL9" s="25" t="s">
+      <c r="BL9" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="BM9" s="25" t="s">
+      <c r="BM9" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="BN9" s="25" t="s">
+      <c r="BN9" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="BO9" s="25" t="s">
+      <c r="BO9" s="26" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="35" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B10" s="15">
         <v>1008.0</v>
       </c>
-      <c r="C10" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="E10" s="21" t="s">
+      <c r="C10" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="22" t="s">
         <v>84</v>
       </c>
       <c r="F10" s="18" t="s">
@@ -4192,29 +4156,29 @@
       <c r="T10" s="19">
         <v>0.0</v>
       </c>
-      <c r="U10" s="26" t="s">
+      <c r="U10" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="V10" s="17" t="s">
-        <v>164</v>
+      <c r="V10" s="16" t="s">
+        <v>126</v>
       </c>
       <c r="W10" s="19">
         <v>1.0</v>
       </c>
-      <c r="X10" s="32">
-        <v>10.0</v>
+      <c r="X10" s="20">
+        <v>8.0</v>
       </c>
       <c r="Y10" s="17" t="str">
         <f t="shared" si="1"/>
         <v>EQU.TR.BTR.001.LEC.01.........</v>
       </c>
       <c r="Z10" s="17" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="AA10" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="AB10" s="21">
+        <v>160</v>
+      </c>
+      <c r="AB10" s="22">
         <v>1010.0</v>
       </c>
       <c r="AC10" s="17" t="s">
@@ -4226,7 +4190,7 @@
       <c r="AE10" s="16">
         <v>0.0</v>
       </c>
-      <c r="AF10" s="21" t="s">
+      <c r="AF10" s="22" t="s">
         <v>84</v>
       </c>
       <c r="AG10" s="17" t="s">
@@ -4251,12 +4215,12 @@
         <v>84</v>
       </c>
       <c r="AN10" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="AO10" s="22">
+        <v>161</v>
+      </c>
+      <c r="AO10" s="23">
         <v>43831.0</v>
       </c>
-      <c r="AP10" s="27">
+      <c r="AP10" s="28">
         <v>50000.0</v>
       </c>
       <c r="AQ10" s="16" t="s">
@@ -4290,28 +4254,28 @@
       <c r="AZ10" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="BA10" s="20">
+      <c r="BA10" s="21">
         <v>110000.0</v>
       </c>
-      <c r="BB10" s="22">
+      <c r="BB10" s="23">
         <v>48305.0</v>
       </c>
-      <c r="BC10" s="20">
+      <c r="BC10" s="21">
         <v>2000000.0</v>
       </c>
       <c r="BD10" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="BE10" s="23" t="s">
+      <c r="BE10" s="24" t="s">
         <v>130</v>
       </c>
       <c r="BF10" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BG10" s="22">
+      <c r="BG10" s="23">
         <v>44652.0</v>
       </c>
-      <c r="BH10" s="24" t="s">
+      <c r="BH10" s="25" t="s">
         <v>100</v>
       </c>
       <c r="BI10" s="17" t="s">
@@ -4323,33 +4287,33 @@
       <c r="BK10" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BL10" s="25" t="s">
+      <c r="BL10" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="BM10" s="25" t="s">
+      <c r="BM10" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="BN10" s="25" t="s">
+      <c r="BN10" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="BO10" s="25" t="s">
+      <c r="BO10" s="26" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="35" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B11" s="15">
         <v>1009.0</v>
       </c>
-      <c r="C11" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11" s="21" t="s">
+      <c r="C11" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="22" t="s">
         <v>84</v>
       </c>
       <c r="F11" s="18" t="s">
@@ -4397,29 +4361,29 @@
       <c r="T11" s="19">
         <v>0.0</v>
       </c>
-      <c r="U11" s="26" t="s">
+      <c r="U11" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="V11" s="16" t="s">
-        <v>169</v>
+      <c r="V11" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="W11" s="19">
         <v>1.0</v>
       </c>
-      <c r="X11" s="32">
-        <v>11.0</v>
+      <c r="X11" s="20">
+        <v>9.0</v>
       </c>
       <c r="Y11" s="17" t="str">
         <f t="shared" si="1"/>
         <v>EQU.UPD.TR.BTR.001.MAJ.01.....</v>
       </c>
       <c r="Z11" s="17" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="AA11" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="AB11" s="21">
+        <v>164</v>
+      </c>
+      <c r="AB11" s="22">
         <v>1011.0</v>
       </c>
       <c r="AC11" s="17" t="s">
@@ -4431,7 +4395,7 @@
       <c r="AE11" s="16">
         <v>0.0</v>
       </c>
-      <c r="AF11" s="21" t="s">
+      <c r="AF11" s="22" t="s">
         <v>84</v>
       </c>
       <c r="AG11" s="17" t="s">
@@ -4456,12 +4420,12 @@
         <v>84</v>
       </c>
       <c r="AN11" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="AO11" s="22">
+        <v>165</v>
+      </c>
+      <c r="AO11" s="23">
         <v>43831.0</v>
       </c>
-      <c r="AP11" s="27">
+      <c r="AP11" s="28">
         <v>50000.0</v>
       </c>
       <c r="AQ11" s="16" t="s">
@@ -4495,28 +4459,28 @@
       <c r="AZ11" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="BA11" s="20">
+      <c r="BA11" s="21">
         <v>110000.0</v>
       </c>
-      <c r="BB11" s="22">
+      <c r="BB11" s="23">
         <v>48305.0</v>
       </c>
-      <c r="BC11" s="20">
+      <c r="BC11" s="21">
         <v>2000000.0</v>
       </c>
       <c r="BD11" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="BE11" s="23" t="s">
+      <c r="BE11" s="24" t="s">
         <v>99</v>
       </c>
       <c r="BF11" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BG11" s="22">
+      <c r="BG11" s="23">
         <v>44652.0</v>
       </c>
-      <c r="BH11" s="24" t="s">
+      <c r="BH11" s="25" t="s">
         <v>100</v>
       </c>
       <c r="BI11" s="17" t="s">
@@ -4528,33 +4492,33 @@
       <c r="BK11" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BL11" s="25" t="s">
+      <c r="BL11" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="BM11" s="25" t="s">
+      <c r="BM11" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="BN11" s="25" t="s">
+      <c r="BN11" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="BO11" s="25" t="s">
+      <c r="BO11" s="26" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="35" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B12" s="15">
         <v>1010.0</v>
       </c>
-      <c r="C12" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" s="21" t="s">
+      <c r="C12" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="22" t="s">
         <v>84</v>
       </c>
       <c r="F12" s="18" t="s">
@@ -4602,29 +4566,29 @@
       <c r="T12" s="19">
         <v>0.0</v>
       </c>
-      <c r="U12" s="26" t="s">
+      <c r="U12" s="27" t="s">
         <v>109</v>
       </c>
       <c r="V12" s="16" t="s">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="W12" s="19">
         <v>1.0</v>
       </c>
-      <c r="X12" s="32">
-        <v>12.0</v>
+      <c r="X12" s="20">
+        <v>10.0</v>
       </c>
       <c r="Y12" s="17" t="str">
         <f t="shared" si="1"/>
         <v>EQU.TR.BTR.001.MAJ.01.........</v>
       </c>
       <c r="Z12" s="17" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="AA12" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="AB12" s="21">
+        <v>167</v>
+      </c>
+      <c r="AB12" s="22">
         <v>1012.0</v>
       </c>
       <c r="AC12" s="17" t="s">
@@ -4636,7 +4600,7 @@
       <c r="AE12" s="16">
         <v>0.0</v>
       </c>
-      <c r="AF12" s="21" t="s">
+      <c r="AF12" s="22" t="s">
         <v>84</v>
       </c>
       <c r="AG12" s="17" t="s">
@@ -4661,12 +4625,12 @@
         <v>84</v>
       </c>
       <c r="AN12" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="AO12" s="22">
+        <v>168</v>
+      </c>
+      <c r="AO12" s="23">
         <v>43831.0</v>
       </c>
-      <c r="AP12" s="27">
+      <c r="AP12" s="28">
         <v>50000.0</v>
       </c>
       <c r="AQ12" s="16" t="s">
@@ -4700,28 +4664,28 @@
       <c r="AZ12" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="BA12" s="20">
+      <c r="BA12" s="21">
         <v>110000.0</v>
       </c>
-      <c r="BB12" s="22">
+      <c r="BB12" s="23">
         <v>48305.0</v>
       </c>
-      <c r="BC12" s="20">
+      <c r="BC12" s="21">
         <v>2000000.0</v>
       </c>
       <c r="BD12" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="BE12" s="23" t="s">
+      <c r="BE12" s="24" t="s">
         <v>117</v>
       </c>
       <c r="BF12" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BG12" s="22">
+      <c r="BG12" s="23">
         <v>44652.0</v>
       </c>
-      <c r="BH12" s="24" t="s">
+      <c r="BH12" s="25" t="s">
         <v>100</v>
       </c>
       <c r="BI12" s="17" t="s">
@@ -4733,33 +4697,33 @@
       <c r="BK12" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BL12" s="25" t="s">
+      <c r="BL12" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="BM12" s="25" t="s">
+      <c r="BM12" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="BN12" s="25" t="s">
+      <c r="BN12" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="BO12" s="25" t="s">
+      <c r="BO12" s="26" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="14" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B13" s="15">
         <v>1011.0</v>
       </c>
-      <c r="C13" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="E13" s="21" t="s">
+      <c r="C13" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="22" t="s">
         <v>84</v>
       </c>
       <c r="F13" s="18" t="s">
@@ -4807,29 +4771,29 @@
       <c r="T13" s="19">
         <v>0.0</v>
       </c>
-      <c r="U13" s="26" t="s">
+      <c r="U13" s="27" t="s">
         <v>109</v>
       </c>
       <c r="V13" s="16" t="s">
-        <v>178</v>
+        <v>126</v>
       </c>
       <c r="W13" s="19">
         <v>1.0</v>
       </c>
-      <c r="X13" s="32">
-        <v>13.0</v>
+      <c r="X13" s="20">
+        <v>11.0</v>
       </c>
       <c r="Y13" s="17" t="str">
         <f t="shared" si="1"/>
         <v>EQU.TR.BTR.001.SUP.01.........</v>
       </c>
       <c r="Z13" s="17" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="AA13" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="AB13" s="21">
+        <v>171</v>
+      </c>
+      <c r="AB13" s="22">
         <v>1013.0</v>
       </c>
       <c r="AC13" s="17" t="s">
@@ -4841,7 +4805,7 @@
       <c r="AE13" s="16">
         <v>0.0</v>
       </c>
-      <c r="AF13" s="21" t="s">
+      <c r="AF13" s="22" t="s">
         <v>84</v>
       </c>
       <c r="AG13" s="17" t="s">
@@ -4866,12 +4830,12 @@
         <v>84</v>
       </c>
       <c r="AN13" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="AO13" s="22">
+        <v>172</v>
+      </c>
+      <c r="AO13" s="23">
         <v>43831.0</v>
       </c>
-      <c r="AP13" s="27">
+      <c r="AP13" s="28">
         <v>50000.0</v>
       </c>
       <c r="AQ13" s="16" t="s">
@@ -4905,28 +4869,28 @@
       <c r="AZ13" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="BA13" s="20">
+      <c r="BA13" s="21">
         <v>110000.0</v>
       </c>
-      <c r="BB13" s="22">
+      <c r="BB13" s="23">
         <v>48305.0</v>
       </c>
-      <c r="BC13" s="20">
+      <c r="BC13" s="21">
         <v>2000000.0</v>
       </c>
       <c r="BD13" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="BE13" s="23" t="s">
+      <c r="BE13" s="24" t="s">
         <v>130</v>
       </c>
       <c r="BF13" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BG13" s="22">
+      <c r="BG13" s="23">
         <v>44652.0</v>
       </c>
-      <c r="BH13" s="24" t="s">
+      <c r="BH13" s="25" t="s">
         <v>100</v>
       </c>
       <c r="BI13" s="17" t="s">
@@ -4938,33 +4902,33 @@
       <c r="BK13" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BL13" s="25" t="s">
+      <c r="BL13" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="BM13" s="25" t="s">
+      <c r="BM13" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="BN13" s="25" t="s">
+      <c r="BN13" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="BO13" s="25" t="s">
+      <c r="BO13" s="26" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B14" s="15">
         <v>1012.0</v>
       </c>
-      <c r="C14" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="E14" s="21" t="s">
+      <c r="C14" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="22" t="s">
         <v>84</v>
       </c>
       <c r="F14" s="18" t="s">
@@ -5012,29 +4976,29 @@
       <c r="T14" s="19">
         <v>0.0</v>
       </c>
-      <c r="U14" s="26" t="s">
+      <c r="U14" s="27" t="s">
         <v>109</v>
       </c>
       <c r="V14" s="17" t="s">
-        <v>183</v>
+        <v>89</v>
       </c>
       <c r="W14" s="19">
         <v>1.0</v>
       </c>
-      <c r="X14" s="32">
-        <v>14.0</v>
+      <c r="X14" s="20">
+        <v>12.0</v>
       </c>
       <c r="Y14" s="17" t="str">
         <f t="shared" si="1"/>
         <v>EQU.TR.BTR.001.REC.01.........</v>
       </c>
       <c r="Z14" s="17" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="AA14" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="AB14" s="21">
+        <v>175</v>
+      </c>
+      <c r="AB14" s="22">
         <v>1014.0</v>
       </c>
       <c r="AC14" s="17" t="s">
@@ -5046,7 +5010,7 @@
       <c r="AE14" s="16">
         <v>0.0</v>
       </c>
-      <c r="AF14" s="21" t="s">
+      <c r="AF14" s="22" t="s">
         <v>84</v>
       </c>
       <c r="AG14" s="17" t="s">
@@ -5071,12 +5035,12 @@
         <v>84</v>
       </c>
       <c r="AN14" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="AO14" s="22">
+        <v>176</v>
+      </c>
+      <c r="AO14" s="23">
         <v>43831.0</v>
       </c>
-      <c r="AP14" s="27">
+      <c r="AP14" s="28">
         <v>50000.0</v>
       </c>
       <c r="AQ14" s="16" t="s">
@@ -5110,28 +5074,28 @@
       <c r="AZ14" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="BA14" s="20">
+      <c r="BA14" s="21">
         <v>110000.0</v>
       </c>
-      <c r="BB14" s="22">
+      <c r="BB14" s="23">
         <v>48305.0</v>
       </c>
-      <c r="BC14" s="20">
+      <c r="BC14" s="21">
         <v>2000000.0</v>
       </c>
       <c r="BD14" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="BE14" s="23" t="s">
+      <c r="BE14" s="24" t="s">
         <v>99</v>
       </c>
       <c r="BF14" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BG14" s="22">
+      <c r="BG14" s="23">
         <v>44652.0</v>
       </c>
-      <c r="BH14" s="24" t="s">
+      <c r="BH14" s="25" t="s">
         <v>100</v>
       </c>
       <c r="BI14" s="17" t="s">
@@ -5143,33 +5107,33 @@
       <c r="BK14" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BL14" s="25" t="s">
+      <c r="BL14" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="BM14" s="25" t="s">
+      <c r="BM14" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="BN14" s="25" t="s">
+      <c r="BN14" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="BO14" s="25" t="s">
+      <c r="BO14" s="26" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="35" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="B15" s="15">
         <v>1013.0</v>
       </c>
-      <c r="C15" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="E15" s="21" t="s">
+      <c r="C15" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="22" t="s">
         <v>84</v>
       </c>
       <c r="F15" s="18" t="s">
@@ -5221,25 +5185,25 @@
         <v>88</v>
       </c>
       <c r="V15" s="16" t="s">
-        <v>188</v>
+        <v>110</v>
       </c>
       <c r="W15" s="19">
         <v>1.0</v>
       </c>
-      <c r="X15" s="32">
-        <v>15.0</v>
+      <c r="X15" s="20">
+        <v>13.0</v>
       </c>
       <c r="Y15" s="17" t="str">
         <f t="shared" si="1"/>
         <v>EQU.RT.ART.006.SRM.01.........</v>
       </c>
       <c r="Z15" s="17" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="AA15" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="AB15" s="21">
+        <v>179</v>
+      </c>
+      <c r="AB15" s="22">
         <v>1015.0</v>
       </c>
       <c r="AC15" s="17" t="s">
@@ -5251,7 +5215,7 @@
       <c r="AE15" s="16">
         <v>0.0</v>
       </c>
-      <c r="AF15" s="21" t="s">
+      <c r="AF15" s="22" t="s">
         <v>84</v>
       </c>
       <c r="AG15" s="17" t="s">
@@ -5276,12 +5240,12 @@
         <v>84</v>
       </c>
       <c r="AN15" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="AO15" s="22">
+        <v>145</v>
+      </c>
+      <c r="AO15" s="23">
         <v>43831.0</v>
       </c>
-      <c r="AP15" s="27">
+      <c r="AP15" s="28">
         <v>50000.0</v>
       </c>
       <c r="AQ15" s="16" t="s">
@@ -5315,28 +5279,28 @@
       <c r="AZ15" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="BA15" s="27">
+      <c r="BA15" s="28">
         <v>380000.0</v>
       </c>
-      <c r="BB15" s="22">
+      <c r="BB15" s="23">
         <v>47484.0</v>
       </c>
-      <c r="BC15" s="20">
+      <c r="BC15" s="21">
         <v>8000000.0</v>
       </c>
       <c r="BD15" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="BE15" s="23" t="s">
+      <c r="BE15" s="24" t="s">
         <v>117</v>
       </c>
       <c r="BF15" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BG15" s="22">
+      <c r="BG15" s="23">
         <v>43831.0</v>
       </c>
-      <c r="BH15" s="24" t="s">
+      <c r="BH15" s="25" t="s">
         <v>100</v>
       </c>
       <c r="BI15" s="17" t="s">
@@ -5348,33 +5312,33 @@
       <c r="BK15" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BL15" s="25" t="s">
+      <c r="BL15" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="BM15" s="25" t="s">
+      <c r="BM15" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="BN15" s="25" t="s">
+      <c r="BN15" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="BO15" s="25" t="s">
+      <c r="BO15" s="26" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="35" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="B16" s="15">
         <v>1014.0</v>
       </c>
-      <c r="C16" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="E16" s="21" t="s">
+      <c r="C16" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="22" t="s">
         <v>84</v>
       </c>
       <c r="F16" s="18" t="s">
@@ -5425,26 +5389,26 @@
       <c r="U16" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="V16" s="17" t="s">
-        <v>192</v>
+      <c r="V16" s="16" t="s">
+        <v>126</v>
       </c>
       <c r="W16" s="19">
         <v>1.0</v>
       </c>
-      <c r="X16" s="32">
-        <v>16.0</v>
+      <c r="X16" s="20">
+        <v>14.0</v>
       </c>
       <c r="Y16" s="17" t="str">
         <f t="shared" si="1"/>
         <v>EQU.RT.ART.006.SRS.01.........</v>
       </c>
       <c r="Z16" s="17" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="AA16" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="AB16" s="21">
+        <v>182</v>
+      </c>
+      <c r="AB16" s="22">
         <v>1016.0</v>
       </c>
       <c r="AC16" s="17" t="s">
@@ -5456,7 +5420,7 @@
       <c r="AE16" s="16">
         <v>0.0</v>
       </c>
-      <c r="AF16" s="21" t="s">
+      <c r="AF16" s="22" t="s">
         <v>84</v>
       </c>
       <c r="AG16" s="17" t="s">
@@ -5481,12 +5445,12 @@
         <v>84</v>
       </c>
       <c r="AN16" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="AO16" s="22">
+        <v>145</v>
+      </c>
+      <c r="AO16" s="23">
         <v>43831.0</v>
       </c>
-      <c r="AP16" s="27">
+      <c r="AP16" s="28">
         <v>50000.0</v>
       </c>
       <c r="AQ16" s="16" t="s">
@@ -5520,28 +5484,28 @@
       <c r="AZ16" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="BA16" s="27">
+      <c r="BA16" s="28">
         <v>380000.0</v>
       </c>
-      <c r="BB16" s="22">
+      <c r="BB16" s="23">
         <v>47484.0</v>
       </c>
-      <c r="BC16" s="20">
+      <c r="BC16" s="21">
         <v>8000000.0</v>
       </c>
       <c r="BD16" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="BE16" s="23" t="s">
+      <c r="BE16" s="24" t="s">
         <v>130</v>
       </c>
       <c r="BF16" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BG16" s="22">
+      <c r="BG16" s="23">
         <v>43831.0</v>
       </c>
-      <c r="BH16" s="24" t="s">
+      <c r="BH16" s="25" t="s">
         <v>100</v>
       </c>
       <c r="BI16" s="17" t="s">
@@ -5553,16 +5517,16 @@
       <c r="BK16" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BL16" s="25" t="s">
+      <c r="BL16" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="BM16" s="25" t="s">
+      <c r="BM16" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="BN16" s="25" t="s">
+      <c r="BN16" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="BO16" s="25" t="s">
+      <c r="BO16" s="26" t="s">
         <v>102</v>
       </c>
     </row>
@@ -6979,7 +6943,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="36" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B1" s="37" t="s">
         <v>14</v>
@@ -6988,10 +6952,10 @@
         <v>28</v>
       </c>
       <c r="D1" s="37" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
@@ -10035,19 +9999,19 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="36" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="B1" s="37" t="s">
         <v>14</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="D1" s="37" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="F1" s="38" t="s">
         <v>52</v>
@@ -10075,42 +10039,42 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="40" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="B2" s="19">
         <v>1013.0</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="E2" s="21">
+        <v>191</v>
+      </c>
+      <c r="E2" s="22">
         <v>10.0</v>
       </c>
-      <c r="F2" s="21" t="s">
-        <v>204</v>
+      <c r="F2" s="22" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="40" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="B3" s="19">
         <v>1014.0</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="E3" s="21">
+        <v>193</v>
+      </c>
+      <c r="E3" s="22">
         <v>10.0</v>
       </c>
-      <c r="F3" s="21" t="s">
-        <v>204</v>
+      <c r="F3" s="22" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
@@ -13126,13 +13090,13 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="36" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
@@ -13165,8 +13129,8 @@
       <c r="B2" s="19">
         <v>1000.0</v>
       </c>
-      <c r="C2" s="21" t="s">
-        <v>209</v>
+      <c r="C2" s="22" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -13176,30 +13140,30 @@
       <c r="B3" s="19">
         <v>1001.0</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>210</v>
+      <c r="C3" s="22" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="20">
         <v>1002.0</v>
       </c>
-      <c r="C4" s="21" t="s">
-        <v>211</v>
+      <c r="C4" s="22" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5" s="20">
         <v>1003.0</v>
       </c>
-      <c r="C5" s="21" t="s">
-        <v>212</v>
+      <c r="C5" s="22" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
@@ -13209,8 +13173,8 @@
       <c r="B6" s="19">
         <v>2000.0</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>213</v>
+      <c r="C6" s="22" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
@@ -13220,8 +13184,8 @@
       <c r="B7" s="19">
         <v>2001.0</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>214</v>
+      <c r="C7" s="22" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
@@ -13231,8 +13195,8 @@
       <c r="B8" s="19">
         <v>2002.0</v>
       </c>
-      <c r="C8" s="21" t="s">
-        <v>215</v>
+      <c r="C8" s="22" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -13242,8 +13206,8 @@
       <c r="B9" s="19">
         <v>2003.0</v>
       </c>
-      <c r="C9" s="21" t="s">
-        <v>216</v>
+      <c r="C9" s="22" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -16240,10 +16204,10 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>

--- a/TNR_PREJDD/PREJDD.RT.EQU.xlsx
+++ b/TNR_PREJDD/PREJDD.RT.EQU.xlsx
@@ -2218,10 +2218,8 @@
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="1.0" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B1" sqref="B1" pane="topRight"/>
-      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
-      <selection activeCell="B2" sqref="B2" pane="bottomRight"/>
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
@@ -2642,7 +2640,7 @@
         <v>84</v>
       </c>
       <c r="BJ2" s="22">
-        <v>1000.0</v>
+        <v>1001.0</v>
       </c>
       <c r="BK2" s="17" t="s">
         <v>101</v>

--- a/TNR_PREJDD/PREJDD.RT.EQU.xlsx
+++ b/TNR_PREJDD/PREJDD.RT.EQU.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="210">
   <si>
     <t>Date</t>
   </si>
@@ -323,6 +323,9 @@
     <t>CRITICITE01</t>
   </si>
   <si>
+    <t>HEURES</t>
+  </si>
+  <si>
     <t>DEFAUT</t>
   </si>
   <si>
@@ -377,6 +380,9 @@
     <t>CRITICITE02</t>
   </si>
   <si>
+    <t>CYCLES</t>
+  </si>
+  <si>
     <t>CLI.RT.EQU.001.MAJ.01</t>
   </si>
   <si>
@@ -414,6 +420,9 @@
   </si>
   <si>
     <t>CRITICITE03</t>
+  </si>
+  <si>
+    <t>KM</t>
   </si>
   <si>
     <t>CLI.RT.EQU.001.SUP.01</t>
@@ -863,13 +872,13 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="6" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2218,8 +2227,10 @@
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane xSplit="1.0" ySplit="1.0" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1" pane="topRight"/>
+      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
+      <selection activeCell="B2" sqref="B2" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
@@ -2627,14 +2638,14 @@
       <c r="BE2" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="BF2" s="17" t="s">
-        <v>84</v>
+      <c r="BF2" s="25" t="s">
+        <v>100</v>
       </c>
       <c r="BG2" s="23">
         <v>44652.0</v>
       </c>
-      <c r="BH2" s="25" t="s">
-        <v>100</v>
+      <c r="BH2" s="26" t="s">
+        <v>101</v>
       </c>
       <c r="BI2" s="17" t="s">
         <v>84</v>
@@ -2643,36 +2654,36 @@
         <v>1001.0</v>
       </c>
       <c r="BK2" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="BL2" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="BL2" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="BM2" s="26" t="s">
+      <c r="BM2" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="BN2" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="BO2" s="26" t="s">
-        <v>102</v>
+      <c r="BN2" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="BO2" s="27" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B3" s="15">
         <v>1001.0</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F3" s="18" t="s">
         <v>84</v>
@@ -2702,7 +2713,7 @@
         <v>84</v>
       </c>
       <c r="O3" s="16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P3" s="16" t="s">
         <v>85</v>
@@ -2714,16 +2725,16 @@
         <v>84</v>
       </c>
       <c r="S3" s="16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="T3" s="19">
         <v>0.0</v>
       </c>
-      <c r="U3" s="27" t="s">
-        <v>109</v>
+      <c r="U3" s="25" t="s">
+        <v>110</v>
       </c>
       <c r="V3" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="W3" s="19">
         <v>1.0</v>
@@ -2736,10 +2747,10 @@
         <v>RT.EQU.001.MAJ.01.............</v>
       </c>
       <c r="Z3" s="17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA3" s="16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AB3" s="21">
         <v>1003.0</v>
@@ -2757,16 +2768,16 @@
         <v>84</v>
       </c>
       <c r="AG3" s="16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AH3" s="16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AI3" s="16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ3" s="16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK3" s="29">
         <v>43466.0</v>
@@ -2778,7 +2789,7 @@
         <v>84</v>
       </c>
       <c r="AN3" s="16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AO3" s="23">
         <v>43831.0</v>
@@ -2830,16 +2841,16 @@
         <v>98</v>
       </c>
       <c r="BE3" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="BF3" s="17" t="s">
-        <v>84</v>
+        <v>118</v>
+      </c>
+      <c r="BF3" s="16" t="s">
+        <v>119</v>
       </c>
       <c r="BG3" s="23">
         <v>43831.0</v>
       </c>
-      <c r="BH3" s="25" t="s">
-        <v>100</v>
+      <c r="BH3" s="26" t="s">
+        <v>101</v>
       </c>
       <c r="BI3" s="17" t="s">
         <v>84</v>
@@ -2848,16 +2859,16 @@
         <v>1002.0</v>
       </c>
       <c r="BK3" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="BL3" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BL3" s="27" t="s">
         <v>97</v>
       </c>
       <c r="BM3" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="BN3" s="26" t="s">
-        <v>102</v>
+      <c r="BN3" s="27" t="s">
+        <v>103</v>
       </c>
       <c r="BO3" s="31" t="s">
         <v>84</v>
@@ -2865,19 +2876,19 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B4" s="15">
         <v>1002.0</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F4" s="18" t="s">
         <v>84</v>
@@ -2907,7 +2918,7 @@
         <v>84</v>
       </c>
       <c r="O4" s="16" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P4" s="16" t="s">
         <v>85</v>
@@ -2919,16 +2930,16 @@
         <v>84</v>
       </c>
       <c r="S4" s="16" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="T4" s="19">
         <v>0.0</v>
       </c>
-      <c r="U4" s="27" t="s">
-        <v>125</v>
+      <c r="U4" s="25" t="s">
+        <v>127</v>
       </c>
       <c r="V4" s="16" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="W4" s="19">
         <v>1.0</v>
@@ -2941,10 +2952,10 @@
         <v>RT.EQU.001.SUP.01.............</v>
       </c>
       <c r="Z4" s="17" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AA4" s="16" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AB4" s="28">
         <v>1004.0</v>
@@ -2971,7 +2982,7 @@
         <v>93</v>
       </c>
       <c r="AJ4" s="17" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AK4" s="29">
         <v>43466.0</v>
@@ -2983,7 +2994,7 @@
         <v>84</v>
       </c>
       <c r="AN4" s="17" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AO4" s="23">
         <v>43831.0</v>
@@ -3035,16 +3046,16 @@
         <v>98</v>
       </c>
       <c r="BE4" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="BF4" s="17" t="s">
-        <v>84</v>
+        <v>132</v>
+      </c>
+      <c r="BF4" s="22" t="s">
+        <v>133</v>
       </c>
       <c r="BG4" s="23">
         <v>43831.0</v>
       </c>
-      <c r="BH4" s="25" t="s">
-        <v>100</v>
+      <c r="BH4" s="26" t="s">
+        <v>101</v>
       </c>
       <c r="BI4" s="17" t="s">
         <v>84</v>
@@ -3053,36 +3064,36 @@
         <v>1004.0</v>
       </c>
       <c r="BK4" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="BL4" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="BL4" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="BM4" s="26" t="s">
+      <c r="BM4" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="BN4" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="BO4" s="26" t="s">
-        <v>102</v>
+      <c r="BN4" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="BO4" s="27" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="14" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B5" s="15">
         <v>1003.0</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F5" s="18" t="s">
         <v>84</v>
@@ -3112,7 +3123,7 @@
         <v>84</v>
       </c>
       <c r="O5" s="16" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="P5" s="16" t="s">
         <v>85</v>
@@ -3124,7 +3135,7 @@
         <v>84</v>
       </c>
       <c r="S5" s="16" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="T5" s="19">
         <v>0.0</v>
@@ -3146,10 +3157,10 @@
         <v>RT.EQU.001.REC.01.............</v>
       </c>
       <c r="Z5" s="17" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="AA5" s="16" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AB5" s="28">
         <v>1005.0</v>
@@ -3167,16 +3178,16 @@
         <v>84</v>
       </c>
       <c r="AG5" s="16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AH5" s="16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AI5" s="16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ5" s="16" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AK5" s="29">
         <v>43466.0</v>
@@ -3188,7 +3199,7 @@
         <v>84</v>
       </c>
       <c r="AN5" s="16" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AO5" s="23">
         <v>43831.0</v>
@@ -3242,14 +3253,14 @@
       <c r="BE5" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="BF5" s="17" t="s">
-        <v>84</v>
+      <c r="BF5" s="22" t="s">
+        <v>133</v>
       </c>
       <c r="BG5" s="23">
         <v>43831.0</v>
       </c>
-      <c r="BH5" s="25" t="s">
-        <v>100</v>
+      <c r="BH5" s="26" t="s">
+        <v>101</v>
       </c>
       <c r="BI5" s="17" t="s">
         <v>84</v>
@@ -3258,24 +3269,24 @@
         <v>1005.0</v>
       </c>
       <c r="BK5" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="BL5" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="BL5" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="BM5" s="26" t="s">
+      <c r="BM5" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="BN5" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="BO5" s="26" t="s">
-        <v>102</v>
+      <c r="BN5" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="BO5" s="27" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="34" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B6" s="15">
         <v>1004.0</v>
@@ -3338,7 +3349,7 @@
         <v>88</v>
       </c>
       <c r="V6" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="W6" s="19">
         <v>1.0</v>
@@ -3351,10 +3362,10 @@
         <v>EQU.RT.ART.006.SRA.01.........</v>
       </c>
       <c r="Z6" s="17" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AA6" s="22" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AB6" s="22">
         <v>1006.0</v>
@@ -3393,7 +3404,7 @@
         <v>84</v>
       </c>
       <c r="AN6" s="16" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AO6" s="23">
         <v>43831.0</v>
@@ -3445,7 +3456,7 @@
         <v>96</v>
       </c>
       <c r="BE6" s="24" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="BF6" s="17" t="s">
         <v>84</v>
@@ -3453,8 +3464,8 @@
       <c r="BG6" s="23">
         <v>43831.0</v>
       </c>
-      <c r="BH6" s="25" t="s">
-        <v>100</v>
+      <c r="BH6" s="26" t="s">
+        <v>101</v>
       </c>
       <c r="BI6" s="17" t="s">
         <v>84</v>
@@ -3465,22 +3476,22 @@
       <c r="BK6" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BL6" s="26" t="s">
+      <c r="BL6" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="BM6" s="26" t="s">
+      <c r="BM6" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="BN6" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="BO6" s="26" t="s">
-        <v>102</v>
+      <c r="BN6" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="BO6" s="27" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="34" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B7" s="15">
         <v>1005.0</v>
@@ -3543,7 +3554,7 @@
         <v>88</v>
       </c>
       <c r="V7" s="16" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="W7" s="19">
         <v>1.0</v>
@@ -3556,10 +3567,10 @@
         <v>EQU.RT.MAT.001.CRE.01.........</v>
       </c>
       <c r="Z7" s="17" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AA7" s="22" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AB7" s="22">
         <v>1007.0</v>
@@ -3598,7 +3609,7 @@
         <v>84</v>
       </c>
       <c r="AN7" s="16" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="AO7" s="23">
         <v>43831.0</v>
@@ -3650,7 +3661,7 @@
         <v>96</v>
       </c>
       <c r="BE7" s="24" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="BF7" s="17" t="s">
         <v>84</v>
@@ -3658,8 +3669,8 @@
       <c r="BG7" s="23">
         <v>43831.0</v>
       </c>
-      <c r="BH7" s="25" t="s">
-        <v>100</v>
+      <c r="BH7" s="26" t="s">
+        <v>101</v>
       </c>
       <c r="BI7" s="17" t="s">
         <v>84</v>
@@ -3670,22 +3681,22 @@
       <c r="BK7" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BL7" s="26" t="s">
+      <c r="BL7" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="BM7" s="26" t="s">
+      <c r="BM7" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="BN7" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="BO7" s="26" t="s">
-        <v>102</v>
+      <c r="BN7" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="BO7" s="27" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="14" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B8" s="15">
         <v>1006.0</v>
@@ -3744,8 +3755,8 @@
       <c r="T8" s="19">
         <v>0.0</v>
       </c>
-      <c r="U8" s="27" t="s">
-        <v>109</v>
+      <c r="U8" s="25" t="s">
+        <v>110</v>
       </c>
       <c r="V8" s="17" t="s">
         <v>89</v>
@@ -3761,10 +3772,10 @@
         <v>EQU.TR.BTR.001.CRE.01.........</v>
       </c>
       <c r="Z8" s="17" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="AA8" s="17" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="AB8" s="22">
         <v>1008.0</v>
@@ -3803,7 +3814,7 @@
         <v>84</v>
       </c>
       <c r="AN8" s="16" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="AO8" s="23">
         <v>43831.0</v>
@@ -3863,8 +3874,8 @@
       <c r="BG8" s="23">
         <v>44652.0</v>
       </c>
-      <c r="BH8" s="25" t="s">
-        <v>100</v>
+      <c r="BH8" s="26" t="s">
+        <v>101</v>
       </c>
       <c r="BI8" s="17" t="s">
         <v>84</v>
@@ -3875,22 +3886,22 @@
       <c r="BK8" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BL8" s="26" t="s">
+      <c r="BL8" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="BM8" s="26" t="s">
+      <c r="BM8" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="BN8" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="BO8" s="26" t="s">
-        <v>102</v>
+      <c r="BN8" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="BO8" s="27" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="35" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B9" s="15">
         <v>1007.0</v>
@@ -3949,11 +3960,11 @@
       <c r="T9" s="19">
         <v>0.0</v>
       </c>
-      <c r="U9" s="27" t="s">
-        <v>109</v>
+      <c r="U9" s="25" t="s">
+        <v>110</v>
       </c>
       <c r="V9" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="W9" s="19">
         <v>1.0</v>
@@ -3966,10 +3977,10 @@
         <v>EQU.TR.BTR.001.CRE.03.........</v>
       </c>
       <c r="Z9" s="17" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AA9" s="17" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AB9" s="22">
         <v>1009.0</v>
@@ -4008,7 +4019,7 @@
         <v>84</v>
       </c>
       <c r="AN9" s="16" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AO9" s="23">
         <v>43831.0</v>
@@ -4060,7 +4071,7 @@
         <v>98</v>
       </c>
       <c r="BE9" s="24" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="BF9" s="17" t="s">
         <v>84</v>
@@ -4068,8 +4079,8 @@
       <c r="BG9" s="23">
         <v>44652.0</v>
       </c>
-      <c r="BH9" s="25" t="s">
-        <v>100</v>
+      <c r="BH9" s="26" t="s">
+        <v>101</v>
       </c>
       <c r="BI9" s="17" t="s">
         <v>84</v>
@@ -4080,22 +4091,22 @@
       <c r="BK9" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BL9" s="26" t="s">
+      <c r="BL9" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="BM9" s="26" t="s">
+      <c r="BM9" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="BN9" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="BO9" s="26" t="s">
-        <v>102</v>
+      <c r="BN9" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="BO9" s="27" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="35" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B10" s="15">
         <v>1008.0</v>
@@ -4154,11 +4165,11 @@
       <c r="T10" s="19">
         <v>0.0</v>
       </c>
-      <c r="U10" s="27" t="s">
-        <v>109</v>
+      <c r="U10" s="25" t="s">
+        <v>110</v>
       </c>
       <c r="V10" s="16" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="W10" s="19">
         <v>1.0</v>
@@ -4171,10 +4182,10 @@
         <v>EQU.TR.BTR.001.LEC.01.........</v>
       </c>
       <c r="Z10" s="17" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AA10" s="17" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AB10" s="22">
         <v>1010.0</v>
@@ -4213,7 +4224,7 @@
         <v>84</v>
       </c>
       <c r="AN10" s="16" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AO10" s="23">
         <v>43831.0</v>
@@ -4265,7 +4276,7 @@
         <v>98</v>
       </c>
       <c r="BE10" s="24" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="BF10" s="17" t="s">
         <v>84</v>
@@ -4273,8 +4284,8 @@
       <c r="BG10" s="23">
         <v>44652.0</v>
       </c>
-      <c r="BH10" s="25" t="s">
-        <v>100</v>
+      <c r="BH10" s="26" t="s">
+        <v>101</v>
       </c>
       <c r="BI10" s="17" t="s">
         <v>84</v>
@@ -4285,22 +4296,22 @@
       <c r="BK10" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BL10" s="26" t="s">
+      <c r="BL10" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="BM10" s="26" t="s">
+      <c r="BM10" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="BN10" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="BO10" s="26" t="s">
-        <v>102</v>
+      <c r="BN10" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="BO10" s="27" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="35" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B11" s="15">
         <v>1009.0</v>
@@ -4359,8 +4370,8 @@
       <c r="T11" s="19">
         <v>0.0</v>
       </c>
-      <c r="U11" s="27" t="s">
-        <v>109</v>
+      <c r="U11" s="25" t="s">
+        <v>110</v>
       </c>
       <c r="V11" s="17" t="s">
         <v>89</v>
@@ -4376,10 +4387,10 @@
         <v>EQU.UPD.TR.BTR.001.MAJ.01.....</v>
       </c>
       <c r="Z11" s="17" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AA11" s="17" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AB11" s="22">
         <v>1011.0</v>
@@ -4418,7 +4429,7 @@
         <v>84</v>
       </c>
       <c r="AN11" s="16" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AO11" s="23">
         <v>43831.0</v>
@@ -4478,8 +4489,8 @@
       <c r="BG11" s="23">
         <v>44652.0</v>
       </c>
-      <c r="BH11" s="25" t="s">
-        <v>100</v>
+      <c r="BH11" s="26" t="s">
+        <v>101</v>
       </c>
       <c r="BI11" s="17" t="s">
         <v>84</v>
@@ -4490,22 +4501,22 @@
       <c r="BK11" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BL11" s="26" t="s">
+      <c r="BL11" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="BM11" s="26" t="s">
+      <c r="BM11" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="BN11" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="BO11" s="26" t="s">
-        <v>102</v>
+      <c r="BN11" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="BO11" s="27" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="35" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B12" s="15">
         <v>1010.0</v>
@@ -4564,11 +4575,11 @@
       <c r="T12" s="19">
         <v>0.0</v>
       </c>
-      <c r="U12" s="27" t="s">
-        <v>109</v>
+      <c r="U12" s="25" t="s">
+        <v>110</v>
       </c>
       <c r="V12" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="W12" s="19">
         <v>1.0</v>
@@ -4581,10 +4592,10 @@
         <v>EQU.TR.BTR.001.MAJ.01.........</v>
       </c>
       <c r="Z12" s="17" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AA12" s="17" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AB12" s="22">
         <v>1012.0</v>
@@ -4623,7 +4634,7 @@
         <v>84</v>
       </c>
       <c r="AN12" s="16" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AO12" s="23">
         <v>43831.0</v>
@@ -4675,7 +4686,7 @@
         <v>98</v>
       </c>
       <c r="BE12" s="24" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="BF12" s="17" t="s">
         <v>84</v>
@@ -4683,8 +4694,8 @@
       <c r="BG12" s="23">
         <v>44652.0</v>
       </c>
-      <c r="BH12" s="25" t="s">
-        <v>100</v>
+      <c r="BH12" s="26" t="s">
+        <v>101</v>
       </c>
       <c r="BI12" s="17" t="s">
         <v>84</v>
@@ -4695,22 +4706,22 @@
       <c r="BK12" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BL12" s="26" t="s">
+      <c r="BL12" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="BM12" s="26" t="s">
+      <c r="BM12" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="BN12" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="BO12" s="26" t="s">
-        <v>102</v>
+      <c r="BN12" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="BO12" s="27" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="14" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B13" s="15">
         <v>1011.0</v>
@@ -4769,11 +4780,11 @@
       <c r="T13" s="19">
         <v>0.0</v>
       </c>
-      <c r="U13" s="27" t="s">
-        <v>109</v>
+      <c r="U13" s="25" t="s">
+        <v>110</v>
       </c>
       <c r="V13" s="16" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="W13" s="19">
         <v>1.0</v>
@@ -4786,10 +4797,10 @@
         <v>EQU.TR.BTR.001.SUP.01.........</v>
       </c>
       <c r="Z13" s="17" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="AA13" s="17" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="AB13" s="22">
         <v>1013.0</v>
@@ -4828,7 +4839,7 @@
         <v>84</v>
       </c>
       <c r="AN13" s="16" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AO13" s="23">
         <v>43831.0</v>
@@ -4880,7 +4891,7 @@
         <v>98</v>
       </c>
       <c r="BE13" s="24" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="BF13" s="17" t="s">
         <v>84</v>
@@ -4888,8 +4899,8 @@
       <c r="BG13" s="23">
         <v>44652.0</v>
       </c>
-      <c r="BH13" s="25" t="s">
-        <v>100</v>
+      <c r="BH13" s="26" t="s">
+        <v>101</v>
       </c>
       <c r="BI13" s="17" t="s">
         <v>84</v>
@@ -4900,22 +4911,22 @@
       <c r="BK13" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BL13" s="26" t="s">
+      <c r="BL13" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="BM13" s="26" t="s">
+      <c r="BM13" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="BN13" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="BO13" s="26" t="s">
-        <v>102</v>
+      <c r="BN13" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="BO13" s="27" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B14" s="15">
         <v>1012.0</v>
@@ -4974,8 +4985,8 @@
       <c r="T14" s="19">
         <v>0.0</v>
       </c>
-      <c r="U14" s="27" t="s">
-        <v>109</v>
+      <c r="U14" s="25" t="s">
+        <v>110</v>
       </c>
       <c r="V14" s="17" t="s">
         <v>89</v>
@@ -4991,10 +5002,10 @@
         <v>EQU.TR.BTR.001.REC.01.........</v>
       </c>
       <c r="Z14" s="17" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="AA14" s="17" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AB14" s="22">
         <v>1014.0</v>
@@ -5033,7 +5044,7 @@
         <v>84</v>
       </c>
       <c r="AN14" s="16" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AO14" s="23">
         <v>43831.0</v>
@@ -5093,8 +5104,8 @@
       <c r="BG14" s="23">
         <v>44652.0</v>
       </c>
-      <c r="BH14" s="25" t="s">
-        <v>100</v>
+      <c r="BH14" s="26" t="s">
+        <v>101</v>
       </c>
       <c r="BI14" s="17" t="s">
         <v>84</v>
@@ -5105,22 +5116,22 @@
       <c r="BK14" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BL14" s="26" t="s">
+      <c r="BL14" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="BM14" s="26" t="s">
+      <c r="BM14" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="BN14" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="BO14" s="26" t="s">
-        <v>102</v>
+      <c r="BN14" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="BO14" s="27" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="35" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B15" s="15">
         <v>1013.0</v>
@@ -5183,7 +5194,7 @@
         <v>88</v>
       </c>
       <c r="V15" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="W15" s="19">
         <v>1.0</v>
@@ -5196,10 +5207,10 @@
         <v>EQU.RT.ART.006.SRM.01.........</v>
       </c>
       <c r="Z15" s="17" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="AA15" s="17" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="AB15" s="22">
         <v>1015.0</v>
@@ -5238,7 +5249,7 @@
         <v>84</v>
       </c>
       <c r="AN15" s="16" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AO15" s="23">
         <v>43831.0</v>
@@ -5290,7 +5301,7 @@
         <v>96</v>
       </c>
       <c r="BE15" s="24" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="BF15" s="17" t="s">
         <v>84</v>
@@ -5298,8 +5309,8 @@
       <c r="BG15" s="23">
         <v>43831.0</v>
       </c>
-      <c r="BH15" s="25" t="s">
-        <v>100</v>
+      <c r="BH15" s="26" t="s">
+        <v>101</v>
       </c>
       <c r="BI15" s="17" t="s">
         <v>84</v>
@@ -5310,22 +5321,22 @@
       <c r="BK15" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BL15" s="26" t="s">
+      <c r="BL15" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="BM15" s="26" t="s">
+      <c r="BM15" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="BN15" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="BO15" s="26" t="s">
-        <v>102</v>
+      <c r="BN15" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="BO15" s="27" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="35" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B16" s="15">
         <v>1014.0</v>
@@ -5388,7 +5399,7 @@
         <v>88</v>
       </c>
       <c r="V16" s="16" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="W16" s="19">
         <v>1.0</v>
@@ -5401,10 +5412,10 @@
         <v>EQU.RT.ART.006.SRS.01.........</v>
       </c>
       <c r="Z16" s="17" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AA16" s="17" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="AB16" s="22">
         <v>1016.0</v>
@@ -5443,7 +5454,7 @@
         <v>84</v>
       </c>
       <c r="AN16" s="16" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AO16" s="23">
         <v>43831.0</v>
@@ -5495,7 +5506,7 @@
         <v>96</v>
       </c>
       <c r="BE16" s="24" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="BF16" s="17" t="s">
         <v>84</v>
@@ -5503,8 +5514,8 @@
       <c r="BG16" s="23">
         <v>43831.0</v>
       </c>
-      <c r="BH16" s="25" t="s">
-        <v>100</v>
+      <c r="BH16" s="26" t="s">
+        <v>101</v>
       </c>
       <c r="BI16" s="17" t="s">
         <v>84</v>
@@ -5515,17 +5526,17 @@
       <c r="BK16" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="BL16" s="26" t="s">
+      <c r="BL16" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="BM16" s="26" t="s">
+      <c r="BM16" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="BN16" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="BO16" s="26" t="s">
-        <v>102</v>
+      <c r="BN16" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="BO16" s="27" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
@@ -6941,7 +6952,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="36" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B1" s="37" t="s">
         <v>14</v>
@@ -6950,10 +6961,10 @@
         <v>28</v>
       </c>
       <c r="D1" s="37" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
@@ -9997,19 +10008,19 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="36" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B1" s="37" t="s">
         <v>14</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D1" s="37" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F1" s="38" t="s">
         <v>52</v>
@@ -10037,42 +10048,42 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="40" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B2" s="19">
         <v>1013.0</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E2" s="22">
         <v>10.0</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="40" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B3" s="19">
         <v>1014.0</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E3" s="22">
         <v>10.0</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
@@ -13088,13 +13099,13 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="36" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
@@ -13128,40 +13139,40 @@
         <v>1000.0</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B3" s="19">
         <v>1001.0</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B4" s="20">
         <v>1002.0</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="14" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B5" s="20">
         <v>1003.0</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
@@ -13172,40 +13183,40 @@
         <v>2000.0</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B7" s="19">
         <v>2001.0</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B8" s="19">
         <v>2002.0</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="14" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B9" s="19">
         <v>2003.0</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -16202,10 +16213,10 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
